--- a/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
+++ b/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="44">
   <si>
     <t xml:space="preserve">delta duration </t>
   </si>
@@ -68,9 +68,6 @@
     <t>Cleaning</t>
   </si>
   <si>
-    <t>FillDispenser</t>
-  </si>
-  <si>
     <t>PhoneCall</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>person</t>
+  </si>
+  <si>
+    <t>FillDispenser</t>
   </si>
   <si>
     <t>p26</t>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW10"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,13 +733,13 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>1104.761904761905</v>
+        <v>1247.619047619048</v>
       </c>
       <c r="D4">
-        <v>139.5571226279421</v>
+        <v>664.5442405280838</v>
       </c>
       <c r="E4">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -751,19 +751,19 @@
         <v>1200</v>
       </c>
       <c r="I4">
-        <v>1300</v>
+        <v>4100</v>
       </c>
       <c r="J4">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>919.047619047619</v>
+        <v>1080.952380952381</v>
       </c>
       <c r="L4">
-        <v>87.28715609439695</v>
+        <v>670.5363879902774</v>
       </c>
       <c r="M4">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N4">
         <v>900</v>
@@ -775,16 +775,16 @@
         <v>1000</v>
       </c>
       <c r="Q4">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="R4">
         <v>21</v>
       </c>
       <c r="S4">
-        <v>185.7142857142857</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="T4">
-        <v>119.5228609334394</v>
+        <v>101.6530045465127</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -793,13 +793,13 @@
         <v>100</v>
       </c>
       <c r="W4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X4">
         <v>300</v>
       </c>
       <c r="Y4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z4">
         <v>21</v>
@@ -882,10 +882,10 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>10000</v>
+        <v>10004.7619047619</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>21.82178902359924</v>
       </c>
       <c r="E5">
         <v>10000</v>
@@ -900,7 +900,7 @@
         <v>10000</v>
       </c>
       <c r="I5">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="J5">
         <v>21</v>
@@ -930,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="S5">
-        <v>26000</v>
+        <v>25995.2380952381</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>21.82178902359924</v>
       </c>
       <c r="U5">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="V5">
         <v>26000</v>
@@ -1031,73 +1031,73 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>123.8095238095238</v>
+        <v>2057.142857142857</v>
       </c>
       <c r="D6">
-        <v>117.9184544707142</v>
+        <v>50.70925528371099</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="H6">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="I6">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="J6">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>3009.52380952381</v>
+        <v>1838.095238095238</v>
       </c>
       <c r="L6">
-        <v>30.07926037591191</v>
+        <v>58.95922723535711</v>
       </c>
       <c r="M6">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="N6">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="O6">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="P6">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="Q6">
-        <v>3100</v>
+        <v>1900</v>
       </c>
       <c r="R6">
         <v>21</v>
       </c>
       <c r="S6">
-        <v>3133.333333333333</v>
+        <v>219.047619047619</v>
       </c>
       <c r="T6">
-        <v>119.7218999737865</v>
+        <v>67.9635756787974</v>
       </c>
       <c r="U6">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="V6">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="W6">
-        <v>3100</v>
+        <v>200</v>
       </c>
       <c r="X6">
-        <v>3200</v>
+        <v>300</v>
       </c>
       <c r="Y6">
-        <v>3300</v>
+        <v>300</v>
       </c>
       <c r="Z6">
         <v>21</v>
@@ -1151,25 +1151,25 @@
         <v>21</v>
       </c>
       <c r="AQ6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -1177,94 +1177,103 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>2900</v>
+        <v>138.0952380952381</v>
+      </c>
+      <c r="D7">
+        <v>92.06622874969126</v>
       </c>
       <c r="E7">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2900</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>2900</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>2900</v>
+        <v>200</v>
       </c>
       <c r="I7">
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>6200</v>
+        <v>3009.52380952381</v>
+      </c>
+      <c r="L7">
+        <v>30.0792603759119</v>
       </c>
       <c r="M7">
-        <v>6200</v>
+        <v>3000</v>
       </c>
       <c r="N7">
-        <v>6200</v>
+        <v>3000</v>
       </c>
       <c r="O7">
-        <v>6200</v>
+        <v>3000</v>
       </c>
       <c r="P7">
-        <v>6200</v>
+        <v>3000</v>
       </c>
       <c r="Q7">
-        <v>6200</v>
+        <v>3100</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S7">
-        <v>3300</v>
+        <v>3147.619047619048</v>
+      </c>
+      <c r="T7">
+        <v>87.28715609439696</v>
       </c>
       <c r="U7">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="V7">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="W7">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="X7">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="Y7">
         <v>3300</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -1288,28 +1297,28 @@
         <v>1</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -1320,145 +1329,145 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>2052.380952380952</v>
+        <v>44238.09523809524</v>
       </c>
       <c r="D8">
-        <v>67.96357567879738</v>
+        <v>8354.847466619376</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="G8">
-        <v>2000</v>
+        <v>50200</v>
       </c>
       <c r="H8">
-        <v>2100</v>
+        <v>50800</v>
       </c>
       <c r="I8">
-        <v>2200</v>
+        <v>51200</v>
       </c>
       <c r="J8">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>1809.52380952381</v>
+        <v>25495.2380952381</v>
       </c>
       <c r="L8">
-        <v>70.03400534570264</v>
+        <v>18643.77848480496</v>
       </c>
       <c r="M8">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="N8">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="O8">
-        <v>1800</v>
+        <v>40900</v>
       </c>
       <c r="P8">
-        <v>1800</v>
+        <v>40900</v>
       </c>
       <c r="Q8">
-        <v>1900</v>
+        <v>41000</v>
       </c>
       <c r="R8">
         <v>21</v>
       </c>
       <c r="S8">
-        <v>242.8571428571429</v>
+        <v>18742.85714285714</v>
       </c>
       <c r="T8">
-        <v>120.7121724244435</v>
+        <v>10678.322500682</v>
       </c>
       <c r="U8">
-        <v>100</v>
+        <v>9200</v>
       </c>
       <c r="V8">
-        <v>200</v>
+        <v>9600</v>
       </c>
       <c r="W8">
-        <v>200</v>
+        <v>10100</v>
       </c>
       <c r="X8">
-        <v>300</v>
+        <v>31100</v>
       </c>
       <c r="Y8">
-        <v>600</v>
+        <v>31100</v>
       </c>
       <c r="Z8">
         <v>21</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH8">
         <v>21</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP8">
         <v>21</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AR8">
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -1469,293 +1478,144 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>44680.95238095238</v>
+        <v>5742.857142857143</v>
       </c>
       <c r="D9">
-        <v>7822.571127680403</v>
+        <v>3001.594814189855</v>
       </c>
       <c r="E9">
-        <v>31900</v>
+        <v>2000</v>
       </c>
       <c r="F9">
-        <v>43100</v>
+        <v>2000</v>
       </c>
       <c r="G9">
-        <v>50200</v>
+        <v>8000</v>
       </c>
       <c r="H9">
-        <v>50500</v>
+        <v>8000</v>
       </c>
       <c r="I9">
-        <v>51100</v>
+        <v>8600</v>
       </c>
       <c r="J9">
         <v>21</v>
       </c>
       <c r="K9">
-        <v>26061.90476190476</v>
+        <v>8600</v>
       </c>
       <c r="L9">
-        <v>18025.13456788815</v>
+        <v>2023.857702507763</v>
       </c>
       <c r="M9">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="N9">
-        <v>13000</v>
+        <v>6100</v>
       </c>
       <c r="O9">
-        <v>40900</v>
+        <v>10100</v>
       </c>
       <c r="P9">
-        <v>40900</v>
+        <v>10100</v>
       </c>
       <c r="Q9">
-        <v>41000</v>
+        <v>10700</v>
       </c>
       <c r="R9">
         <v>21</v>
       </c>
       <c r="S9">
-        <v>18619.04761904762</v>
+        <v>4390.476190476191</v>
       </c>
       <c r="T9">
-        <v>10688.76134300037</v>
+        <v>2981.92970438687</v>
       </c>
       <c r="U9">
-        <v>9200</v>
+        <v>2100</v>
       </c>
       <c r="V9">
-        <v>9500</v>
+        <v>2100</v>
       </c>
       <c r="W9">
-        <v>10100</v>
+        <v>2100</v>
       </c>
       <c r="X9">
-        <v>30100</v>
+        <v>8100</v>
       </c>
       <c r="Y9">
-        <v>31100</v>
+        <v>8100</v>
       </c>
       <c r="Z9">
         <v>21</v>
       </c>
       <c r="AA9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH9">
         <v>21</v>
       </c>
       <c r="AI9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP9">
         <v>21</v>
       </c>
       <c r="AQ9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>4571.428571428572</v>
-      </c>
-      <c r="D10">
-        <v>3042.555317022659</v>
-      </c>
-      <c r="E10">
-        <v>2000</v>
-      </c>
-      <c r="F10">
-        <v>2000</v>
-      </c>
-      <c r="G10">
-        <v>2000</v>
-      </c>
-      <c r="H10">
-        <v>8000</v>
-      </c>
-      <c r="I10">
-        <v>8000</v>
-      </c>
-      <c r="J10">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>7814.285714285715</v>
-      </c>
-      <c r="L10">
-        <v>2028.37021134844</v>
-      </c>
-      <c r="M10">
-        <v>6100</v>
-      </c>
-      <c r="N10">
-        <v>6100</v>
-      </c>
-      <c r="O10">
-        <v>6100</v>
-      </c>
-      <c r="P10">
-        <v>10100</v>
-      </c>
-      <c r="Q10">
-        <v>10100</v>
-      </c>
-      <c r="R10">
-        <v>21</v>
-      </c>
-      <c r="S10">
-        <v>5528.571428571428</v>
-      </c>
-      <c r="T10">
-        <v>3042.555317022659</v>
-      </c>
-      <c r="U10">
-        <v>2100</v>
-      </c>
-      <c r="V10">
-        <v>2100</v>
-      </c>
-      <c r="W10">
-        <v>8100</v>
-      </c>
-      <c r="X10">
-        <v>8100</v>
-      </c>
-      <c r="Y10">
-        <v>8100</v>
-      </c>
-      <c r="Z10">
-        <v>21</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>2</v>
-      </c>
-      <c r="AD10">
-        <v>2</v>
-      </c>
-      <c r="AE10">
-        <v>2</v>
-      </c>
-      <c r="AF10">
-        <v>2</v>
-      </c>
-      <c r="AG10">
-        <v>2</v>
-      </c>
-      <c r="AH10">
-        <v>21</v>
-      </c>
-      <c r="AI10">
-        <v>2</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>2</v>
-      </c>
-      <c r="AL10">
-        <v>2</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10">
-        <v>2</v>
-      </c>
-      <c r="AO10">
-        <v>2</v>
-      </c>
-      <c r="AP10">
-        <v>21</v>
-      </c>
-      <c r="AQ10">
-        <v>3</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>3</v>
-      </c>
-      <c r="AT10">
-        <v>3</v>
-      </c>
-      <c r="AU10">
-        <v>3</v>
-      </c>
-      <c r="AV10">
-        <v>3</v>
-      </c>
-      <c r="AW10">
         <v>3</v>
       </c>
     </row>
@@ -1800,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1814,13 +1674,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1843,13 +1703,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1872,13 +1732,13 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1904,10 +1764,10 @@
         <v>1000</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1930,13 +1790,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D6">
         <v>900</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1959,13 +1819,13 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1988,13 +1848,13 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2017,13 +1877,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D9">
         <v>900</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2075,13 +1935,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="D11">
         <v>900</v>
       </c>
       <c r="E11">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2104,13 +1964,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2133,13 +1993,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D13">
         <v>900</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2162,13 +2022,13 @@
         <v>15</v>
       </c>
       <c r="C14">
+        <v>1100</v>
+      </c>
+      <c r="D14">
         <v>900</v>
       </c>
-      <c r="D14">
-        <v>800</v>
-      </c>
       <c r="E14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2191,13 +2051,13 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D15">
         <v>1000</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2220,13 +2080,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1100</v>
+        <v>4100</v>
       </c>
       <c r="D16">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="E16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2249,13 +2109,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2278,10 +2138,10 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D18">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E18">
         <v>200</v>
@@ -2307,10 +2167,10 @@
         <v>15</v>
       </c>
       <c r="C19">
+        <v>1300</v>
+      </c>
+      <c r="D19">
         <v>1000</v>
-      </c>
-      <c r="D19">
-        <v>700</v>
       </c>
       <c r="E19">
         <v>300</v>
@@ -2336,13 +2196,13 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D20">
         <v>900</v>
       </c>
       <c r="E20">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2365,13 +2225,13 @@
         <v>15</v>
       </c>
       <c r="C21">
+        <v>1100</v>
+      </c>
+      <c r="D21">
         <v>900</v>
       </c>
-      <c r="D21">
-        <v>800</v>
-      </c>
       <c r="E21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2394,13 +2254,13 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2481,13 +2341,13 @@
         <v>16</v>
       </c>
       <c r="C25">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="D25">
         <v>36000</v>
       </c>
       <c r="E25">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3026,625 +2886,445 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <v>3000</v>
-      </c>
-      <c r="E44">
-        <v>3100</v>
+        <v>22</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
         <v>23</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45">
-        <v>200</v>
-      </c>
-      <c r="D45">
-        <v>3000</v>
-      </c>
-      <c r="E45">
-        <v>3200</v>
+        <v>22</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
         <v>24</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46">
-        <v>200</v>
-      </c>
-      <c r="D46">
-        <v>3000</v>
-      </c>
-      <c r="E46">
-        <v>3200</v>
+        <v>22</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
         <v>25</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>0</v>
-      </c>
-      <c r="D47">
-        <v>3000</v>
-      </c>
-      <c r="E47">
-        <v>3000</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>26</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48">
-        <v>300</v>
-      </c>
-      <c r="D48">
-        <v>3000</v>
-      </c>
-      <c r="E48">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
         <v>27</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>0</v>
-      </c>
-      <c r="D49">
-        <v>3000</v>
-      </c>
-      <c r="E49">
-        <v>3000</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>28</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50">
-        <v>3000</v>
-      </c>
-      <c r="E50">
-        <v>3100</v>
+        <v>22</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51">
-        <v>300</v>
-      </c>
-      <c r="D51">
-        <v>3000</v>
-      </c>
-      <c r="E51">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
         <v>30</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52">
-        <v>300</v>
-      </c>
-      <c r="D52">
-        <v>3000</v>
-      </c>
-      <c r="E52">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>31</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53">
-        <v>200</v>
-      </c>
-      <c r="D53">
-        <v>3000</v>
-      </c>
-      <c r="E53">
-        <v>3200</v>
+        <v>22</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <v>0</v>
-      </c>
-      <c r="D54">
-        <v>3000</v>
-      </c>
-      <c r="E54">
-        <v>3000</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>33</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>0</v>
-      </c>
-      <c r="D55">
-        <v>3000</v>
-      </c>
-      <c r="E55">
-        <v>3000</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
       </c>
       <c r="H55" t="s">
         <v>34</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56">
-        <v>200</v>
-      </c>
-      <c r="D56">
-        <v>3100</v>
-      </c>
-      <c r="E56">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
         <v>35</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>0</v>
-      </c>
-      <c r="D57">
-        <v>3000</v>
-      </c>
-      <c r="E57">
-        <v>3000</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>36</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="D58">
-        <v>3000</v>
-      </c>
-      <c r="E58">
-        <v>3100</v>
+        <v>22</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59">
+        <v>22</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>0</v>
-      </c>
-      <c r="D59">
-        <v>3100</v>
-      </c>
-      <c r="E59">
-        <v>3100</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>38</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60">
-        <v>200</v>
-      </c>
-      <c r="D60">
-        <v>3000</v>
-      </c>
-      <c r="E60">
-        <v>3200</v>
+        <v>22</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
         <v>39</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61">
-        <v>100</v>
-      </c>
-      <c r="D61">
-        <v>3000</v>
-      </c>
-      <c r="E61">
-        <v>3100</v>
+        <v>22</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
         <v>40</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>0</v>
-      </c>
-      <c r="D62">
-        <v>3000</v>
-      </c>
-      <c r="E62">
-        <v>3000</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>41</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>0</v>
-      </c>
-      <c r="D63">
-        <v>3000</v>
-      </c>
-      <c r="E63">
-        <v>3000</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64">
-        <v>300</v>
-      </c>
-      <c r="D64">
-        <v>3000</v>
-      </c>
-      <c r="E64">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>2000</v>
+      </c>
+      <c r="D65">
+        <v>1900</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>23</v>
@@ -3655,16 +3335,25 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>2000</v>
+      </c>
+      <c r="D66">
+        <v>1900</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>24</v>
@@ -3675,16 +3364,25 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>2100</v>
+      </c>
+      <c r="D67">
+        <v>1800</v>
+      </c>
+      <c r="E67">
+        <v>300</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>25</v>
@@ -3695,19 +3393,28 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>2100</v>
+      </c>
+      <c r="D68">
+        <v>1800</v>
+      </c>
+      <c r="E68">
+        <v>300</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3715,19 +3422,28 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>2100</v>
+      </c>
+      <c r="D69">
+        <v>1900</v>
+      </c>
+      <c r="E69">
+        <v>200</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3735,19 +3451,28 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>2100</v>
+      </c>
+      <c r="D70">
+        <v>1900</v>
+      </c>
+      <c r="E70">
+        <v>200</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -3755,19 +3480,28 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>2000</v>
+      </c>
+      <c r="D71">
+        <v>1900</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3775,19 +3509,28 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>2000</v>
+      </c>
+      <c r="D72">
+        <v>1800</v>
+      </c>
+      <c r="E72">
+        <v>200</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3795,19 +3538,28 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>2100</v>
+      </c>
+      <c r="D73">
+        <v>1800</v>
+      </c>
+      <c r="E73">
+        <v>300</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -3815,19 +3567,28 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>2000</v>
+      </c>
+      <c r="D74">
+        <v>1700</v>
+      </c>
+      <c r="E74">
+        <v>300</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -3835,19 +3596,28 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>2100</v>
+      </c>
+      <c r="D75">
+        <v>1900</v>
+      </c>
+      <c r="E75">
+        <v>200</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3855,19 +3625,28 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>2100</v>
+      </c>
+      <c r="D76">
+        <v>1800</v>
+      </c>
+      <c r="E76">
+        <v>300</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -3875,19 +3654,28 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>2000</v>
+      </c>
+      <c r="D77">
+        <v>1800</v>
+      </c>
+      <c r="E77">
+        <v>200</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -3895,19 +3683,28 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>2100</v>
+      </c>
+      <c r="D78">
+        <v>1800</v>
+      </c>
+      <c r="E78">
+        <v>300</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3915,19 +3712,28 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>2100</v>
+      </c>
+      <c r="D79">
+        <v>1900</v>
+      </c>
+      <c r="E79">
+        <v>200</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3935,19 +3741,28 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>17</v>
       </c>
-      <c r="B80" t="s">
-        <v>18</v>
+      <c r="C80">
+        <v>2000</v>
+      </c>
+      <c r="D80">
+        <v>1800</v>
+      </c>
+      <c r="E80">
+        <v>200</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -3955,19 +3770,28 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>2100</v>
+      </c>
+      <c r="D81">
+        <v>1900</v>
+      </c>
+      <c r="E81">
+        <v>200</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3975,19 +3799,28 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>2100</v>
+      </c>
+      <c r="D82">
+        <v>1800</v>
+      </c>
+      <c r="E82">
+        <v>300</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3995,19 +3828,28 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>2000</v>
+      </c>
+      <c r="D83">
+        <v>1800</v>
+      </c>
+      <c r="E83">
+        <v>200</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4015,28 +3857,28 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="D84">
-        <v>6200</v>
+        <v>1800</v>
       </c>
       <c r="E84">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4044,19 +3886,28 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>2100</v>
+      </c>
+      <c r="D85">
+        <v>1900</v>
+      </c>
+      <c r="E85">
+        <v>200</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4064,19 +3915,19 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D86">
-        <v>1900</v>
+        <v>3100</v>
       </c>
       <c r="E86">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4088,24 +3939,24 @@
         <v>23</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="D87">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E87">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4117,24 +3968,24 @@
         <v>24</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E88">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4146,24 +3997,24 @@
         <v>25</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="D89">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="E89">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4175,24 +4026,24 @@
         <v>26</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D90">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="E90">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4204,24 +4055,24 @@
         <v>27</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D91">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E91">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4233,24 +4084,24 @@
         <v>28</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D92">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E92">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4262,24 +4113,24 @@
         <v>29</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D93">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E93">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4291,24 +4142,24 @@
         <v>30</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="E94">
-        <v>300</v>
+        <v>3100</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4320,24 +4171,24 @@
         <v>31</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="D95">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E95">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4349,24 +4200,24 @@
         <v>32</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="E96">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4378,24 +4229,24 @@
         <v>33</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D97">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E97">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4407,24 +4258,24 @@
         <v>34</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D98">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E98">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4436,24 +4287,24 @@
         <v>35</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="D99">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E99">
-        <v>300</v>
+        <v>3100</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -4465,24 +4316,24 @@
         <v>36</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C100">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="D100">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E100">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -4494,24 +4345,24 @@
         <v>37</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="E101">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4523,24 +4374,24 @@
         <v>38</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="D102">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E102">
-        <v>300</v>
+        <v>3100</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4552,24 +4403,24 @@
         <v>39</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D103">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E103">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -4581,24 +4432,24 @@
         <v>40</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D104">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E104">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4610,24 +4461,24 @@
         <v>41</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D105">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="E105">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4639,24 +4490,24 @@
         <v>42</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="D106">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="E106">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4668,7 +4519,7 @@
         <v>43</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4676,16 +4527,16 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>50400</v>
+        <v>32000</v>
       </c>
       <c r="D107">
-        <v>40900</v>
+        <v>900</v>
       </c>
       <c r="E107">
-        <v>9500</v>
+        <v>31100</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -4705,16 +4556,16 @@
         <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>43100</v>
+        <v>51200</v>
       </c>
       <c r="D108">
-        <v>13000</v>
+        <v>40900</v>
       </c>
       <c r="E108">
-        <v>30100</v>
+        <v>10300</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -4734,16 +4585,16 @@
         <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109">
-        <v>51100</v>
+        <v>32000</v>
       </c>
       <c r="D109">
-        <v>40900</v>
+        <v>900</v>
       </c>
       <c r="E109">
-        <v>10200</v>
+        <v>31100</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -4763,7 +4614,7 @@
         <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C110">
         <v>32000</v>
@@ -4792,16 +4643,16 @@
         <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C111">
-        <v>32000</v>
+        <v>43100</v>
       </c>
       <c r="D111">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="E111">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="F111">
         <v>3</v>
@@ -4821,16 +4672,16 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C112">
-        <v>50400</v>
+        <v>50200</v>
       </c>
       <c r="D112">
-        <v>40900</v>
+        <v>41000</v>
       </c>
       <c r="E112">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="F112">
         <v>3</v>
@@ -4850,16 +4701,16 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C113">
-        <v>50200</v>
+        <v>50900</v>
       </c>
       <c r="D113">
         <v>40900</v>
       </c>
       <c r="E113">
-        <v>9300</v>
+        <v>10000</v>
       </c>
       <c r="F113">
         <v>3</v>
@@ -4879,16 +4730,16 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C114">
-        <v>51000</v>
+        <v>32000</v>
       </c>
       <c r="D114">
-        <v>40900</v>
+        <v>900</v>
       </c>
       <c r="E114">
-        <v>10100</v>
+        <v>31100</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -4908,16 +4759,16 @@
         <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C115">
-        <v>32000</v>
+        <v>50300</v>
       </c>
       <c r="D115">
-        <v>900</v>
+        <v>40900</v>
       </c>
       <c r="E115">
-        <v>31100</v>
+        <v>9400</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -4937,16 +4788,16 @@
         <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C116">
-        <v>31900</v>
+        <v>43100</v>
       </c>
       <c r="D116">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="E116">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="F116">
         <v>3</v>
@@ -4966,16 +4817,16 @@
         <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C117">
-        <v>50500</v>
+        <v>32000</v>
       </c>
       <c r="D117">
-        <v>40900</v>
+        <v>900</v>
       </c>
       <c r="E117">
-        <v>9600</v>
+        <v>31100</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -4995,16 +4846,16 @@
         <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C118">
-        <v>43100</v>
+        <v>50500</v>
       </c>
       <c r="D118">
-        <v>13000</v>
+        <v>40900</v>
       </c>
       <c r="E118">
-        <v>30100</v>
+        <v>9600</v>
       </c>
       <c r="F118">
         <v>3</v>
@@ -5024,16 +4875,16 @@
         <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C119">
-        <v>50300</v>
+        <v>43100</v>
       </c>
       <c r="D119">
-        <v>40900</v>
+        <v>13000</v>
       </c>
       <c r="E119">
-        <v>9400</v>
+        <v>30100</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -5053,7 +4904,7 @@
         <v>34</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C120">
         <v>50100</v>
@@ -5082,16 +4933,16 @@
         <v>35</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C121">
-        <v>50500</v>
+        <v>32000</v>
       </c>
       <c r="D121">
-        <v>41000</v>
+        <v>900</v>
       </c>
       <c r="E121">
-        <v>9500</v>
+        <v>31100</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -5111,16 +4962,16 @@
         <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C122">
-        <v>50500</v>
+        <v>51000</v>
       </c>
       <c r="D122">
         <v>40900</v>
       </c>
       <c r="E122">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -5140,16 +4991,16 @@
         <v>37</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>43100</v>
+        <v>50900</v>
       </c>
       <c r="D123">
-        <v>13000</v>
+        <v>40900</v>
       </c>
       <c r="E123">
-        <v>30100</v>
+        <v>10000</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -5169,16 +5020,16 @@
         <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C124">
-        <v>50400</v>
+        <v>50500</v>
       </c>
       <c r="D124">
         <v>40900</v>
       </c>
       <c r="E124">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F124">
         <v>3</v>
@@ -5198,16 +5049,16 @@
         <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C125">
-        <v>32000</v>
+        <v>50800</v>
       </c>
       <c r="D125">
-        <v>900</v>
+        <v>40900</v>
       </c>
       <c r="E125">
-        <v>31100</v>
+        <v>9900</v>
       </c>
       <c r="F125">
         <v>3</v>
@@ -5227,16 +5078,16 @@
         <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C126">
-        <v>50600</v>
+        <v>51000</v>
       </c>
       <c r="D126">
-        <v>40900</v>
+        <v>41000</v>
       </c>
       <c r="E126">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F126">
         <v>3</v>
@@ -5256,16 +5107,16 @@
         <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C127">
-        <v>43100</v>
+        <v>50300</v>
       </c>
       <c r="D127">
-        <v>13000</v>
+        <v>40900</v>
       </c>
       <c r="E127">
-        <v>30100</v>
+        <v>9400</v>
       </c>
       <c r="F127">
         <v>3</v>
@@ -5285,7 +5136,7 @@
         <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>8000</v>
@@ -5314,7 +5165,7 @@
         <v>43</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C129">
         <v>2000</v>
@@ -5343,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C130">
         <v>8000</v>
@@ -5372,16 +5223,16 @@
         <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C131">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D131">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="E131">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -5401,7 +5252,7 @@
         <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C132">
         <v>2000</v>
@@ -5430,13 +5281,13 @@
         <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="D133">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E133">
         <v>8100</v>
@@ -5459,7 +5310,7 @@
         <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C134">
         <v>8000</v>
@@ -5488,7 +5339,7 @@
         <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C135">
         <v>8000</v>
@@ -5517,16 +5368,16 @@
         <v>50</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C136">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="D136">
-        <v>10100</v>
+        <v>6100</v>
       </c>
       <c r="E136">
-        <v>2100</v>
+        <v>8100</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -5546,16 +5397,16 @@
         <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C137">
-        <v>2000</v>
+        <v>8600</v>
       </c>
       <c r="D137">
-        <v>6100</v>
+        <v>10700</v>
       </c>
       <c r="E137">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -5575,16 +5426,16 @@
         <v>52</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="D138">
-        <v>10100</v>
+        <v>6100</v>
       </c>
       <c r="E138">
-        <v>2100</v>
+        <v>8100</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -5604,16 +5455,16 @@
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C139">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D139">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="E139">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -5633,16 +5484,16 @@
         <v>54</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C140">
-        <v>2000</v>
+        <v>7900</v>
       </c>
       <c r="D140">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="E140">
-        <v>8100</v>
+        <v>2200</v>
       </c>
       <c r="F140">
         <v>2</v>
@@ -5662,16 +5513,16 @@
         <v>55</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C141">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="D141">
-        <v>10100</v>
+        <v>6100</v>
       </c>
       <c r="E141">
-        <v>2100</v>
+        <v>8100</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -5691,16 +5542,16 @@
         <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C142">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D142">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="E142">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -5720,7 +5571,7 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C143">
         <v>2000</v>
@@ -5749,7 +5600,7 @@
         <v>58</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C144">
         <v>8000</v>
@@ -5778,16 +5629,16 @@
         <v>59</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D145">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="E145">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -5807,7 +5658,7 @@
         <v>60</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146">
         <v>2000</v>
@@ -5836,7 +5687,7 @@
         <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C147">
         <v>8000</v>
@@ -5865,16 +5716,16 @@
         <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D148">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="E148">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="F148">
         <v>2</v>

--- a/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
+++ b/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="43">
   <si>
     <t xml:space="preserve">delta duration </t>
   </si>
@@ -68,6 +68,9 @@
     <t>Cleaning</t>
   </si>
   <si>
+    <t>FillDispenser</t>
+  </si>
+  <si>
     <t>PhoneCall</t>
   </si>
   <si>
@@ -83,22 +86,10 @@
     <t>person</t>
   </si>
   <si>
-    <t>FillDispenser</t>
-  </si>
-  <si>
-    <t>p26</t>
-  </si>
-  <si>
-    <t>p29</t>
-  </si>
-  <si>
     <t>p33</t>
   </si>
   <si>
     <t>p04</t>
-  </si>
-  <si>
-    <t>p32</t>
   </si>
   <si>
     <t>p25</t>
@@ -107,19 +98,10 @@
     <t>p24</t>
   </si>
   <si>
-    <t>p27</t>
-  </si>
-  <si>
     <t>p13</t>
   </si>
   <si>
     <t>p14</t>
-  </si>
-  <si>
-    <t>p15</t>
-  </si>
-  <si>
-    <t>p23</t>
   </si>
   <si>
     <t>p17</t>
@@ -131,22 +113,37 @@
     <t>p19</t>
   </si>
   <si>
-    <t>p30</t>
-  </si>
-  <si>
     <t>p31</t>
   </si>
   <si>
-    <t>p22</t>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>p23</t>
+  </si>
+  <si>
+    <t>p34</t>
+  </si>
+  <si>
+    <t>p26</t>
   </si>
   <si>
     <t>p28</t>
   </si>
   <si>
-    <t>p34</t>
+    <t>p30</t>
   </si>
   <si>
     <t>p20</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>p27</t>
+  </si>
+  <si>
+    <t>p15</t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW9"/>
+  <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,79 +727,79 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1247.619047619048</v>
+        <v>201827.2727272727</v>
       </c>
       <c r="D4">
-        <v>664.5442405280838</v>
+        <v>287108.5407678048</v>
       </c>
       <c r="E4">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>21700</v>
       </c>
       <c r="G4">
-        <v>1100</v>
+        <v>39700</v>
       </c>
       <c r="H4">
-        <v>1200</v>
+        <v>223000</v>
       </c>
       <c r="I4">
-        <v>4100</v>
+        <v>765800</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>1080.952380952381</v>
+        <v>200272.7272727273</v>
       </c>
       <c r="L4">
-        <v>670.5363879902774</v>
+        <v>290910.660137813</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4">
-        <v>900</v>
+        <v>16950</v>
       </c>
       <c r="O4">
-        <v>900</v>
+        <v>40000</v>
       </c>
       <c r="P4">
-        <v>1000</v>
+        <v>226150</v>
       </c>
       <c r="Q4">
-        <v>4000</v>
+        <v>770100</v>
       </c>
       <c r="R4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="S4">
-        <v>166.6666666666667</v>
+        <v>6081.818181818182</v>
       </c>
       <c r="T4">
-        <v>101.6530045465127</v>
+        <v>5679.404578266665</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V4">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>5100</v>
       </c>
       <c r="X4">
-        <v>300</v>
+        <v>7150</v>
       </c>
       <c r="Y4">
-        <v>300</v>
+        <v>21200</v>
       </c>
       <c r="Z4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -826,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -850,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="AP4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.3015113445777636</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -871,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -879,109 +876,109 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>10004.7619047619</v>
+        <v>91378.57142857143</v>
       </c>
       <c r="D5">
-        <v>21.82178902359924</v>
+        <v>62110.61074432426</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>3100</v>
       </c>
       <c r="F5">
-        <v>10000</v>
+        <v>43175</v>
       </c>
       <c r="G5">
-        <v>10000</v>
+        <v>87000</v>
       </c>
       <c r="H5">
-        <v>10000</v>
+        <v>133500</v>
       </c>
       <c r="I5">
-        <v>10100</v>
+        <v>183000</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>36000</v>
+        <v>45757.14285714286</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>48828.61258108207</v>
       </c>
       <c r="M5">
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>36000</v>
+        <v>7675</v>
       </c>
       <c r="O5">
-        <v>36000</v>
+        <v>35500</v>
       </c>
       <c r="P5">
-        <v>36000</v>
+        <v>69425</v>
       </c>
       <c r="Q5">
-        <v>36000</v>
+        <v>181000</v>
       </c>
       <c r="R5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="S5">
-        <v>25995.2380952381</v>
+        <v>51592.85714285714</v>
       </c>
       <c r="T5">
-        <v>21.82178902359924</v>
+        <v>50730.71386911808</v>
       </c>
       <c r="U5">
-        <v>25900</v>
+        <v>100</v>
       </c>
       <c r="V5">
-        <v>26000</v>
+        <v>6200</v>
       </c>
       <c r="W5">
-        <v>26000</v>
+        <v>34400</v>
       </c>
       <c r="X5">
-        <v>26000</v>
+        <v>94075</v>
       </c>
       <c r="Y5">
-        <v>26000</v>
+        <v>143000</v>
       </c>
       <c r="Z5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>2.294921930407801</v>
       </c>
       <c r="AC5">
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AH5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.032795558988644</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -990,22 +987,22 @@
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.6399404734221845</v>
       </c>
       <c r="AS5">
         <v>1</v>
@@ -1017,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -1028,109 +1025,109 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2057.142857142857</v>
+        <v>16775</v>
       </c>
       <c r="D6">
-        <v>50.70925528371099</v>
+        <v>12179.59358927875</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>10425</v>
       </c>
       <c r="G6">
-        <v>2100</v>
+        <v>16000</v>
       </c>
       <c r="H6">
-        <v>2100</v>
+        <v>22350</v>
       </c>
       <c r="I6">
-        <v>2100</v>
+        <v>32100</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>1838.095238095238</v>
+        <v>6675</v>
       </c>
       <c r="L6">
-        <v>58.95922723535711</v>
+        <v>6069.8023032056</v>
       </c>
       <c r="M6">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="N6">
-        <v>1800</v>
+        <v>3775</v>
       </c>
       <c r="O6">
-        <v>1800</v>
+        <v>5450</v>
       </c>
       <c r="P6">
-        <v>1900</v>
+        <v>8350</v>
       </c>
       <c r="Q6">
-        <v>1900</v>
+        <v>15100</v>
       </c>
       <c r="R6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>219.047619047619</v>
+        <v>12750</v>
       </c>
       <c r="T6">
-        <v>67.9635756787974</v>
+        <v>12220.88376509653</v>
       </c>
       <c r="U6">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="V6">
-        <v>200</v>
+        <v>2875</v>
       </c>
       <c r="W6">
-        <v>200</v>
+        <v>10750</v>
       </c>
       <c r="X6">
-        <v>300</v>
+        <v>20625</v>
       </c>
       <c r="Y6">
-        <v>300</v>
+        <v>27300</v>
       </c>
       <c r="Z6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1142,19 +1139,19 @@
         <v>1</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.5773502691896257</v>
       </c>
       <c r="AS6">
         <v>1</v>
@@ -1163,13 +1160,13 @@
         <v>1</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -1177,79 +1174,79 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>138.0952380952381</v>
+        <v>28688.88888888889</v>
       </c>
       <c r="D7">
-        <v>92.06622874969126</v>
+        <v>44543.75501808431</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>9000</v>
       </c>
       <c r="H7">
-        <v>200</v>
+        <v>29100</v>
       </c>
       <c r="I7">
-        <v>300</v>
+        <v>134000</v>
       </c>
       <c r="J7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>3009.52380952381</v>
+        <v>27377.77777777778</v>
       </c>
       <c r="L7">
-        <v>30.0792603759119</v>
+        <v>44637.28200108564</v>
       </c>
       <c r="M7">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="N7">
         <v>3000</v>
       </c>
       <c r="O7">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P7">
-        <v>3000</v>
+        <v>24800</v>
       </c>
       <c r="Q7">
-        <v>3100</v>
+        <v>133000</v>
       </c>
       <c r="R7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>3147.619047619048</v>
+        <v>2022.222222222222</v>
       </c>
       <c r="T7">
-        <v>87.28715609439696</v>
+        <v>2052.91121202171</v>
       </c>
       <c r="U7">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="V7">
-        <v>3100</v>
+        <v>200</v>
       </c>
       <c r="W7">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="X7">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Y7">
-        <v>3300</v>
+        <v>4900</v>
       </c>
       <c r="Z7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1273,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -1291,34 +1288,34 @@
         <v>1</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AQ7">
-        <v>4</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -1326,148 +1323,148 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>44238.09523809524</v>
+        <v>41041.17647058824</v>
       </c>
       <c r="D8">
-        <v>8354.847466619376</v>
+        <v>39822.63895737463</v>
       </c>
       <c r="E8">
-        <v>32000</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>32000</v>
+        <v>13300</v>
       </c>
       <c r="G8">
-        <v>50200</v>
+        <v>31500</v>
       </c>
       <c r="H8">
-        <v>50800</v>
+        <v>55400</v>
       </c>
       <c r="I8">
-        <v>51200</v>
+        <v>166300</v>
       </c>
       <c r="J8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>25495.2380952381</v>
+        <v>36688.23529411765</v>
       </c>
       <c r="L8">
-        <v>18643.77848480496</v>
+        <v>39838.31199914445</v>
       </c>
       <c r="M8">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="N8">
-        <v>900</v>
+        <v>15900</v>
       </c>
       <c r="O8">
-        <v>40900</v>
+        <v>20900</v>
       </c>
       <c r="P8">
-        <v>40900</v>
+        <v>51900</v>
       </c>
       <c r="Q8">
-        <v>41000</v>
+        <v>171100</v>
       </c>
       <c r="R8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S8">
-        <v>18742.85714285714</v>
+        <v>7976.470588235294</v>
       </c>
       <c r="T8">
-        <v>10678.322500682</v>
+        <v>7564.847107820877</v>
       </c>
       <c r="U8">
-        <v>9200</v>
+        <v>300</v>
       </c>
       <c r="V8">
-        <v>9600</v>
+        <v>3200</v>
       </c>
       <c r="W8">
-        <v>10100</v>
+        <v>5300</v>
       </c>
       <c r="X8">
-        <v>31100</v>
+        <v>10600</v>
       </c>
       <c r="Y8">
-        <v>31100</v>
+        <v>27100</v>
       </c>
       <c r="Z8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA8">
+        <v>1.117647058823529</v>
+      </c>
+      <c r="AB8">
+        <v>0.3321055820775357</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>17</v>
+      </c>
+      <c r="AI8">
+        <v>1.294117647058824</v>
+      </c>
+      <c r="AJ8">
+        <v>0.7717436331412899</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>4</v>
+      </c>
+      <c r="AP8">
+        <v>17</v>
+      </c>
+      <c r="AQ8">
+        <v>2.352941176470588</v>
+      </c>
+      <c r="AR8">
+        <v>0.8617697249402123</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
         <v>3</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>3</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
-      </c>
-      <c r="AE8">
-        <v>3</v>
-      </c>
-      <c r="AF8">
-        <v>3</v>
-      </c>
-      <c r="AG8">
-        <v>3</v>
-      </c>
-      <c r="AH8">
-        <v>21</v>
-      </c>
-      <c r="AI8">
-        <v>3</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>3</v>
-      </c>
-      <c r="AL8">
-        <v>3</v>
-      </c>
-      <c r="AM8">
-        <v>3</v>
-      </c>
-      <c r="AN8">
-        <v>3</v>
-      </c>
-      <c r="AO8">
-        <v>3</v>
-      </c>
-      <c r="AP8">
-        <v>21</v>
-      </c>
-      <c r="AQ8">
-        <v>6</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>6</v>
-      </c>
-      <c r="AT8">
-        <v>6</v>
-      </c>
-      <c r="AU8">
-        <v>6</v>
-      </c>
-      <c r="AV8">
-        <v>6</v>
-      </c>
       <c r="AW8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -1475,147 +1472,296 @@
         <v>20</v>
       </c>
       <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>67168.75</v>
+      </c>
+      <c r="D9">
+        <v>102878.8265792983</v>
+      </c>
+      <c r="E9">
+        <v>6100</v>
+      </c>
+      <c r="F9">
+        <v>15500</v>
+      </c>
+      <c r="G9">
+        <v>38100</v>
+      </c>
+      <c r="H9">
+        <v>52150</v>
+      </c>
+      <c r="I9">
+        <v>421900</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>19225</v>
+      </c>
+      <c r="L9">
+        <v>19055.02558381909</v>
+      </c>
+      <c r="M9">
+        <v>3000</v>
+      </c>
+      <c r="N9">
+        <v>5800</v>
+      </c>
+      <c r="O9">
+        <v>10900</v>
+      </c>
+      <c r="P9">
+        <v>30650</v>
+      </c>
+      <c r="Q9">
+        <v>72000</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>52481.25</v>
+      </c>
+      <c r="T9">
+        <v>102638.980371332</v>
+      </c>
+      <c r="U9">
+        <v>5200</v>
+      </c>
+      <c r="V9">
+        <v>9525</v>
+      </c>
+      <c r="W9">
+        <v>14600</v>
+      </c>
+      <c r="X9">
+        <v>31300</v>
+      </c>
+      <c r="Y9">
+        <v>406000</v>
+      </c>
+      <c r="Z9">
+        <v>16</v>
+      </c>
+      <c r="AA9">
+        <v>1.5</v>
+      </c>
+      <c r="AB9">
+        <v>0.6324555320336759</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+      <c r="AH9">
+        <v>16</v>
+      </c>
+      <c r="AI9">
+        <v>1.8125</v>
+      </c>
+      <c r="AJ9">
+        <v>0.6551081335677849</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>3</v>
+      </c>
+      <c r="AP9">
+        <v>16</v>
+      </c>
+      <c r="AQ9">
+        <v>2.25</v>
+      </c>
+      <c r="AR9">
+        <v>1.183215956619923</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>2</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>2.25</v>
+      </c>
+      <c r="AW9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>5742.857142857143</v>
-      </c>
-      <c r="D9">
-        <v>3001.594814189855</v>
-      </c>
-      <c r="E9">
-        <v>2000</v>
-      </c>
-      <c r="F9">
-        <v>2000</v>
-      </c>
-      <c r="G9">
-        <v>8000</v>
-      </c>
-      <c r="H9">
-        <v>8000</v>
-      </c>
-      <c r="I9">
-        <v>8600</v>
-      </c>
-      <c r="J9">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>8600</v>
-      </c>
-      <c r="L9">
-        <v>2023.857702507763</v>
-      </c>
-      <c r="M9">
-        <v>6000</v>
-      </c>
-      <c r="N9">
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>94876.4705882353</v>
+      </c>
+      <c r="D10">
+        <v>118148.9606884661</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>14000</v>
+      </c>
+      <c r="G10">
+        <v>39000</v>
+      </c>
+      <c r="H10">
+        <v>129000</v>
+      </c>
+      <c r="I10">
+        <v>427900</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>88970.58823529411</v>
+      </c>
+      <c r="L10">
+        <v>119951.4212332741</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>6200</v>
+      </c>
+      <c r="O10">
+        <v>36900</v>
+      </c>
+      <c r="P10">
+        <v>115900</v>
+      </c>
+      <c r="Q10">
+        <v>433000</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>8070.588235294118</v>
+      </c>
+      <c r="T10">
+        <v>13701.95080571934</v>
+      </c>
+      <c r="U10">
+        <v>800</v>
+      </c>
+      <c r="V10">
+        <v>2100</v>
+      </c>
+      <c r="W10">
+        <v>5100</v>
+      </c>
+      <c r="X10">
         <v>6100</v>
       </c>
-      <c r="O9">
-        <v>10100</v>
-      </c>
-      <c r="P9">
-        <v>10100</v>
-      </c>
-      <c r="Q9">
-        <v>10700</v>
-      </c>
-      <c r="R9">
-        <v>21</v>
-      </c>
-      <c r="S9">
-        <v>4390.476190476191</v>
-      </c>
-      <c r="T9">
-        <v>2981.92970438687</v>
-      </c>
-      <c r="U9">
-        <v>2100</v>
-      </c>
-      <c r="V9">
-        <v>2100</v>
-      </c>
-      <c r="W9">
-        <v>2100</v>
-      </c>
-      <c r="X9">
-        <v>8100</v>
-      </c>
-      <c r="Y9">
-        <v>8100</v>
-      </c>
-      <c r="Z9">
-        <v>21</v>
-      </c>
-      <c r="AA9">
-        <v>2</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>2</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
-      </c>
-      <c r="AG9">
-        <v>2</v>
-      </c>
-      <c r="AH9">
-        <v>21</v>
-      </c>
-      <c r="AI9">
-        <v>2</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>2</v>
-      </c>
-      <c r="AL9">
-        <v>2</v>
-      </c>
-      <c r="AM9">
-        <v>2</v>
-      </c>
-      <c r="AN9">
-        <v>2</v>
-      </c>
-      <c r="AO9">
-        <v>2</v>
-      </c>
-      <c r="AP9">
-        <v>21</v>
-      </c>
-      <c r="AQ9">
-        <v>3</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>3</v>
-      </c>
-      <c r="AT9">
-        <v>3</v>
-      </c>
-      <c r="AU9">
-        <v>3</v>
-      </c>
-      <c r="AV9">
-        <v>3</v>
-      </c>
-      <c r="AW9">
+      <c r="Y10">
+        <v>60100</v>
+      </c>
+      <c r="Z10">
+        <v>17</v>
+      </c>
+      <c r="AA10">
+        <v>1.470588235294118</v>
+      </c>
+      <c r="AB10">
+        <v>0.5144957554275266</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>17</v>
+      </c>
+      <c r="AI10">
+        <v>1.352941176470588</v>
+      </c>
+      <c r="AJ10">
+        <v>0.4925921830718891</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>2</v>
+      </c>
+      <c r="AP10">
+        <v>17</v>
+      </c>
+      <c r="AQ10">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="AR10">
+        <v>0.6183469424008422</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
         <v>3</v>
       </c>
     </row>
@@ -1634,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1668,19 +1814,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1300</v>
+        <v>20000</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>14900</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>5100</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1697,19 +1843,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>1100</v>
+        <v>39700</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1721,24 +1867,24 @@
         <v>24</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>765800</v>
       </c>
       <c r="D4">
-        <v>900</v>
+        <v>770100</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1755,19 +1901,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>24100</v>
       </c>
       <c r="D5">
-        <v>900</v>
+        <v>15900</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>8200</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1784,7 +1930,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1813,19 +1959,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>21300</v>
       </c>
       <c r="D7">
-        <v>900</v>
+        <v>18000</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1842,19 +1988,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>1200</v>
+        <v>137100</v>
       </c>
       <c r="D8">
-        <v>900</v>
+        <v>145300</v>
       </c>
       <c r="E8">
-        <v>300</v>
+        <v>8200</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1871,19 +2017,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1200</v>
+        <v>145100</v>
       </c>
       <c r="D9">
-        <v>900</v>
+        <v>123900</v>
       </c>
       <c r="E9">
-        <v>300</v>
+        <v>21200</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1900,19 +2046,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>300900</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>307000</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1929,19 +2075,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>743000</v>
       </c>
       <c r="D11">
-        <v>900</v>
+        <v>749000</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1958,19 +2104,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1300</v>
+        <v>22100</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>18000</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>4100</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1987,25 +2133,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13">
-        <v>900</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>34</v>
@@ -2016,25 +2153,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1100</v>
-      </c>
-      <c r="D14">
-        <v>900</v>
-      </c>
-      <c r="E14">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>35</v>
@@ -2045,19 +2173,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>36000</v>
       </c>
       <c r="E15">
-        <v>200</v>
+        <v>26000</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2066,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2074,19 +2202,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>4100</v>
+        <v>40900</v>
       </c>
       <c r="D16">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>42800</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2095,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2103,19 +2231,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>168200</v>
       </c>
       <c r="D17">
-        <v>900</v>
+        <v>181000</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>12800</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2124,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2132,28 +2260,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>1200</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2161,28 +2280,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>1300</v>
+        <v>50000</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>49900</v>
       </c>
       <c r="E19">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2190,28 +2309,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>1200</v>
-      </c>
-      <c r="D20">
-        <v>900</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2219,28 +2329,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>1100</v>
+        <v>84000</v>
       </c>
       <c r="D21">
-        <v>900</v>
+        <v>80000</v>
       </c>
       <c r="E21">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2248,28 +2358,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>900</v>
+        <v>134000</v>
       </c>
       <c r="D22">
-        <v>900</v>
+        <v>71900</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>62100</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2277,202 +2387,184 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23">
-        <v>10000</v>
+        <v>3100</v>
       </c>
       <c r="D23">
-        <v>36000</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>26000</v>
+        <v>3200</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24">
-        <v>10000</v>
-      </c>
-      <c r="D24">
-        <v>36000</v>
-      </c>
-      <c r="E24">
-        <v>26000</v>
-      </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25">
-        <v>10100</v>
+        <v>132000</v>
       </c>
       <c r="D25">
-        <v>36000</v>
+        <v>13000</v>
       </c>
       <c r="E25">
-        <v>25900</v>
+        <v>119000</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26">
-        <v>10000</v>
-      </c>
-      <c r="D26">
-        <v>36000</v>
-      </c>
-      <c r="E26">
-        <v>26000</v>
-      </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27">
-        <v>10000</v>
+        <v>22100</v>
       </c>
       <c r="D27">
-        <v>36000</v>
+        <v>5900</v>
       </c>
       <c r="E27">
-        <v>26000</v>
+        <v>16200</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28">
-        <v>10000</v>
+        <v>178000</v>
       </c>
       <c r="D28">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="E28">
-        <v>26000</v>
+        <v>143000</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29">
-        <v>10000</v>
+        <v>183000</v>
       </c>
       <c r="D29">
-        <v>36000</v>
+        <v>79900</v>
       </c>
       <c r="E29">
-        <v>26000</v>
+        <v>103100</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2480,86 +2572,86 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="D30">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="E30">
-        <v>26000</v>
+        <v>67000</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31">
-        <v>10000</v>
+        <v>66000</v>
       </c>
       <c r="D31">
-        <v>36000</v>
+        <v>62000</v>
       </c>
       <c r="E31">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32">
-        <v>10000</v>
+        <v>118000</v>
       </c>
       <c r="D32">
-        <v>36000</v>
+        <v>1000</v>
       </c>
       <c r="E32">
-        <v>26000</v>
+        <v>119000</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2567,19 +2659,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>10000</v>
+        <v>32100</v>
       </c>
       <c r="D33">
-        <v>36000</v>
+        <v>4800</v>
       </c>
       <c r="E33">
-        <v>26000</v>
+        <v>27300</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2596,57 +2688,57 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>10000</v>
+        <v>12900</v>
       </c>
       <c r="D34">
-        <v>36000</v>
+        <v>15100</v>
       </c>
       <c r="E34">
-        <v>26000</v>
+        <v>2200</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D35">
-        <v>36000</v>
+        <v>6100</v>
       </c>
       <c r="E35">
-        <v>26000</v>
+        <v>3100</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2654,242 +2746,179 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>10000</v>
+        <v>19100</v>
       </c>
       <c r="D36">
-        <v>36000</v>
+        <v>700</v>
       </c>
       <c r="E36">
-        <v>26000</v>
+        <v>18400</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>10000</v>
-      </c>
-      <c r="D37">
-        <v>36000</v>
-      </c>
-      <c r="E37">
-        <v>26000</v>
+        <v>18</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <v>10000</v>
-      </c>
-      <c r="D38">
-        <v>36000</v>
-      </c>
-      <c r="E38">
-        <v>26000</v>
+        <v>18</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39">
-        <v>10000</v>
-      </c>
-      <c r="D39">
-        <v>36000</v>
-      </c>
-      <c r="E39">
-        <v>26000</v>
+        <v>18</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40">
-        <v>10000</v>
-      </c>
-      <c r="D40">
-        <v>36000</v>
-      </c>
-      <c r="E40">
-        <v>26000</v>
+        <v>18</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41">
-        <v>10000</v>
-      </c>
-      <c r="D41">
-        <v>36000</v>
-      </c>
-      <c r="E41">
-        <v>26000</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42">
-        <v>10000</v>
-      </c>
-      <c r="D42">
-        <v>36000</v>
-      </c>
-      <c r="E42">
-        <v>26000</v>
+        <v>18</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43">
-        <v>10000</v>
-      </c>
-      <c r="D43">
-        <v>36000</v>
-      </c>
-      <c r="E43">
-        <v>26000</v>
+        <v>18</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2898,18 +2927,18 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2918,27 +2947,36 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>9000</v>
+      </c>
+      <c r="D46">
+        <v>5000</v>
+      </c>
+      <c r="E46">
+        <v>4000</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2946,36 +2984,54 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>65000</v>
+      </c>
+      <c r="D47">
+        <v>65200</v>
+      </c>
+      <c r="E47">
+        <v>200</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>2000</v>
+      </c>
+      <c r="D48">
+        <v>1800</v>
+      </c>
+      <c r="E48">
+        <v>200</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>27</v>
@@ -2986,59 +3042,86 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>29100</v>
+      </c>
+      <c r="D49">
+        <v>24800</v>
+      </c>
+      <c r="E49">
+        <v>4300</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>1900</v>
+      </c>
+      <c r="D50">
+        <v>3000</v>
+      </c>
+      <c r="E50">
+        <v>4900</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>12100</v>
+      </c>
+      <c r="D51">
+        <v>8800</v>
+      </c>
+      <c r="E51">
+        <v>3300</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3046,79 +3129,115 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>900</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>134000</v>
+      </c>
+      <c r="D53">
+        <v>133000</v>
+      </c>
+      <c r="E53">
+        <v>1000</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>4100</v>
+      </c>
+      <c r="D54">
+        <v>3900</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>48100</v>
+      </c>
+      <c r="D55">
+        <v>52900</v>
+      </c>
+      <c r="E55">
+        <v>4800</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3126,179 +3245,260 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>166300</v>
+      </c>
+      <c r="D56">
+        <v>171100</v>
+      </c>
+      <c r="E56">
+        <v>4800</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>83900</v>
+      </c>
+      <c r="D57">
+        <v>56800</v>
+      </c>
+      <c r="E57">
+        <v>27100</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>27100</v>
+      </c>
+      <c r="D58">
+        <v>20900</v>
+      </c>
+      <c r="E58">
+        <v>6200</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>200</v>
+      </c>
+      <c r="D59">
+        <v>3000</v>
+      </c>
+      <c r="E59">
+        <v>3200</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>61300</v>
+      </c>
+      <c r="D60">
+        <v>49000</v>
+      </c>
+      <c r="E60">
+        <v>12300</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>22100</v>
+      </c>
+      <c r="D61">
+        <v>15900</v>
+      </c>
+      <c r="E61">
+        <v>6200</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>62100</v>
+      </c>
+      <c r="D62">
+        <v>63100</v>
+      </c>
+      <c r="E62">
+        <v>1000</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
         <v>19</v>
       </c>
-      <c r="B63" t="s">
-        <v>22</v>
+      <c r="C63">
+        <v>28000</v>
+      </c>
+      <c r="D63">
+        <v>24900</v>
+      </c>
+      <c r="E63">
+        <v>3100</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>55400</v>
+      </c>
+      <c r="D64">
+        <v>51900</v>
+      </c>
+      <c r="E64">
+        <v>3500</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -3306,19 +3506,19 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>2000</v>
+        <v>31500</v>
       </c>
       <c r="D65">
-        <v>1900</v>
+        <v>20900</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>10600</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3327,27 +3527,27 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C66">
-        <v>2000</v>
+        <v>35900</v>
       </c>
       <c r="D66">
-        <v>1900</v>
+        <v>36200</v>
       </c>
       <c r="E66">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3356,27 +3556,27 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>2100</v>
+        <v>13300</v>
       </c>
       <c r="D67">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="E67">
-        <v>300</v>
+        <v>5300</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3385,27 +3585,27 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C68">
-        <v>2100</v>
+        <v>4300</v>
       </c>
       <c r="D68">
-        <v>1800</v>
+        <v>18100</v>
       </c>
       <c r="E68">
-        <v>300</v>
+        <v>13800</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3414,114 +3614,114 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="D69">
-        <v>1900</v>
+        <v>10800</v>
       </c>
       <c r="E69">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C70">
-        <v>2100</v>
+        <v>41000</v>
       </c>
       <c r="D70">
-        <v>1900</v>
+        <v>17900</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C71">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="D71">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="E71">
-        <v>100</v>
+        <v>9500</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C72">
-        <v>2000</v>
+        <v>10200</v>
       </c>
       <c r="D72">
-        <v>1800</v>
+        <v>3900</v>
       </c>
       <c r="E72">
-        <v>200</v>
+        <v>6300</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3530,27 +3730,27 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>2100</v>
+        <v>26000</v>
       </c>
       <c r="D73">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="E73">
-        <v>300</v>
+        <v>20500</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3559,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -3567,19 +3767,19 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>2000</v>
+        <v>37000</v>
       </c>
       <c r="D74">
-        <v>1700</v>
+        <v>18900</v>
       </c>
       <c r="E74">
-        <v>300</v>
+        <v>18100</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3588,27 +3788,27 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>2100</v>
+        <v>172000</v>
       </c>
       <c r="D75">
-        <v>1900</v>
+        <v>5900</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>166100</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3617,27 +3817,27 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>2100</v>
+        <v>43900</v>
       </c>
       <c r="D76">
-        <v>1800</v>
+        <v>33200</v>
       </c>
       <c r="E76">
-        <v>300</v>
+        <v>10700</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3646,152 +3846,152 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C77">
-        <v>2000</v>
+        <v>6100</v>
       </c>
       <c r="D77">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="E77">
-        <v>200</v>
+        <v>11100</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C78">
-        <v>2100</v>
+        <v>13100</v>
       </c>
       <c r="D78">
-        <v>1800</v>
+        <v>7900</v>
       </c>
       <c r="E78">
-        <v>300</v>
+        <v>5200</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>2100</v>
+        <v>40700</v>
       </c>
       <c r="D79">
-        <v>1900</v>
+        <v>72000</v>
       </c>
       <c r="E79">
-        <v>200</v>
+        <v>31300</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="D80">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>9700</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C81">
-        <v>2100</v>
+        <v>38000</v>
       </c>
       <c r="D81">
-        <v>1900</v>
+        <v>29800</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>8200</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3799,28 +3999,28 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>2100</v>
+        <v>421900</v>
       </c>
       <c r="D82">
-        <v>1800</v>
+        <v>15900</v>
       </c>
       <c r="E82">
-        <v>300</v>
+        <v>406000</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3828,193 +4028,184 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C83">
-        <v>2000</v>
+        <v>16300</v>
       </c>
       <c r="D83">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="E83">
-        <v>200</v>
+        <v>9300</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>2000</v>
+        <v>38200</v>
       </c>
       <c r="D84">
-        <v>1800</v>
+        <v>6900</v>
       </c>
       <c r="E84">
-        <v>200</v>
+        <v>31300</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>2100</v>
+        <v>91000</v>
       </c>
       <c r="D85">
-        <v>1900</v>
+        <v>13900</v>
       </c>
       <c r="E85">
-        <v>200</v>
+        <v>77100</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C86">
-        <v>100</v>
+        <v>57100</v>
       </c>
       <c r="D86">
-        <v>3100</v>
+        <v>37900</v>
       </c>
       <c r="E86">
-        <v>3200</v>
+        <v>19200</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>200</v>
+        <v>50500</v>
       </c>
       <c r="D87">
-        <v>3000</v>
+        <v>40900</v>
       </c>
       <c r="E87">
-        <v>3200</v>
+        <v>9600</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88">
+        <v>21</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
         <v>0</v>
       </c>
-      <c r="D88">
-        <v>3000</v>
-      </c>
-      <c r="E88">
-        <v>3000</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C89">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="D89">
-        <v>3000</v>
+        <v>21900</v>
       </c>
       <c r="E89">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4023,27 +4214,27 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C90">
-        <v>300</v>
+        <v>39000</v>
       </c>
       <c r="D90">
-        <v>3000</v>
+        <v>36900</v>
       </c>
       <c r="E90">
-        <v>3300</v>
+        <v>2100</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4052,27 +4243,27 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C91">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D91">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="E91">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4081,27 +4272,27 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C92">
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="D92">
-        <v>3000</v>
+        <v>9900</v>
       </c>
       <c r="E92">
-        <v>3100</v>
+        <v>4100</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4110,27 +4301,27 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>100</v>
+        <v>102000</v>
       </c>
       <c r="D93">
-        <v>3000</v>
+        <v>99900</v>
       </c>
       <c r="E93">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4139,27 +4330,27 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>149900</v>
       </c>
       <c r="D94">
-        <v>3100</v>
+        <v>143900</v>
       </c>
       <c r="E94">
-        <v>3100</v>
+        <v>6000</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4168,27 +4359,27 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C95">
-        <v>200</v>
+        <v>243400</v>
       </c>
       <c r="D95">
-        <v>3000</v>
+        <v>246500</v>
       </c>
       <c r="E95">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4197,27 +4388,27 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="D96">
-        <v>3000</v>
+        <v>29900</v>
       </c>
       <c r="E96">
-        <v>3000</v>
+        <v>6100</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4226,27 +4417,27 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C97">
-        <v>200</v>
+        <v>122000</v>
       </c>
       <c r="D97">
-        <v>3000</v>
+        <v>115900</v>
       </c>
       <c r="E97">
-        <v>3200</v>
+        <v>6100</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4255,1489 +4446,242 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C98">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="D98">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="E98">
-        <v>3200</v>
+        <v>6100</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>40700</v>
       </c>
       <c r="D99">
-        <v>3000</v>
+        <v>42700</v>
       </c>
       <c r="E99">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C100">
-        <v>200</v>
+        <v>427900</v>
       </c>
       <c r="D100">
-        <v>3000</v>
+        <v>433000</v>
       </c>
       <c r="E100">
-        <v>3200</v>
+        <v>5100</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D101">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="E101">
-        <v>3000</v>
+        <v>9100</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C102">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="D102">
-        <v>3000</v>
+        <v>6200</v>
       </c>
       <c r="E102">
-        <v>3100</v>
+        <v>8100</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C103">
-        <v>200</v>
+        <v>129000</v>
       </c>
       <c r="D103">
-        <v>3000</v>
+        <v>68900</v>
       </c>
       <c r="E103">
-        <v>3200</v>
+        <v>60100</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="D104">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="E104">
-        <v>3100</v>
+        <v>11100</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C105">
-        <v>100</v>
+        <v>253000</v>
       </c>
       <c r="D105">
-        <v>3000</v>
+        <v>250900</v>
       </c>
       <c r="E105">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1">
-        <v>125</v>
-      </c>
-      <c r="B106" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106">
-        <v>200</v>
-      </c>
-      <c r="D106">
-        <v>3000</v>
-      </c>
-      <c r="E106">
-        <v>3200</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>43</v>
-      </c>
-      <c r="I106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1">
-        <v>21</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107">
-        <v>32000</v>
-      </c>
-      <c r="D107">
-        <v>900</v>
-      </c>
-      <c r="E107">
-        <v>31100</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="G107">
-        <v>3</v>
-      </c>
-      <c r="H107" t="s">
-        <v>23</v>
-      </c>
-      <c r="I107">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1">
-        <v>22</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108">
-        <v>51200</v>
-      </c>
-      <c r="D108">
-        <v>40900</v>
-      </c>
-      <c r="E108">
-        <v>10300</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-      <c r="H108" t="s">
-        <v>24</v>
-      </c>
-      <c r="I108">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1">
-        <v>23</v>
-      </c>
-      <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109">
-        <v>32000</v>
-      </c>
-      <c r="D109">
-        <v>900</v>
-      </c>
-      <c r="E109">
-        <v>31100</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-      <c r="H109" t="s">
-        <v>25</v>
-      </c>
-      <c r="I109">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1">
-        <v>24</v>
-      </c>
-      <c r="B110" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110">
-        <v>32000</v>
-      </c>
-      <c r="D110">
-        <v>900</v>
-      </c>
-      <c r="E110">
-        <v>31100</v>
-      </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-      <c r="G110">
-        <v>3</v>
-      </c>
-      <c r="H110" t="s">
-        <v>26</v>
-      </c>
-      <c r="I110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1">
-        <v>25</v>
-      </c>
-      <c r="B111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111">
-        <v>43100</v>
-      </c>
-      <c r="D111">
-        <v>13000</v>
-      </c>
-      <c r="E111">
-        <v>30100</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-      <c r="G111">
-        <v>3</v>
-      </c>
-      <c r="H111" t="s">
-        <v>27</v>
-      </c>
-      <c r="I111">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1">
-        <v>26</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112">
-        <v>50200</v>
-      </c>
-      <c r="D112">
-        <v>41000</v>
-      </c>
-      <c r="E112">
-        <v>9200</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-      <c r="G112">
-        <v>3</v>
-      </c>
-      <c r="H112" t="s">
-        <v>28</v>
-      </c>
-      <c r="I112">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1">
-        <v>27</v>
-      </c>
-      <c r="B113" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113">
-        <v>50900</v>
-      </c>
-      <c r="D113">
-        <v>40900</v>
-      </c>
-      <c r="E113">
-        <v>10000</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-      <c r="G113">
-        <v>3</v>
-      </c>
-      <c r="H113" t="s">
-        <v>29</v>
-      </c>
-      <c r="I113">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1">
-        <v>28</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114">
-        <v>32000</v>
-      </c>
-      <c r="D114">
-        <v>900</v>
-      </c>
-      <c r="E114">
-        <v>31100</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-      <c r="G114">
-        <v>3</v>
-      </c>
-      <c r="H114" t="s">
-        <v>30</v>
-      </c>
-      <c r="I114">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1">
-        <v>29</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115">
-        <v>50300</v>
-      </c>
-      <c r="D115">
-        <v>40900</v>
-      </c>
-      <c r="E115">
-        <v>9400</v>
-      </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-      <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115" t="s">
-        <v>31</v>
-      </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1">
-        <v>30</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116">
-        <v>43100</v>
-      </c>
-      <c r="D116">
-        <v>13000</v>
-      </c>
-      <c r="E116">
-        <v>30100</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-      <c r="G116">
-        <v>3</v>
-      </c>
-      <c r="H116" t="s">
-        <v>32</v>
-      </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1">
-        <v>31</v>
-      </c>
-      <c r="B117" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117">
-        <v>32000</v>
-      </c>
-      <c r="D117">
-        <v>900</v>
-      </c>
-      <c r="E117">
-        <v>31100</v>
-      </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-      <c r="G117">
-        <v>3</v>
-      </c>
-      <c r="H117" t="s">
-        <v>33</v>
-      </c>
-      <c r="I117">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1">
-        <v>32</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118">
-        <v>50500</v>
-      </c>
-      <c r="D118">
-        <v>40900</v>
-      </c>
-      <c r="E118">
-        <v>9600</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-      <c r="G118">
-        <v>3</v>
-      </c>
-      <c r="H118" t="s">
-        <v>34</v>
-      </c>
-      <c r="I118">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1">
-        <v>33</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119">
-        <v>43100</v>
-      </c>
-      <c r="D119">
-        <v>13000</v>
-      </c>
-      <c r="E119">
-        <v>30100</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-      <c r="G119">
-        <v>3</v>
-      </c>
-      <c r="H119" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1">
-        <v>34</v>
-      </c>
-      <c r="B120" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120">
-        <v>50100</v>
-      </c>
-      <c r="D120">
-        <v>40900</v>
-      </c>
-      <c r="E120">
-        <v>9200</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
-      </c>
-      <c r="H120" t="s">
-        <v>36</v>
-      </c>
-      <c r="I120">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1">
-        <v>35</v>
-      </c>
-      <c r="B121" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121">
-        <v>32000</v>
-      </c>
-      <c r="D121">
-        <v>900</v>
-      </c>
-      <c r="E121">
-        <v>31100</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-      <c r="H121" t="s">
-        <v>37</v>
-      </c>
-      <c r="I121">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1">
-        <v>36</v>
-      </c>
-      <c r="B122" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122">
-        <v>51000</v>
-      </c>
-      <c r="D122">
-        <v>40900</v>
-      </c>
-      <c r="E122">
-        <v>10100</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
-      <c r="H122" t="s">
-        <v>38</v>
-      </c>
-      <c r="I122">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1">
-        <v>37</v>
-      </c>
-      <c r="B123" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123">
-        <v>50900</v>
-      </c>
-      <c r="D123">
-        <v>40900</v>
-      </c>
-      <c r="E123">
-        <v>10000</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-      <c r="G123">
-        <v>3</v>
-      </c>
-      <c r="H123" t="s">
-        <v>39</v>
-      </c>
-      <c r="I123">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1">
-        <v>38</v>
-      </c>
-      <c r="B124" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124">
-        <v>50500</v>
-      </c>
-      <c r="D124">
-        <v>40900</v>
-      </c>
-      <c r="E124">
-        <v>9600</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-      <c r="H124" t="s">
-        <v>40</v>
-      </c>
-      <c r="I124">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="1">
-        <v>39</v>
-      </c>
-      <c r="B125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125">
-        <v>50800</v>
-      </c>
-      <c r="D125">
-        <v>40900</v>
-      </c>
-      <c r="E125">
-        <v>9900</v>
-      </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-      <c r="G125">
-        <v>3</v>
-      </c>
-      <c r="H125" t="s">
-        <v>41</v>
-      </c>
-      <c r="I125">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1">
-        <v>40</v>
-      </c>
-      <c r="B126" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126">
-        <v>51000</v>
-      </c>
-      <c r="D126">
-        <v>41000</v>
-      </c>
-      <c r="E126">
-        <v>10000</v>
-      </c>
-      <c r="F126">
-        <v>3</v>
-      </c>
-      <c r="G126">
-        <v>3</v>
-      </c>
-      <c r="H126" t="s">
-        <v>42</v>
-      </c>
-      <c r="I126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1">
-        <v>41</v>
-      </c>
-      <c r="B127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127">
-        <v>50300</v>
-      </c>
-      <c r="D127">
-        <v>40900</v>
-      </c>
-      <c r="E127">
-        <v>9400</v>
-      </c>
-      <c r="F127">
-        <v>3</v>
-      </c>
-      <c r="G127">
-        <v>3</v>
-      </c>
-      <c r="H127" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1">
-        <v>42</v>
-      </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128">
-        <v>8000</v>
-      </c>
-      <c r="D128">
-        <v>10100</v>
-      </c>
-      <c r="E128">
-        <v>2100</v>
-      </c>
-      <c r="F128">
-        <v>2</v>
-      </c>
-      <c r="G128">
-        <v>2</v>
-      </c>
-      <c r="H128" t="s">
-        <v>23</v>
-      </c>
-      <c r="I128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1">
-        <v>43</v>
-      </c>
-      <c r="B129" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129">
-        <v>2000</v>
-      </c>
-      <c r="D129">
-        <v>6100</v>
-      </c>
-      <c r="E129">
-        <v>8100</v>
-      </c>
-      <c r="F129">
-        <v>2</v>
-      </c>
-      <c r="G129">
-        <v>2</v>
-      </c>
-      <c r="H129" t="s">
-        <v>24</v>
-      </c>
-      <c r="I129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1">
-        <v>44</v>
-      </c>
-      <c r="B130" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130">
-        <v>8000</v>
-      </c>
-      <c r="D130">
-        <v>10100</v>
-      </c>
-      <c r="E130">
-        <v>2100</v>
-      </c>
-      <c r="F130">
-        <v>2</v>
-      </c>
-      <c r="G130">
-        <v>2</v>
-      </c>
-      <c r="H130" t="s">
-        <v>25</v>
-      </c>
-      <c r="I130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1">
-        <v>45</v>
-      </c>
-      <c r="B131" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131">
-        <v>8000</v>
-      </c>
-      <c r="D131">
-        <v>10100</v>
-      </c>
-      <c r="E131">
-        <v>2100</v>
-      </c>
-      <c r="F131">
-        <v>2</v>
-      </c>
-      <c r="G131">
-        <v>2</v>
-      </c>
-      <c r="H131" t="s">
-        <v>26</v>
-      </c>
-      <c r="I131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1">
-        <v>46</v>
-      </c>
-      <c r="B132" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132">
-        <v>2000</v>
-      </c>
-      <c r="D132">
-        <v>6100</v>
-      </c>
-      <c r="E132">
-        <v>8100</v>
-      </c>
-      <c r="F132">
-        <v>2</v>
-      </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132" t="s">
-        <v>27</v>
-      </c>
-      <c r="I132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1">
-        <v>47</v>
-      </c>
-      <c r="B133" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133">
-        <v>2100</v>
-      </c>
-      <c r="D133">
-        <v>6000</v>
-      </c>
-      <c r="E133">
-        <v>8100</v>
-      </c>
-      <c r="F133">
-        <v>2</v>
-      </c>
-      <c r="G133">
-        <v>2</v>
-      </c>
-      <c r="H133" t="s">
-        <v>28</v>
-      </c>
-      <c r="I133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1">
-        <v>48</v>
-      </c>
-      <c r="B134" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134">
-        <v>8000</v>
-      </c>
-      <c r="D134">
-        <v>10100</v>
-      </c>
-      <c r="E134">
-        <v>2100</v>
-      </c>
-      <c r="F134">
-        <v>2</v>
-      </c>
-      <c r="G134">
-        <v>2</v>
-      </c>
-      <c r="H134" t="s">
-        <v>29</v>
-      </c>
-      <c r="I134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1">
-        <v>49</v>
-      </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135">
-        <v>8000</v>
-      </c>
-      <c r="D135">
-        <v>10100</v>
-      </c>
-      <c r="E135">
-        <v>2100</v>
-      </c>
-      <c r="F135">
-        <v>2</v>
-      </c>
-      <c r="G135">
-        <v>2</v>
-      </c>
-      <c r="H135" t="s">
-        <v>30</v>
-      </c>
-      <c r="I135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1">
-        <v>50</v>
-      </c>
-      <c r="B136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136">
-        <v>2000</v>
-      </c>
-      <c r="D136">
-        <v>6100</v>
-      </c>
-      <c r="E136">
-        <v>8100</v>
-      </c>
-      <c r="F136">
-        <v>2</v>
-      </c>
-      <c r="G136">
-        <v>2</v>
-      </c>
-      <c r="H136" t="s">
-        <v>31</v>
-      </c>
-      <c r="I136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1">
-        <v>51</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137">
-        <v>8600</v>
-      </c>
-      <c r="D137">
-        <v>10700</v>
-      </c>
-      <c r="E137">
-        <v>2100</v>
-      </c>
-      <c r="F137">
-        <v>2</v>
-      </c>
-      <c r="G137">
-        <v>2</v>
-      </c>
-      <c r="H137" t="s">
-        <v>32</v>
-      </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1">
-        <v>52</v>
-      </c>
-      <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138">
-        <v>2000</v>
-      </c>
-      <c r="D138">
-        <v>6100</v>
-      </c>
-      <c r="E138">
-        <v>8100</v>
-      </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
-      <c r="G138">
-        <v>2</v>
-      </c>
-      <c r="H138" t="s">
-        <v>33</v>
-      </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1">
-        <v>53</v>
-      </c>
-      <c r="B139" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139">
-        <v>8000</v>
-      </c>
-      <c r="D139">
-        <v>10100</v>
-      </c>
-      <c r="E139">
-        <v>2100</v>
-      </c>
-      <c r="F139">
-        <v>2</v>
-      </c>
-      <c r="G139">
-        <v>2</v>
-      </c>
-      <c r="H139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1">
-        <v>54</v>
-      </c>
-      <c r="B140" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140">
-        <v>7900</v>
-      </c>
-      <c r="D140">
-        <v>10100</v>
-      </c>
-      <c r="E140">
-        <v>2200</v>
-      </c>
-      <c r="F140">
-        <v>2</v>
-      </c>
-      <c r="G140">
-        <v>2</v>
-      </c>
-      <c r="H140" t="s">
-        <v>35</v>
-      </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1">
-        <v>55</v>
-      </c>
-      <c r="B141" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141">
-        <v>2000</v>
-      </c>
-      <c r="D141">
-        <v>6100</v>
-      </c>
-      <c r="E141">
-        <v>8100</v>
-      </c>
-      <c r="F141">
-        <v>2</v>
-      </c>
-      <c r="G141">
-        <v>2</v>
-      </c>
-      <c r="H141" t="s">
-        <v>36</v>
-      </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1">
-        <v>56</v>
-      </c>
-      <c r="B142" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142">
-        <v>8000</v>
-      </c>
-      <c r="D142">
-        <v>10100</v>
-      </c>
-      <c r="E142">
-        <v>2100</v>
-      </c>
-      <c r="F142">
-        <v>2</v>
-      </c>
-      <c r="G142">
-        <v>2</v>
-      </c>
-      <c r="H142" t="s">
-        <v>37</v>
-      </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1">
-        <v>57</v>
-      </c>
-      <c r="B143" t="s">
-        <v>20</v>
-      </c>
-      <c r="C143">
-        <v>2000</v>
-      </c>
-      <c r="D143">
-        <v>6100</v>
-      </c>
-      <c r="E143">
-        <v>8100</v>
-      </c>
-      <c r="F143">
-        <v>2</v>
-      </c>
-      <c r="G143">
-        <v>2</v>
-      </c>
-      <c r="H143" t="s">
-        <v>38</v>
-      </c>
-      <c r="I143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1">
-        <v>58</v>
-      </c>
-      <c r="B144" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144">
-        <v>8000</v>
-      </c>
-      <c r="D144">
-        <v>10100</v>
-      </c>
-      <c r="E144">
-        <v>2100</v>
-      </c>
-      <c r="F144">
-        <v>2</v>
-      </c>
-      <c r="G144">
-        <v>2</v>
-      </c>
-      <c r="H144" t="s">
-        <v>39</v>
-      </c>
-      <c r="I144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1">
-        <v>59</v>
-      </c>
-      <c r="B145" t="s">
-        <v>20</v>
-      </c>
-      <c r="C145">
-        <v>8000</v>
-      </c>
-      <c r="D145">
-        <v>10100</v>
-      </c>
-      <c r="E145">
-        <v>2100</v>
-      </c>
-      <c r="F145">
-        <v>2</v>
-      </c>
-      <c r="G145">
-        <v>2</v>
-      </c>
-      <c r="H145" t="s">
-        <v>40</v>
-      </c>
-      <c r="I145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1">
-        <v>60</v>
-      </c>
-      <c r="B146" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146">
-        <v>2000</v>
-      </c>
-      <c r="D146">
-        <v>6100</v>
-      </c>
-      <c r="E146">
-        <v>8100</v>
-      </c>
-      <c r="F146">
-        <v>2</v>
-      </c>
-      <c r="G146">
-        <v>2</v>
-      </c>
-      <c r="H146" t="s">
-        <v>41</v>
-      </c>
-      <c r="I146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1">
-        <v>61</v>
-      </c>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147">
-        <v>8000</v>
-      </c>
-      <c r="D147">
-        <v>10100</v>
-      </c>
-      <c r="E147">
-        <v>2100</v>
-      </c>
-      <c r="F147">
-        <v>2</v>
-      </c>
-      <c r="G147">
-        <v>2</v>
-      </c>
-      <c r="H147" t="s">
-        <v>42</v>
-      </c>
-      <c r="I147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1">
-        <v>62</v>
-      </c>
-      <c r="B148" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148">
-        <v>8000</v>
-      </c>
-      <c r="D148">
-        <v>10100</v>
-      </c>
-      <c r="E148">
-        <v>2100</v>
-      </c>
-      <c r="F148">
-        <v>2</v>
-      </c>
-      <c r="G148">
-        <v>2</v>
-      </c>
-      <c r="H148" t="s">
-        <v>43</v>
-      </c>
-      <c r="I148">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
+++ b/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
@@ -110,6 +110,9 @@
     <t>p26</t>
   </si>
   <si>
+    <t>p32</t>
+  </si>
+  <si>
     <t>p27</t>
   </si>
   <si>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>p33</t>
-  </si>
-  <si>
-    <t>p32</t>
   </si>
   <si>
     <t>p25</t>
@@ -986,109 +986,109 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.5589742331350683</v>
+        <v>0.576899571382119</v>
       </c>
       <c r="D4">
-        <v>0.272713934937275</v>
+        <v>0.2836662438502863</v>
       </c>
       <c r="E4">
-        <v>0.093125</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="F4">
-        <v>0.35390625</v>
+        <v>0.3390625</v>
       </c>
       <c r="G4">
-        <v>0.5453703703703704</v>
+        <v>0.6092592592592593</v>
       </c>
       <c r="H4">
-        <v>0.8007258064516128</v>
+        <v>0.8047849462365591</v>
       </c>
       <c r="I4">
-        <v>0.9315789473684211</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>186533.3333333333</v>
+        <v>201881.8181818182</v>
       </c>
       <c r="L4">
-        <v>278938.57040683</v>
+        <v>287078.6749940923</v>
       </c>
       <c r="M4">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>20950</v>
+        <v>21650</v>
       </c>
       <c r="O4">
-        <v>32050</v>
+        <v>39800</v>
       </c>
       <c r="P4">
-        <v>184050</v>
+        <v>223450</v>
       </c>
       <c r="Q4">
-        <v>766100</v>
+        <v>765500</v>
       </c>
       <c r="R4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S4">
-        <v>184250</v>
+        <v>200272.7272727273</v>
       </c>
       <c r="T4">
-        <v>282866.0283597166</v>
+        <v>290731.2060681105</v>
       </c>
       <c r="U4">
         <v>1000</v>
       </c>
       <c r="V4">
-        <v>15650</v>
+        <v>16900</v>
       </c>
       <c r="W4">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="X4">
-        <v>185575</v>
+        <v>226050</v>
       </c>
       <c r="Y4">
-        <v>770100</v>
+        <v>769300</v>
       </c>
       <c r="Z4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA4">
-        <v>6350</v>
+        <v>5972.727272727273</v>
       </c>
       <c r="AB4">
-        <v>5472.991536960053</v>
+        <v>5688.952611701193</v>
       </c>
       <c r="AC4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3800</v>
+        <v>3450</v>
       </c>
       <c r="AE4">
-        <v>5550</v>
+        <v>5200</v>
       </c>
       <c r="AF4">
-        <v>8275</v>
+        <v>7100</v>
       </c>
       <c r="AG4">
         <v>21100</v>
       </c>
       <c r="AH4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4">
-        <v>1.083333333333333</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="AJ4">
-        <v>0.2886751345948129</v>
+        <v>0.3015113445777636</v>
       </c>
       <c r="AK4">
         <v>1</v>
@@ -1106,37 +1106,37 @@
         <v>2</v>
       </c>
       <c r="AP4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ4">
-        <v>23750</v>
+        <v>24300</v>
       </c>
       <c r="AR4">
-        <v>39043.18122284607</v>
+        <v>41195.16961975033</v>
       </c>
       <c r="AS4">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="AT4">
-        <v>6025</v>
+        <v>5950</v>
       </c>
       <c r="AU4">
-        <v>13300</v>
+        <v>9200</v>
       </c>
       <c r="AV4">
-        <v>21425</v>
+        <v>21650</v>
       </c>
       <c r="AW4">
-        <v>145100</v>
+        <v>146000</v>
       </c>
       <c r="AX4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY4">
-        <v>167600</v>
+        <v>182763.6363636364</v>
       </c>
       <c r="AZ4">
-        <v>291373.0660791481</v>
+        <v>300382.8366359412</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>185575</v>
+        <v>226050</v>
       </c>
       <c r="BE4">
-        <v>770100</v>
+        <v>769300</v>
       </c>
       <c r="BF4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1178,19 +1178,19 @@
         <v>1</v>
       </c>
       <c r="BN4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO4">
-        <v>0.6216180713845606</v>
+        <v>0.5874441342278131</v>
       </c>
       <c r="BP4">
-        <v>0.4692710849876938</v>
+        <v>0.4758201023271298</v>
       </c>
       <c r="BQ4">
         <v>0.0325497287522604</v>
       </c>
       <c r="BR4">
-        <v>0.1237406513373559</v>
+        <v>0.1068236886669134</v>
       </c>
       <c r="BS4">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>1</v>
       </c>
       <c r="BV4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW4">
-        <v>1.083333333333333</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="BX4">
-        <v>0.2886751345948129</v>
+        <v>0.3015113445777636</v>
       </c>
       <c r="BY4">
         <v>1</v>
@@ -1226,37 +1226,37 @@
         <v>2</v>
       </c>
       <c r="CD4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CE4">
-        <v>0.2970229290384248</v>
+        <v>0.2899842500723391</v>
       </c>
       <c r="CF4">
-        <v>0.2652213436359582</v>
+        <v>0.2802681566620254</v>
       </c>
       <c r="CG4">
         <v>0.03230769230769231</v>
       </c>
       <c r="CH4">
-        <v>0.08757372032640949</v>
+        <v>0.07920994065281899</v>
       </c>
       <c r="CI4">
-        <v>0.2890336134453781</v>
+        <v>0.2970588235294118</v>
       </c>
       <c r="CJ4">
-        <v>0.3774245689655173</v>
+        <v>0.3390625</v>
       </c>
       <c r="CK4">
-        <v>0.9315789473684211</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="CL4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CM4">
-        <v>1000</v>
+        <v>1090.909090909091</v>
       </c>
       <c r="CN4">
-        <v>3464.101615137754</v>
+        <v>3618.136134933162</v>
       </c>
       <c r="CO4">
         <v>0</v>
@@ -1274,28 +1274,28 @@
         <v>12000</v>
       </c>
       <c r="CT4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU4">
-        <v>18166.66666666667</v>
+        <v>18790.90909090909</v>
       </c>
       <c r="CV4">
-        <v>8254.401947758028</v>
+        <v>8415.040647014672</v>
       </c>
       <c r="CW4">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="CX4">
-        <v>11250</v>
+        <v>11000</v>
       </c>
       <c r="CY4">
-        <v>16300</v>
+        <v>18000</v>
       </c>
       <c r="CZ4">
-        <v>24225</v>
+        <v>24550</v>
       </c>
       <c r="DA4">
-        <v>32800</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -1306,10 +1306,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.1701764990204246</v>
+        <v>0.1703056975259893</v>
       </c>
       <c r="D5">
-        <v>0.3128556176598182</v>
+        <v>0.312812917208502</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1321,82 +1321,82 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1469149303557039</v>
+        <v>0.1471796937953264</v>
       </c>
       <c r="I5">
         <v>0.9660714285714286</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5">
-        <v>98341.66666666667</v>
+        <v>103572.7272727273</v>
       </c>
       <c r="L5">
-        <v>58648.04822503526</v>
+        <v>60782.76220951284</v>
       </c>
       <c r="M5">
         <v>10000</v>
       </c>
       <c r="N5">
-        <v>55250</v>
+        <v>53500</v>
       </c>
       <c r="O5">
-        <v>80500</v>
+        <v>118100</v>
       </c>
       <c r="P5">
-        <v>142575</v>
+        <v>151100</v>
       </c>
       <c r="Q5">
         <v>183000</v>
       </c>
       <c r="R5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S5">
-        <v>63266.66666666666</v>
+        <v>63800</v>
       </c>
       <c r="T5">
-        <v>57680.9773800267</v>
+        <v>63448.07325679796</v>
       </c>
       <c r="U5">
         <v>1900</v>
       </c>
       <c r="V5">
-        <v>20950</v>
+        <v>12450</v>
       </c>
       <c r="W5">
-        <v>53400</v>
+        <v>49900</v>
       </c>
       <c r="X5">
-        <v>73900</v>
+        <v>90400</v>
       </c>
       <c r="Y5">
         <v>181000</v>
       </c>
       <c r="Z5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5">
-        <v>41841.66666666666</v>
+        <v>47172.72727272727</v>
       </c>
       <c r="AB5">
-        <v>40502.71502309968</v>
+        <v>47442.13508916079</v>
       </c>
       <c r="AC5">
         <v>100</v>
       </c>
       <c r="AD5">
-        <v>7825</v>
+        <v>10950</v>
       </c>
       <c r="AE5">
-        <v>34350</v>
+        <v>26000</v>
       </c>
       <c r="AF5">
-        <v>63325</v>
+        <v>84050</v>
       </c>
       <c r="AG5">
-        <v>119000</v>
+        <v>122100</v>
       </c>
       <c r="AH5">
         <v>15</v>
@@ -1426,19 +1426,19 @@
         <v>15</v>
       </c>
       <c r="AQ5">
-        <v>114206.6666666667</v>
+        <v>114200</v>
       </c>
       <c r="AR5">
-        <v>75455.20399232785</v>
+        <v>75463.53897270995</v>
       </c>
       <c r="AS5">
         <v>1900</v>
       </c>
       <c r="AT5">
-        <v>55100</v>
+        <v>55050</v>
       </c>
       <c r="AU5">
-        <v>104900</v>
+        <v>105000</v>
       </c>
       <c r="AV5">
         <v>182000</v>
@@ -1450,25 +1450,25 @@
         <v>15</v>
       </c>
       <c r="AY5">
-        <v>11753.33333333333</v>
+        <v>11860</v>
       </c>
       <c r="AZ5">
-        <v>14069.36218813605</v>
+        <v>14217.33348517124</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BC5">
         <v>4900</v>
       </c>
       <c r="BD5">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="BE5">
-        <v>42700</v>
+        <v>42900</v>
       </c>
       <c r="BF5">
         <v>15</v>
@@ -1495,13 +1495,13 @@
         <v>4</v>
       </c>
       <c r="BN5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BO5">
-        <v>0.317805478239935</v>
+        <v>0.2951981608042054</v>
       </c>
       <c r="BP5">
-        <v>0.393161308162349</v>
+        <v>0.3850773153122397</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.1123595505617977</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="BT5">
-        <v>0.577613927365848</v>
+        <v>0.5577319587628866</v>
       </c>
       <c r="BU5">
         <v>1</v>
@@ -1546,19 +1546,19 @@
         <v>15</v>
       </c>
       <c r="CE5">
-        <v>0.4802349037058307</v>
+        <v>0.4798566537736857</v>
       </c>
       <c r="CF5">
-        <v>0.2622243514459595</v>
+        <v>0.2621726694953105</v>
       </c>
       <c r="CG5">
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.3813214936917932</v>
+        <v>0.3820595149360702</v>
       </c>
       <c r="CI5">
-        <v>0.5481256332320162</v>
+        <v>0.5470171890798786</v>
       </c>
       <c r="CJ5">
         <v>0.6482403891694026</v>
@@ -1570,10 +1570,10 @@
         <v>15</v>
       </c>
       <c r="CM5">
-        <v>154060</v>
+        <v>153993.3333333333</v>
       </c>
       <c r="CN5">
-        <v>174808.1225638149</v>
+        <v>174820.2279349792</v>
       </c>
       <c r="CO5">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>15</v>
       </c>
       <c r="CU5">
-        <v>14193.33333333333</v>
+        <v>14200</v>
       </c>
       <c r="CV5">
-        <v>26055.85940865911</v>
+        <v>26051.65199039346</v>
       </c>
       <c r="CW5">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.6172735760971055</v>
+        <v>0.6169934640522876</v>
       </c>
       <c r="D6">
-        <v>0.2892410964527157</v>
+        <v>0.2889918265130734</v>
       </c>
       <c r="E6">
         <v>0.2833333333333333</v>
@@ -1638,79 +1638,79 @@
         <v>0.7794117647058824</v>
       </c>
       <c r="H6">
-        <v>0.7842436974789916</v>
+        <v>0.7838235294117647</v>
       </c>
       <c r="I6">
-        <v>0.7890756302521008</v>
+        <v>0.788235294117647</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
+        <v>20666.66666666667</v>
+      </c>
+      <c r="L6">
+        <v>8656.981768106787</v>
+      </c>
+      <c r="M6">
+        <v>12900</v>
+      </c>
+      <c r="N6">
+        <v>16000</v>
+      </c>
+      <c r="O6">
+        <v>19100</v>
+      </c>
+      <c r="P6">
         <v>24550</v>
-      </c>
-      <c r="L6">
-        <v>7707.463914933368</v>
-      </c>
-      <c r="M6">
-        <v>19100</v>
-      </c>
-      <c r="N6">
-        <v>21825</v>
-      </c>
-      <c r="O6">
-        <v>24550</v>
-      </c>
-      <c r="P6">
-        <v>27275</v>
       </c>
       <c r="Q6">
         <v>30000</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>1850</v>
+        <v>6300</v>
       </c>
       <c r="T6">
-        <v>1484.92424049175</v>
+        <v>7686.351540230254</v>
       </c>
       <c r="U6">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="V6">
-        <v>1325</v>
+        <v>1900</v>
       </c>
       <c r="W6">
-        <v>1850</v>
+        <v>2900</v>
       </c>
       <c r="X6">
-        <v>2375</v>
+        <v>9000</v>
       </c>
       <c r="Y6">
-        <v>2900</v>
+        <v>15100</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6">
-        <v>22700</v>
+        <v>15833.33333333333</v>
       </c>
       <c r="AB6">
-        <v>6222.539674441618</v>
+        <v>12617.5803279921</v>
       </c>
       <c r="AC6">
-        <v>18300</v>
+        <v>2200</v>
       </c>
       <c r="AD6">
-        <v>20500</v>
+        <v>10200</v>
       </c>
       <c r="AE6">
-        <v>22700</v>
+        <v>18200</v>
       </c>
       <c r="AF6">
-        <v>24900</v>
+        <v>22650</v>
       </c>
       <c r="AG6">
         <v>27100</v>
@@ -1743,16 +1743,16 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>28400</v>
+        <v>28433.33333333333</v>
       </c>
       <c r="AR6">
-        <v>2858.32118559129</v>
+        <v>2800.595174839329</v>
       </c>
       <c r="AS6">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="AT6">
-        <v>27550</v>
+        <v>27600</v>
       </c>
       <c r="AU6">
         <v>30000</v>
@@ -1815,16 +1815,16 @@
         <v>3</v>
       </c>
       <c r="BO6">
-        <v>0.9538226299694189</v>
+        <v>0.9537802265074992</v>
       </c>
       <c r="BP6">
-        <v>0.07998155105287479</v>
+        <v>0.08005499600333654</v>
       </c>
       <c r="BQ6">
-        <v>0.8614678899082568</v>
+        <v>0.8613406795224977</v>
       </c>
       <c r="BR6">
-        <v>0.9307339449541284</v>
+        <v>0.9306703397612488</v>
       </c>
       <c r="BS6">
         <v>1</v>
@@ -1863,22 +1863,22 @@
         <v>3</v>
       </c>
       <c r="CE6">
-        <v>0.7921045008912656</v>
+        <v>0.7919262477718361</v>
       </c>
       <c r="CF6">
-        <v>0.01735040222702877</v>
+        <v>0.01746186358675542</v>
       </c>
       <c r="CG6">
         <v>0.7794117647058824</v>
       </c>
       <c r="CH6">
-        <v>0.7822192513368984</v>
+        <v>0.781951871657754</v>
       </c>
       <c r="CI6">
-        <v>0.7850267379679144</v>
+        <v>0.7844919786096257</v>
       </c>
       <c r="CJ6">
-        <v>0.7984508689839572</v>
+        <v>0.7981834893048129</v>
       </c>
       <c r="CK6">
         <v>0.811875</v>
@@ -1911,22 +1911,22 @@
         <v>3</v>
       </c>
       <c r="CU6">
-        <v>70600</v>
+        <v>70566.66666666667</v>
       </c>
       <c r="CV6">
-        <v>51194.43329113039</v>
+        <v>51171.70442083528</v>
       </c>
       <c r="CW6">
         <v>11900</v>
       </c>
       <c r="CX6">
-        <v>52900</v>
+        <v>52850</v>
       </c>
       <c r="CY6">
-        <v>93900</v>
+        <v>93800</v>
       </c>
       <c r="CZ6">
-        <v>99950</v>
+        <v>99900</v>
       </c>
       <c r="DA6">
         <v>106000</v>
@@ -1940,13 +1940,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.7265142155232556</v>
+        <v>0.7275359020548925</v>
       </c>
       <c r="D7">
-        <v>0.31334083851246</v>
+        <v>0.3119707236777481</v>
       </c>
       <c r="E7">
-        <v>0.0007462686567164179</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.5862068965517241</v>
@@ -1955,43 +1955,43 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="H7">
-        <v>0.9211538461538461</v>
+        <v>0.9153846153846154</v>
       </c>
       <c r="I7">
-        <v>0.975</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
       <c r="K7">
-        <v>16355.55555555555</v>
+        <v>28466.66666666667</v>
       </c>
       <c r="L7">
-        <v>20748.80183957082</v>
+        <v>44538.55071732802</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N7">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="O7">
         <v>9000</v>
       </c>
       <c r="P7">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="Q7">
-        <v>65000</v>
+        <v>134000</v>
       </c>
       <c r="R7">
         <v>9</v>
       </c>
       <c r="S7">
-        <v>27388.88888888889</v>
+        <v>27188.88888888889</v>
       </c>
       <c r="T7">
-        <v>44577.36097068904</v>
+        <v>44625.28555775426</v>
       </c>
       <c r="U7">
         <v>1000</v>
@@ -2003,34 +2003,34 @@
         <v>5000</v>
       </c>
       <c r="X7">
-        <v>24800</v>
+        <v>22900</v>
       </c>
       <c r="Y7">
-        <v>132900</v>
+        <v>133000</v>
       </c>
       <c r="Z7">
         <v>9</v>
       </c>
       <c r="AA7">
-        <v>14077.77777777778</v>
+        <v>1966.666666666667</v>
       </c>
       <c r="AB7">
-        <v>35990.54659830057</v>
+        <v>2070.024154448445</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE7">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="AF7">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="AG7">
-        <v>109900</v>
+        <v>5000</v>
       </c>
       <c r="AH7">
         <v>9</v>
@@ -2060,16 +2060,16 @@
         <v>9</v>
       </c>
       <c r="AQ7">
-        <v>28922.22222222222</v>
+        <v>28700</v>
       </c>
       <c r="AR7">
-        <v>44441.52837655839</v>
+        <v>44282.36104816454</v>
       </c>
       <c r="AS7">
         <v>100</v>
       </c>
       <c r="AT7">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="AU7">
         <v>9000</v>
@@ -2078,16 +2078,16 @@
         <v>36000</v>
       </c>
       <c r="AW7">
-        <v>133900</v>
+        <v>134000</v>
       </c>
       <c r="AX7">
         <v>9</v>
       </c>
       <c r="AY7">
-        <v>31766.66666666667</v>
+        <v>31788.88888888889</v>
       </c>
       <c r="AZ7">
-        <v>40146.51292453679</v>
+        <v>40162.4963256906</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -2096,22 +2096,22 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="BD7">
         <v>56000</v>
       </c>
       <c r="BE7">
-        <v>109900</v>
+        <v>110000</v>
       </c>
       <c r="BF7">
         <v>9</v>
       </c>
       <c r="BG7">
-        <v>1.222222222222222</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="BH7">
-        <v>0.4409585518440984</v>
+        <v>0.5</v>
       </c>
       <c r="BI7">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM7">
         <v>2</v>
@@ -2132,19 +2132,19 @@
         <v>9</v>
       </c>
       <c r="BO7">
-        <v>0.620161947096366</v>
+        <v>0.6197927409155196</v>
       </c>
       <c r="BP7">
-        <v>0.4501597540231874</v>
+        <v>0.4503158879044621</v>
       </c>
       <c r="BQ7">
-        <v>0.0009090909090909091</v>
+        <v>0</v>
       </c>
       <c r="BR7">
-        <v>0.1935483870967742</v>
+        <v>0.1922455573505654</v>
       </c>
       <c r="BS7">
-        <v>0.9123434704830053</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="BT7">
         <v>1</v>
@@ -2180,34 +2180,34 @@
         <v>9</v>
       </c>
       <c r="CE7">
-        <v>0.5370129471441589</v>
+        <v>0.5380119635616726</v>
       </c>
       <c r="CF7">
-        <v>0.3780446637462616</v>
+        <v>0.3788621959684571</v>
       </c>
       <c r="CG7">
-        <v>0.000819672131147541</v>
+        <v>0</v>
       </c>
       <c r="CH7">
-        <v>0.1904761904761905</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="CI7">
-        <v>0.6731578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="CJ7">
-        <v>0.8333333333333334</v>
+        <v>0.8319444444444445</v>
       </c>
       <c r="CK7">
-        <v>0.975</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="CL7">
         <v>9</v>
       </c>
       <c r="CM7">
-        <v>19888.88888888889</v>
+        <v>19877.77777777778</v>
       </c>
       <c r="CN7">
-        <v>41785.92599322302</v>
+        <v>41791.85859045328</v>
       </c>
       <c r="CO7">
         <v>0</v>
@@ -2228,16 +2228,16 @@
         <v>9</v>
       </c>
       <c r="CU7">
-        <v>42633.33333333334</v>
+        <v>42855.55555555555</v>
       </c>
       <c r="CV7">
-        <v>30568.44778525727</v>
+        <v>30850.53123979841</v>
       </c>
       <c r="CW7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CX7">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="CY7">
         <v>51000</v>
@@ -2246,7 +2246,7 @@
         <v>60000</v>
       </c>
       <c r="DA7">
-        <v>81900</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -2257,22 +2257,22 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>0.2508957783353325</v>
+        <v>0.2517497461252736</v>
       </c>
       <c r="D8">
-        <v>0.2730502976991136</v>
+        <v>0.2730128114520162</v>
       </c>
       <c r="E8">
-        <v>0.03241758241758242</v>
+        <v>0.03351648351648352</v>
       </c>
       <c r="F8">
-        <v>0.06438356164383562</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="G8">
-        <v>0.1023952095808383</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="H8">
-        <v>0.3081395348837209</v>
+        <v>0.3116279069767442</v>
       </c>
       <c r="I8">
         <v>0.9936708860759493</v>
@@ -2281,13 +2281,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>40823.52941176471</v>
+        <v>40752.94117647059</v>
       </c>
       <c r="L8">
-        <v>39848.58105083173</v>
+        <v>39691.09027299229</v>
       </c>
       <c r="M8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>15000</v>
@@ -2296,25 +2296,25 @@
         <v>29900</v>
       </c>
       <c r="P8">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="Q8">
-        <v>167200</v>
+        <v>166500</v>
       </c>
       <c r="R8">
         <v>17</v>
       </c>
       <c r="S8">
-        <v>36188.23529411765</v>
+        <v>36229.41176470588</v>
       </c>
       <c r="T8">
-        <v>40373.65914728533</v>
+        <v>40092.67022639367</v>
       </c>
       <c r="U8">
         <v>3000</v>
       </c>
       <c r="V8">
-        <v>8600</v>
+        <v>10300</v>
       </c>
       <c r="W8">
         <v>20900</v>
@@ -2323,28 +2323,28 @@
         <v>51900</v>
       </c>
       <c r="Y8">
-        <v>172100</v>
+        <v>171100</v>
       </c>
       <c r="Z8">
         <v>17</v>
       </c>
       <c r="AA8">
-        <v>8917.64705882353</v>
+        <v>8876.470588235294</v>
       </c>
       <c r="AB8">
-        <v>9931.152708404348</v>
+        <v>9999.470574220712</v>
       </c>
       <c r="AC8">
         <v>500</v>
       </c>
       <c r="AD8">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="AE8">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="AF8">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="AG8">
         <v>38000</v>
@@ -2377,34 +2377,34 @@
         <v>17</v>
       </c>
       <c r="AQ8">
-        <v>81423.5294117647</v>
+        <v>81376.4705882353</v>
       </c>
       <c r="AR8">
-        <v>43892.56100713088</v>
+        <v>43961.22623135876</v>
       </c>
       <c r="AS8">
         <v>500</v>
       </c>
       <c r="AT8">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="AU8">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="AV8">
-        <v>99300</v>
+        <v>99400</v>
       </c>
       <c r="AW8">
-        <v>176100</v>
+        <v>175900</v>
       </c>
       <c r="AX8">
         <v>17</v>
       </c>
       <c r="AY8">
-        <v>28000</v>
+        <v>28035.29411764706</v>
       </c>
       <c r="AZ8">
-        <v>56161.58607090794</v>
+        <v>56271.23978082045</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>18100</v>
       </c>
       <c r="BE8">
-        <v>172100</v>
+        <v>171100</v>
       </c>
       <c r="BF8">
         <v>17</v>
@@ -2449,16 +2449,16 @@
         <v>17</v>
       </c>
       <c r="BO8">
-        <v>0.7664716912776312</v>
+        <v>0.7666590706125493</v>
       </c>
       <c r="BP8">
-        <v>0.2832765985645082</v>
+        <v>0.2830555410259654</v>
       </c>
       <c r="BQ8">
-        <v>0.2588285960378984</v>
+        <v>0.2609071274298056</v>
       </c>
       <c r="BR8">
-        <v>0.588</v>
+        <v>0.5936254980079682</v>
       </c>
       <c r="BS8">
         <v>1</v>
@@ -2497,40 +2497,40 @@
         <v>17</v>
       </c>
       <c r="CE8">
-        <v>0.4909771653045139</v>
+        <v>0.4918558140212084</v>
       </c>
       <c r="CF8">
-        <v>0.2344455677984822</v>
+        <v>0.2331887419761059</v>
       </c>
       <c r="CG8">
         <v>0.03517587939698492</v>
       </c>
       <c r="CH8">
-        <v>0.2984165651644336</v>
+        <v>0.3020706455542022</v>
       </c>
       <c r="CI8">
-        <v>0.5827014218009479</v>
+        <v>0.583175355450237</v>
       </c>
       <c r="CJ8">
-        <v>0.6531645569620254</v>
+        <v>0.649367088607595</v>
       </c>
       <c r="CK8">
-        <v>0.7651898734177215</v>
+        <v>0.765506329113924</v>
       </c>
       <c r="CL8">
         <v>17</v>
       </c>
       <c r="CM8">
-        <v>114082.3529411765</v>
+        <v>114147.0588235294</v>
       </c>
       <c r="CN8">
-        <v>87407.72445337796</v>
+        <v>87338.23702742587</v>
       </c>
       <c r="CO8">
         <v>0</v>
       </c>
       <c r="CP8">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="CQ8">
         <v>150000</v>
@@ -2545,25 +2545,25 @@
         <v>17</v>
       </c>
       <c r="CU8">
-        <v>26635.29411764706</v>
+        <v>26682.35294117647</v>
       </c>
       <c r="CV8">
-        <v>29235.14454335035</v>
+        <v>29216.56711726494</v>
       </c>
       <c r="CW8">
         <v>2100</v>
       </c>
       <c r="CX8">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="CY8">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="CZ8">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="DA8">
-        <v>94100</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="9" spans="1:105">
@@ -2574,70 +2574,70 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0.4373494318393236</v>
+        <v>0.4390225797625772</v>
       </c>
       <c r="D9">
-        <v>0.3519797482680262</v>
+        <v>0.351795033715433</v>
       </c>
       <c r="E9">
-        <v>0.03473193473193473</v>
+        <v>0.0344988344988345</v>
       </c>
       <c r="F9">
-        <v>0.1091341991341991</v>
+        <v>0.109505772005772</v>
       </c>
       <c r="G9">
-        <v>0.3476190476190476</v>
+        <v>0.348139880952381</v>
       </c>
       <c r="H9">
-        <v>0.7534749034749034</v>
+        <v>0.7551232551232551</v>
       </c>
       <c r="I9">
-        <v>0.9364077669902913</v>
+        <v>0.9368932038834952</v>
       </c>
       <c r="J9">
         <v>16</v>
       </c>
       <c r="K9">
-        <v>59462.5</v>
+        <v>61193.75</v>
       </c>
       <c r="L9">
-        <v>103873.4285881941</v>
+        <v>98369.34799519615</v>
       </c>
       <c r="M9">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="N9">
-        <v>14375</v>
+        <v>22750</v>
       </c>
       <c r="O9">
-        <v>29500</v>
+        <v>39450</v>
       </c>
       <c r="P9">
-        <v>40950</v>
+        <v>51250</v>
       </c>
       <c r="Q9">
-        <v>421200</v>
+        <v>421300</v>
       </c>
       <c r="R9">
         <v>16</v>
       </c>
       <c r="S9">
-        <v>40087.5</v>
+        <v>43931.25</v>
       </c>
       <c r="T9">
-        <v>96722.47498211915</v>
+        <v>96061.12442086029</v>
       </c>
       <c r="U9">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="V9">
-        <v>5825</v>
+        <v>5525</v>
       </c>
       <c r="W9">
-        <v>10450</v>
+        <v>16400</v>
       </c>
       <c r="X9">
-        <v>21650</v>
+        <v>35650</v>
       </c>
       <c r="Y9">
         <v>397000</v>
@@ -2646,25 +2646,25 @@
         <v>16</v>
       </c>
       <c r="AA9">
-        <v>23900</v>
+        <v>22162.5</v>
       </c>
       <c r="AB9">
-        <v>38839.08684130803</v>
+        <v>19711.27849734766</v>
       </c>
       <c r="AC9">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="AD9">
-        <v>8250</v>
+        <v>9400</v>
       </c>
       <c r="AE9">
-        <v>10450</v>
+        <v>18100</v>
       </c>
       <c r="AF9">
-        <v>21350</v>
+        <v>26025</v>
       </c>
       <c r="AG9">
-        <v>166100</v>
+        <v>77100</v>
       </c>
       <c r="AH9">
         <v>16</v>
@@ -2694,25 +2694,25 @@
         <v>16</v>
       </c>
       <c r="AQ9">
-        <v>93975</v>
+        <v>93725</v>
       </c>
       <c r="AR9">
-        <v>107724.4045392377</v>
+        <v>107631.2501088787</v>
       </c>
       <c r="AS9">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="AT9">
         <v>22775</v>
       </c>
       <c r="AU9">
-        <v>58750</v>
+        <v>58700</v>
       </c>
       <c r="AV9">
-        <v>114125</v>
+        <v>113375</v>
       </c>
       <c r="AW9">
-        <v>414100</v>
+        <v>414200</v>
       </c>
       <c r="AX9">
         <v>16</v>
@@ -2742,16 +2742,16 @@
         <v>16</v>
       </c>
       <c r="BG9">
-        <v>1.8125</v>
+        <v>1.875</v>
       </c>
       <c r="BH9">
-        <v>0.6551081335677849</v>
+        <v>0.6191391873668903</v>
       </c>
       <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="BK9">
         <v>2</v>
@@ -2766,16 +2766,16 @@
         <v>16</v>
       </c>
       <c r="BO9">
-        <v>0.8141279971849413</v>
+        <v>0.8142456967659119</v>
       </c>
       <c r="BP9">
-        <v>0.3302945555751751</v>
+        <v>0.3300991004298081</v>
       </c>
       <c r="BQ9">
         <v>0.128131021194605</v>
       </c>
       <c r="BR9">
-        <v>0.8213354491776804</v>
+        <v>0.8214969241285031</v>
       </c>
       <c r="BS9">
         <v>1</v>
@@ -2814,22 +2814,22 @@
         <v>16</v>
       </c>
       <c r="CE9">
-        <v>0.5648296485784012</v>
+        <v>0.5655403125347532</v>
       </c>
       <c r="CF9">
-        <v>0.2828734023357485</v>
+        <v>0.2826942920182068</v>
       </c>
       <c r="CG9">
-        <v>0.03473193473193473</v>
+        <v>0.0344988344988345</v>
       </c>
       <c r="CH9">
-        <v>0.3971027828899671</v>
+        <v>0.4009048575093414</v>
       </c>
       <c r="CI9">
-        <v>0.647280701754386</v>
+        <v>0.6474561403508772</v>
       </c>
       <c r="CJ9">
-        <v>0.7953454347071369</v>
+        <v>0.7952871596488618</v>
       </c>
       <c r="CK9">
         <v>0.9346733668341709</v>
@@ -2862,22 +2862,22 @@
         <v>16</v>
       </c>
       <c r="CU9">
-        <v>67150</v>
+        <v>67400</v>
       </c>
       <c r="CV9">
-        <v>94605.09500021656</v>
+        <v>94517.98417937897</v>
       </c>
       <c r="CW9">
         <v>9000</v>
       </c>
       <c r="CX9">
-        <v>19400</v>
+        <v>19375</v>
       </c>
       <c r="CY9">
-        <v>27950</v>
+        <v>28450</v>
       </c>
       <c r="CZ9">
-        <v>78450</v>
+        <v>78900</v>
       </c>
       <c r="DA9">
         <v>372000</v>
@@ -2891,97 +2891,97 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>0.7512056666036669</v>
+        <v>0.6895163675063897</v>
       </c>
       <c r="D10">
-        <v>0.3974573916966218</v>
+        <v>0.267212363277929</v>
       </c>
       <c r="E10">
         <v>0.09540636042402827</v>
       </c>
       <c r="F10">
-        <v>0.4769230769230769</v>
+        <v>0.4774358974358974</v>
       </c>
       <c r="G10">
-        <v>0.8301886792452831</v>
+        <v>0.8097560975609757</v>
       </c>
       <c r="H10">
         <v>0.9096774193548387</v>
       </c>
       <c r="I10">
-        <v>1.920610687022901</v>
+        <v>0.9938837920489296</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>87906.25</v>
+        <v>88366.66666666667</v>
       </c>
       <c r="L10">
-        <v>96044.54153325598</v>
+        <v>86022.46107572028</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12525</v>
+        <v>20000</v>
       </c>
       <c r="O10">
-        <v>51000</v>
+        <v>40500</v>
       </c>
       <c r="P10">
-        <v>128975</v>
+        <v>135950</v>
       </c>
       <c r="Q10">
-        <v>297000</v>
+        <v>253000</v>
       </c>
       <c r="R10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S10">
-        <v>74893.75</v>
+        <v>87253.33333333333</v>
       </c>
       <c r="T10">
-        <v>82815.3324672833</v>
+        <v>88204.36389161144</v>
       </c>
       <c r="U10">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="V10">
-        <v>5550</v>
+        <v>16500</v>
       </c>
       <c r="W10">
-        <v>46900</v>
+        <v>42500</v>
       </c>
       <c r="X10">
-        <v>122900</v>
+        <v>129900</v>
       </c>
       <c r="Y10">
-        <v>246900</v>
+        <v>250900</v>
       </c>
       <c r="Z10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA10">
-        <v>15062.5</v>
+        <v>4726.666666666667</v>
       </c>
       <c r="AB10">
-        <v>34568.788909458</v>
+        <v>4257.844301432134</v>
       </c>
       <c r="AC10">
         <v>900</v>
       </c>
       <c r="AD10">
-        <v>3550</v>
+        <v>2100</v>
       </c>
       <c r="AE10">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="AF10">
-        <v>8375</v>
+        <v>6050</v>
       </c>
       <c r="AG10">
-        <v>143100</v>
+        <v>17900</v>
       </c>
       <c r="AH10">
         <v>17</v>
@@ -3011,19 +3011,19 @@
         <v>17</v>
       </c>
       <c r="AQ10">
-        <v>68011.76470588235</v>
+        <v>76535.29411764706</v>
       </c>
       <c r="AR10">
-        <v>90964.23666991977</v>
+        <v>78780.72369857102</v>
       </c>
       <c r="AS10">
-        <v>-120600</v>
+        <v>900</v>
       </c>
       <c r="AT10">
         <v>14000</v>
       </c>
       <c r="AU10">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="AV10">
         <v>112000</v>
@@ -3035,10 +3035,10 @@
         <v>17</v>
       </c>
       <c r="AY10">
-        <v>63988.23529411765</v>
+        <v>39541.17647058824</v>
       </c>
       <c r="AZ10">
-        <v>167391.3299813977</v>
+        <v>80466.73271314929</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -3050,19 +3050,19 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>16200</v>
+        <v>17900</v>
       </c>
       <c r="BE10">
-        <v>664300</v>
+        <v>246300</v>
       </c>
       <c r="BF10">
         <v>17</v>
       </c>
       <c r="BG10">
-        <v>1.352941176470588</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="BH10">
-        <v>0.4925921830718891</v>
+        <v>0.4696682183138622</v>
       </c>
       <c r="BI10">
         <v>1</v>
@@ -3083,16 +3083,16 @@
         <v>17</v>
       </c>
       <c r="BO10">
-        <v>0.8700512562669326</v>
+        <v>0.8675412881740185</v>
       </c>
       <c r="BP10">
-        <v>0.2338099073813643</v>
+        <v>0.2194712104453524</v>
       </c>
       <c r="BQ10">
-        <v>0.2747024784365105</v>
+        <v>0.3237232289950577</v>
       </c>
       <c r="BR10">
-        <v>0.79204107830552</v>
+        <v>0.7923076923076923</v>
       </c>
       <c r="BS10">
         <v>1</v>
@@ -3131,37 +3131,37 @@
         <v>17</v>
       </c>
       <c r="CE10">
-        <v>0.6085484585504463</v>
+        <v>0.6330052418693494</v>
       </c>
       <c r="CF10">
-        <v>0.2803325036475328</v>
+        <v>0.2376498586741685</v>
       </c>
       <c r="CG10">
-        <v>0.03599290780141844</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="CH10">
-        <v>0.4769230769230769</v>
+        <v>0.4954682779456193</v>
       </c>
       <c r="CI10">
         <v>0.6124567474048442</v>
       </c>
       <c r="CJ10">
-        <v>0.8605769230769231</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="CK10">
-        <v>0.9857022708158116</v>
+        <v>0.9848612279226241</v>
       </c>
       <c r="CL10">
         <v>17</v>
       </c>
       <c r="CM10">
-        <v>21417.64705882353</v>
+        <v>46800</v>
       </c>
       <c r="CN10">
-        <v>120637.075744224</v>
+        <v>108982.9745877768</v>
       </c>
       <c r="CO10">
-        <v>-231300</v>
+        <v>0</v>
       </c>
       <c r="CP10">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="CR10">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="CS10">
         <v>417900</v>
@@ -3179,22 +3179,22 @@
         <v>17</v>
       </c>
       <c r="CU10">
-        <v>145870.5882352941</v>
+        <v>137347.0588235294</v>
       </c>
       <c r="CV10">
-        <v>69614.65151735196</v>
+        <v>63824.98646344411</v>
       </c>
       <c r="CW10">
         <v>27000</v>
       </c>
       <c r="CX10">
-        <v>109900</v>
+        <v>110000</v>
       </c>
       <c r="CY10">
-        <v>139000</v>
+        <v>128000</v>
       </c>
       <c r="CZ10">
-        <v>176000</v>
+        <v>168000</v>
       </c>
       <c r="DA10">
         <v>325000</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>67000</v>
+        <v>29000</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>27000</v>
+        <v>67000</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>59000</v>
+        <v>27000</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>34000</v>
+        <v>59000</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3543,78 +3543,66 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B9">
-        <v>0.36875</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>20200</v>
-      </c>
-      <c r="E9">
-        <v>14900</v>
-      </c>
-      <c r="F9">
-        <v>5300</v>
-      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>20200</v>
+        <v>32000</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.36875</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10">
-        <v>0.4034482758620689</v>
+        <v>0.371875</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10">
-        <v>17300</v>
+        <v>20100</v>
       </c>
       <c r="E10">
-        <v>8000</v>
+        <v>14900</v>
       </c>
       <c r="F10">
-        <v>9300</v>
+        <v>5200</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>17300</v>
+        <v>20100</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3632,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0.4034482758620689</v>
+        <v>0.371875</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11700</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3646,28 +3634,28 @@
         <v>124</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.88125</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11">
-        <v>766100</v>
+        <v>765500</v>
       </c>
       <c r="E11">
-        <v>770100</v>
+        <v>769300</v>
       </c>
       <c r="F11">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I11">
-        <v>770100</v>
+        <v>769300</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3676,19 +3664,19 @@
         <v>39</v>
       </c>
       <c r="L11">
-        <v>0.03508332289186818</v>
+        <v>0.03536050156739812</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.0349083655404563</v>
+        <v>0.03519281168101834</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>28000</v>
+        <v>28200</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3696,25 +3684,25 @@
         <v>125</v>
       </c>
       <c r="B12">
-        <v>0.2823529411764706</v>
+        <v>0.2970588235294118</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>24400</v>
+        <v>23900</v>
       </c>
       <c r="E12">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="F12">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>24400</v>
+        <v>23900</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3732,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0.2823529411764706</v>
+        <v>0.2970588235294118</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>9600</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3746,25 +3734,25 @@
         <v>127</v>
       </c>
       <c r="B13">
-        <v>0.9315789473684211</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E13">
         <v>1000</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3782,13 +3770,13 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.9315789473684211</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>17700</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3796,25 +3784,25 @@
         <v>128</v>
       </c>
       <c r="B14">
-        <v>0.6074074074074074</v>
+        <v>0.6092592592592593</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="E14">
         <v>18000</v>
       </c>
       <c r="F14">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3832,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.6074074074074074</v>
+        <v>0.6092592592592593</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>32800</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3846,25 +3834,25 @@
         <v>131</v>
       </c>
       <c r="B15">
-        <v>0.74375</v>
+        <v>0.746875</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>136900</v>
+        <v>137000</v>
       </c>
       <c r="E15">
         <v>145100</v>
       </c>
       <c r="F15">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I15">
         <v>145100</v>
@@ -3876,19 +3864,19 @@
         <v>43</v>
       </c>
       <c r="L15">
-        <v>0.1409117821195974</v>
+        <v>0.1414201183431953</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.1343873517786561</v>
+        <v>0.1349520045172219</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>23800</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3896,16 +3884,16 @@
         <v>132</v>
       </c>
       <c r="B16">
-        <v>0.093125</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16">
-        <v>145100</v>
+        <v>146000</v>
       </c>
       <c r="E16">
-        <v>124000</v>
+        <v>124900</v>
       </c>
       <c r="F16">
         <v>21100</v>
@@ -3914,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>145100</v>
+        <v>146000</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3932,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0.093125</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>14900</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4046,25 +4034,25 @@
         <v>136</v>
       </c>
       <c r="B19">
-        <v>0.309375</v>
+        <v>0.30625</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="E19">
         <v>18000</v>
       </c>
       <c r="F19">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4082,13 +4070,13 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0.309375</v>
+        <v>0.30625</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>9900</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4134,25 +4122,25 @@
         <v>122</v>
       </c>
       <c r="B21">
-        <v>0.4833333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21">
-        <v>39700</v>
+        <v>39800</v>
       </c>
       <c r="E21">
         <v>40000</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="I21">
         <v>40000</v>
@@ -4164,19 +4152,19 @@
         <v>49</v>
       </c>
       <c r="L21">
-        <v>0.1786447638603696</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="M21">
         <v>2</v>
       </c>
       <c r="N21">
-        <v>0.2957142857142857</v>
+        <v>0.2971428571428572</v>
       </c>
       <c r="O21">
         <v>12000</v>
       </c>
       <c r="P21">
-        <v>8700</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4240,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -4319,7 +4307,7 @@
         <v>50000</v>
       </c>
       <c r="I25">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -4334,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0.4536290322580645</v>
+        <v>0.4513540621865597</v>
       </c>
       <c r="O25">
         <v>45000</v>
@@ -4348,28 +4336,19 @@
         <v>82</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.001408450704225352</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="D26">
-        <v>71000</v>
-      </c>
-      <c r="E26">
-        <v>14800</v>
-      </c>
-      <c r="F26">
-        <v>56200</v>
-      </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>71000</v>
+        <v>70900</v>
       </c>
       <c r="I26">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4378,19 +4357,19 @@
         <v>49</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0.342082239720035</v>
+        <v>0.343558282208589</v>
       </c>
       <c r="O26">
         <v>39100</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -4454,13 +4433,13 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>40800</v>
+        <v>41000</v>
       </c>
       <c r="E28">
         <v>1900</v>
       </c>
       <c r="F28">
-        <v>42700</v>
+        <v>42900</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4469,7 +4448,7 @@
         <v>1900</v>
       </c>
       <c r="I28">
-        <v>42700</v>
+        <v>42900</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -4478,13 +4457,13 @@
         <v>45</v>
       </c>
       <c r="L28">
-        <v>0.5588842975206612</v>
+        <v>0.5577319587628866</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.5481256332320162</v>
+        <v>0.5470171890798786</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4504,13 +4483,13 @@
         <v>23</v>
       </c>
       <c r="D29">
-        <v>168300</v>
+        <v>168200</v>
       </c>
       <c r="E29">
         <v>181000</v>
       </c>
       <c r="F29">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4519,7 +4498,7 @@
         <v>181000</v>
       </c>
       <c r="I29">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4560,13 +4539,13 @@
         <v>84000</v>
       </c>
       <c r="I30">
-        <v>36800</v>
+        <v>37900</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4575,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0.5083435083435084</v>
+        <v>0.5040683482506102</v>
       </c>
       <c r="O30">
-        <v>124900</v>
+        <v>123900</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -4598,10 +4577,10 @@
         <v>134000</v>
       </c>
       <c r="E31">
-        <v>71900</v>
+        <v>11900</v>
       </c>
       <c r="F31">
-        <v>62100</v>
+        <v>122100</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4657,7 +4636,7 @@
         <v>183000</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -4665,11 +4644,14 @@
       <c r="K32" t="s">
         <v>40</v>
       </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>0.1519925857275255</v>
+        <v>0.1519221861973136</v>
       </c>
       <c r="O32">
         <v>32800</v>
@@ -4683,40 +4665,49 @@
         <v>89</v>
       </c>
       <c r="B33">
-        <v>0.1184873949579832</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
+      <c r="D33">
+        <v>118100</v>
+      </c>
+      <c r="E33">
+        <v>100900</v>
+      </c>
+      <c r="F33">
+        <v>17200</v>
+      </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>104900</v>
+        <v>105000</v>
       </c>
       <c r="I33">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L33">
-        <v>0.4040114613180516</v>
+        <v>0.4046242774566474</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0.5892156862745098</v>
+        <v>0.5892740353172008</v>
       </c>
       <c r="O33">
         <v>166200</v>
       </c>
       <c r="P33">
-        <v>14100</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -4742,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4751,10 +4742,10 @@
         <v>2</v>
       </c>
       <c r="N34">
-        <v>0.7559085625726463</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="O34">
-        <v>195100</v>
+        <v>195000</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4783,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -4812,13 +4803,13 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="E36">
-        <v>62000</v>
+        <v>3000</v>
       </c>
       <c r="F36">
-        <v>4000</v>
+        <v>65000</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -4856,7 +4847,7 @@
         <v>94</v>
       </c>
       <c r="B37">
-        <v>0.1753424657534247</v>
+        <v>0.1767123287671233</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -4865,16 +4856,16 @@
         <v>57000</v>
       </c>
       <c r="E37">
-        <v>56900</v>
+        <v>55400</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <v>60200</v>
+        <v>60100</v>
       </c>
       <c r="I37">
         <v>100</v>
@@ -4883,22 +4874,22 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L37">
-        <v>0.9922480620155039</v>
+        <v>0.9923076923076923</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37">
-        <v>0.6859375</v>
+        <v>0.6864583333333333</v>
       </c>
       <c r="O37">
         <v>118900</v>
       </c>
       <c r="P37">
-        <v>12800</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -4933,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5008,15 +4999,6 @@
       <c r="C40" t="s">
         <v>23</v>
       </c>
-      <c r="D40">
-        <v>90000</v>
-      </c>
-      <c r="E40">
-        <v>23000</v>
-      </c>
-      <c r="F40">
-        <v>67000</v>
-      </c>
       <c r="G40">
         <v>3</v>
       </c>
@@ -5068,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -5220,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -5296,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5372,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5498,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5536,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5612,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -5688,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5708,16 +5690,25 @@
         <v>13</v>
       </c>
       <c r="B58">
-        <v>0.7890756302521008</v>
+        <v>0.788235294117647</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
+      <c r="D58">
+        <v>12900</v>
+      </c>
+      <c r="E58">
+        <v>15100</v>
+      </c>
+      <c r="F58">
+        <v>2200</v>
+      </c>
       <c r="G58">
         <v>2</v>
       </c>
       <c r="H58">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="I58">
         <v>15100</v>
@@ -5729,19 +5720,19 @@
         <v>45</v>
       </c>
       <c r="L58">
-        <v>0.8614678899082568</v>
+        <v>0.8613406795224977</v>
       </c>
       <c r="M58">
         <v>2</v>
       </c>
       <c r="N58">
-        <v>0.7850267379679144</v>
+        <v>0.7844919786096257</v>
       </c>
       <c r="O58">
         <v>52900</v>
       </c>
       <c r="P58">
-        <v>93900</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -5758,10 +5749,10 @@
         <v>19100</v>
       </c>
       <c r="E59">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F59">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5855,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -5934,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -5969,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>83900</v>
+        <v>86000</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -5995,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -6004,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>54000</v>
+        <v>53900</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -6077,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>81900</v>
+        <v>82000</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -6112,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>70200</v>
+        <v>70000</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -6138,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -6147,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>123900</v>
+        <v>124000</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -6182,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>77900</v>
+        <v>78000</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -6252,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>109900</v>
+        <v>110000</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -6290,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -6313,25 +6304,25 @@
         <v>67</v>
       </c>
       <c r="B74">
-        <v>0.975</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="C74" t="s">
         <v>25</v>
       </c>
       <c r="D74">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E74">
         <v>1900</v>
       </c>
       <c r="F74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6349,13 +6340,13 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>0.975</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>81900</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6363,25 +6354,25 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>0.8333333333333334</v>
+        <v>0.8319444444444445</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
       </c>
       <c r="D75">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="E75">
         <v>8900</v>
       </c>
       <c r="F75">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6390,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -6399,13 +6390,13 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>0.8333333333333334</v>
+        <v>0.8319444444444445</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
-        <v>60000</v>
+        <v>59900</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6419,13 +6410,13 @@
         <v>25</v>
       </c>
       <c r="D76">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E76">
         <v>3000</v>
       </c>
       <c r="F76">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6434,7 +6425,7 @@
         <v>36000</v>
       </c>
       <c r="I76">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -6443,13 +6434,13 @@
         <v>49</v>
       </c>
       <c r="L76">
-        <v>0.9123434704830053</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="M76">
         <v>2</v>
       </c>
       <c r="N76">
-        <v>0.8060692271218587</v>
+        <v>0.8056872037914692</v>
       </c>
       <c r="O76">
         <v>119000</v>
@@ -6460,202 +6451,202 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B77">
-        <v>0.0007462686567164179</v>
+        <v>0.9</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
       </c>
       <c r="D77">
-        <v>23000</v>
+        <v>65000</v>
       </c>
       <c r="E77">
-        <v>132900</v>
+        <v>65100</v>
       </c>
       <c r="F77">
-        <v>109900</v>
+        <v>100</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>133900</v>
+        <v>100</v>
       </c>
       <c r="I77">
-        <v>109900</v>
+        <v>65100</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L77">
-        <v>0.0009090909090909091</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="M77">
         <v>2</v>
       </c>
       <c r="N77">
-        <v>0.000819672131147541</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="O77">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="P77">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B78">
-        <v>0.9</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
       </c>
       <c r="D78">
-        <v>65000</v>
+        <v>27000</v>
       </c>
       <c r="E78">
-        <v>65100</v>
+        <v>22900</v>
       </c>
       <c r="F78">
-        <v>100</v>
+        <v>4100</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="I78">
-        <v>65100</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L78">
-        <v>0.01363636363636364</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>2</v>
       </c>
       <c r="N78">
-        <v>0.04117647058823529</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O78">
-        <v>1900</v>
+        <v>58000</v>
       </c>
       <c r="P78">
-        <v>900</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>0.5295454545454545</v>
+        <v>0.9153846153846154</v>
       </c>
       <c r="C79" t="s">
         <v>25</v>
       </c>
       <c r="D79">
-        <v>29100</v>
+        <v>1100</v>
       </c>
       <c r="E79">
-        <v>24800</v>
+        <v>1000</v>
       </c>
       <c r="F79">
-        <v>4300</v>
+        <v>100</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79">
-        <v>62100</v>
+        <v>1100</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0.1922455573505654</v>
       </c>
       <c r="M79">
         <v>2</v>
       </c>
       <c r="N79">
-        <v>0.6731578947368421</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="O79">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>69900</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B80">
-        <v>0.9230769230769231</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
         <v>25</v>
       </c>
       <c r="D80">
+        <v>134000</v>
+      </c>
+      <c r="E80">
+        <v>133000</v>
+      </c>
+      <c r="F80">
         <v>1000</v>
       </c>
-      <c r="E80">
-        <v>1000</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>1000</v>
+        <v>134000</v>
       </c>
       <c r="I80">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="J80">
         <v>2</v>
       </c>
       <c r="K80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L80">
-        <v>0.1935483870967742</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>2</v>
       </c>
       <c r="N80">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -6663,25 +6654,25 @@
         <v>77</v>
       </c>
       <c r="B81">
-        <v>0.9211538461538461</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
       </c>
       <c r="D81">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E81">
         <v>3900</v>
       </c>
       <c r="F81">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
       <c r="H81">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I81">
         <v>56000</v>
@@ -6690,22 +6681,22 @@
         <v>2</v>
       </c>
       <c r="K81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L81">
-        <v>0.4610202117420596</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="M81">
         <v>2</v>
       </c>
       <c r="N81">
-        <v>0.4435185185185185</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>47900</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -6763,25 +6754,25 @@
         <v>112</v>
       </c>
       <c r="B83">
-        <v>0.1606060606060606</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
       </c>
       <c r="D83">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="E83">
         <v>51900</v>
       </c>
       <c r="F83">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -6799,13 +6790,13 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <v>0.1606060606060606</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
       <c r="P83">
-        <v>10600</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6869,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -6889,25 +6880,25 @@
         <v>102</v>
       </c>
       <c r="B86">
-        <v>0.04653465346534653</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86">
-        <v>84300</v>
+        <v>84000</v>
       </c>
       <c r="E86">
         <v>56900</v>
       </c>
       <c r="F86">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
       <c r="H86">
-        <v>96300</v>
+        <v>96000</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6925,13 +6916,13 @@
         <v>2</v>
       </c>
       <c r="N86">
-        <v>0.1245454545454545</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="O86">
         <v>9000</v>
       </c>
       <c r="P86">
-        <v>4700</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6939,25 +6930,25 @@
         <v>108</v>
       </c>
       <c r="B87">
-        <v>0.08217054263565891</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87">
-        <v>61400</v>
+        <v>61500</v>
       </c>
       <c r="E87">
         <v>49000</v>
       </c>
       <c r="F87">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
       <c r="H87">
-        <v>118400</v>
+        <v>118500</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6975,13 +6966,13 @@
         <v>2</v>
       </c>
       <c r="N87">
-        <v>0.5756272401433692</v>
+        <v>0.5752688172043011</v>
       </c>
       <c r="O87">
         <v>150000</v>
       </c>
       <c r="P87">
-        <v>10600</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7016,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -7039,25 +7030,25 @@
         <v>110</v>
       </c>
       <c r="B89">
-        <v>0.5138211382113821</v>
+        <v>0.5154471544715448</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="E89">
         <v>63100</v>
       </c>
       <c r="F89">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
       <c r="H89">
-        <v>59800</v>
+        <v>59600</v>
       </c>
       <c r="I89">
         <v>63100</v>
@@ -7066,22 +7057,22 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L89">
-        <v>0.5003958828186856</v>
+        <v>0.5011857707509881</v>
       </c>
       <c r="M89">
         <v>2</v>
       </c>
       <c r="N89">
-        <v>0.5943894389438944</v>
+        <v>0.595049504950495</v>
       </c>
       <c r="O89">
         <v>116900</v>
       </c>
       <c r="P89">
-        <v>63200</v>
+        <v>63400</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7089,25 +7080,25 @@
         <v>111</v>
       </c>
       <c r="B90">
-        <v>0.3081395348837209</v>
+        <v>0.3116279069767442</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="E90">
         <v>24900</v>
       </c>
       <c r="F90">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="H90">
-        <v>59500</v>
+        <v>59200</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -7125,13 +7116,13 @@
         <v>2</v>
       </c>
       <c r="N90">
-        <v>0.6979695431472082</v>
+        <v>0.6994923857868021</v>
       </c>
       <c r="O90">
         <v>111000</v>
       </c>
       <c r="P90">
-        <v>26500</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -7139,25 +7130,25 @@
         <v>114</v>
       </c>
       <c r="B91">
-        <v>0.05428571428571428</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91">
-        <v>31300</v>
+        <v>31400</v>
       </c>
       <c r="E91">
         <v>20900</v>
       </c>
       <c r="F91">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="G91">
         <v>2</v>
       </c>
       <c r="H91">
-        <v>99300</v>
+        <v>99400</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7166,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -7175,13 +7166,13 @@
         <v>2</v>
       </c>
       <c r="N91">
-        <v>0.6389090909090909</v>
+        <v>0.6385454545454545</v>
       </c>
       <c r="O91">
         <v>170000</v>
       </c>
       <c r="P91">
-        <v>5700</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7189,25 +7180,25 @@
         <v>116</v>
       </c>
       <c r="B92">
-        <v>0.6231788079470199</v>
+        <v>0.623841059602649</v>
       </c>
       <c r="C92" t="s">
         <v>26</v>
       </c>
       <c r="D92">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="E92">
         <v>36100</v>
       </c>
       <c r="F92">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G92">
         <v>2</v>
       </c>
       <c r="H92">
-        <v>56900</v>
+        <v>56800</v>
       </c>
       <c r="I92">
         <v>36100</v>
@@ -7219,19 +7210,19 @@
         <v>47</v>
       </c>
       <c r="L92">
-        <v>0.7227342549923195</v>
+        <v>0.7229470452801228</v>
       </c>
       <c r="M92">
         <v>2</v>
       </c>
       <c r="N92">
-        <v>0.7335243553008596</v>
+        <v>0.733810888252149</v>
       </c>
       <c r="O92">
         <v>161900</v>
       </c>
       <c r="P92">
-        <v>94100</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7239,25 +7230,25 @@
         <v>118</v>
       </c>
       <c r="B93">
-        <v>0.2906976744186047</v>
+        <v>0.2813953488372093</v>
       </c>
       <c r="C93" t="s">
         <v>26</v>
       </c>
       <c r="D93">
-        <v>4600</v>
+        <v>3400</v>
       </c>
       <c r="E93">
         <v>18100</v>
       </c>
       <c r="F93">
-        <v>13500</v>
+        <v>14700</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
       <c r="H93">
-        <v>91500</v>
+        <v>92700</v>
       </c>
       <c r="I93">
         <v>18100</v>
@@ -7269,19 +7260,19 @@
         <v>48</v>
       </c>
       <c r="L93">
-        <v>0.6744604316546763</v>
+        <v>0.6672794117647058</v>
       </c>
       <c r="M93">
         <v>2</v>
       </c>
       <c r="N93">
-        <v>0.6531645569620254</v>
+        <v>0.649367088607595</v>
       </c>
       <c r="O93">
         <v>168900</v>
       </c>
       <c r="P93">
-        <v>37500</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -7289,7 +7280,7 @@
         <v>113</v>
       </c>
       <c r="B94">
-        <v>0.2370967741935484</v>
+        <v>0.2403225806451613</v>
       </c>
       <c r="C94" t="s">
         <v>26</v>
@@ -7307,10 +7298,10 @@
         <v>2</v>
       </c>
       <c r="H94">
-        <v>47300</v>
+        <v>47100</v>
       </c>
       <c r="I94">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -7319,19 +7310,19 @@
         <v>45</v>
       </c>
       <c r="L94">
-        <v>0.588</v>
+        <v>0.5936254980079682</v>
       </c>
       <c r="M94">
         <v>2</v>
       </c>
       <c r="N94">
-        <v>0.2984165651644336</v>
+        <v>0.3020706455542022</v>
       </c>
       <c r="O94">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="P94">
-        <v>14700</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -7377,49 +7368,49 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.5669811320754717</v>
+        <v>0.569811320754717</v>
       </c>
       <c r="C96" t="s">
         <v>26</v>
       </c>
       <c r="D96">
-        <v>167200</v>
+        <v>166500</v>
       </c>
       <c r="E96">
-        <v>172100</v>
+        <v>171100</v>
       </c>
       <c r="F96">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
       <c r="H96">
-        <v>45900</v>
+        <v>45600</v>
       </c>
       <c r="I96">
-        <v>172100</v>
+        <v>171100</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L96">
-        <v>0.2588285960378984</v>
+        <v>0.2609071274298056</v>
       </c>
       <c r="M96">
         <v>3</v>
       </c>
       <c r="N96">
-        <v>0.2852459016393443</v>
+        <v>0.2895081967213115</v>
       </c>
       <c r="O96">
-        <v>26900</v>
+        <v>27900</v>
       </c>
       <c r="P96">
-        <v>60100</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7427,25 +7418,25 @@
         <v>104</v>
       </c>
       <c r="B97">
-        <v>0.03241758241758242</v>
+        <v>0.03351648351648352</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="D97">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="E97">
         <v>20900</v>
       </c>
       <c r="F97">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="G97">
         <v>3</v>
       </c>
       <c r="H97">
-        <v>176100</v>
+        <v>175900</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7463,13 +7454,13 @@
         <v>3</v>
       </c>
       <c r="N97">
-        <v>0.5827014218009479</v>
+        <v>0.583175355450237</v>
       </c>
       <c r="O97">
         <v>240000</v>
       </c>
       <c r="P97">
-        <v>5900</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7477,25 +7468,25 @@
         <v>117</v>
       </c>
       <c r="B98">
-        <v>0.06438356164383562</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
       </c>
       <c r="D98">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="E98">
         <v>8000</v>
       </c>
       <c r="F98">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
       <c r="H98">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7504,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -7513,13 +7504,13 @@
         <v>3</v>
       </c>
       <c r="N98">
-        <v>0.7130252100840336</v>
+        <v>0.7134453781512605</v>
       </c>
       <c r="O98">
         <v>165000</v>
       </c>
       <c r="P98">
-        <v>4700</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7527,7 +7518,7 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>0.1023952095808383</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="C99" t="s">
         <v>26</v>
@@ -7545,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>149900</v>
+        <v>150000</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -7554,7 +7545,7 @@
         <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -7563,13 +7554,13 @@
         <v>3</v>
       </c>
       <c r="N99">
-        <v>0.5789325842696629</v>
+        <v>0.5786516853932584</v>
       </c>
       <c r="O99">
         <v>189000</v>
       </c>
       <c r="P99">
-        <v>17100</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -7577,25 +7568,25 @@
         <v>107</v>
       </c>
       <c r="B100">
-        <v>0.07532467532467532</v>
+        <v>0.07662337662337662</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
       </c>
       <c r="D100">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>3000</v>
       </c>
       <c r="F100">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G100">
         <v>4</v>
       </c>
       <c r="H100">
-        <v>71200</v>
+        <v>71100</v>
       </c>
       <c r="I100">
         <v>3000</v>
@@ -7607,19 +7598,19 @@
         <v>41</v>
       </c>
       <c r="L100">
-        <v>0.6590909090909091</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="M100">
         <v>4</v>
       </c>
       <c r="N100">
-        <v>0.7651898734177215</v>
+        <v>0.765506329113924</v>
       </c>
       <c r="O100">
         <v>236000</v>
       </c>
       <c r="P100">
-        <v>5800</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -7633,10 +7624,10 @@
         <v>26</v>
       </c>
       <c r="D101">
-        <v>8100</v>
+        <v>9800</v>
       </c>
       <c r="E101">
-        <v>8600</v>
+        <v>10300</v>
       </c>
       <c r="F101">
         <v>500</v>
@@ -7648,22 +7639,22 @@
         <v>500</v>
       </c>
       <c r="I101">
-        <v>168600</v>
+        <v>170300</v>
       </c>
       <c r="J101">
         <v>4</v>
       </c>
       <c r="K101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L101">
-        <v>0.3176851477134763</v>
+        <v>0.3155144694533762</v>
       </c>
       <c r="M101">
         <v>4</v>
       </c>
       <c r="N101">
-        <v>0.3170436187399031</v>
+        <v>0.3148816686722824</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -7733,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -7762,10 +7753,10 @@
         <v>26000</v>
       </c>
       <c r="E104">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F104">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -7803,25 +7794,25 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>0.5776119402985075</v>
+        <v>0.5791044776119403</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
       </c>
       <c r="D105">
-        <v>38200</v>
+        <v>54100</v>
       </c>
       <c r="E105">
-        <v>29900</v>
+        <v>3000</v>
       </c>
       <c r="F105">
-        <v>8300</v>
+        <v>57100</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>28300</v>
+        <v>28200</v>
       </c>
       <c r="I105">
         <v>3000</v>
@@ -7833,19 +7824,19 @@
         <v>39</v>
       </c>
       <c r="L105">
-        <v>0.9280575539568345</v>
+        <v>0.9282296650717703</v>
       </c>
       <c r="M105">
         <v>1</v>
       </c>
       <c r="N105">
-        <v>0.5528571428571428</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>38700</v>
+        <v>38800</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7853,25 +7844,25 @@
         <v>25</v>
       </c>
       <c r="B106">
-        <v>0.03473193473193473</v>
+        <v>0.0344988344988345</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106">
-        <v>421200</v>
+        <v>421300</v>
       </c>
       <c r="E106">
         <v>397000</v>
       </c>
       <c r="F106">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>414100</v>
+        <v>414200</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -7889,13 +7880,13 @@
         <v>1</v>
       </c>
       <c r="N106">
-        <v>0.03473193473193473</v>
+        <v>0.0344988344988345</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>14900</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7930,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -7980,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -8003,34 +7994,34 @@
         <v>30</v>
       </c>
       <c r="B109">
-        <v>0.04424778761061947</v>
+        <v>0.05265486725663717</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
       </c>
       <c r="D109">
-        <v>172000</v>
+        <v>42100</v>
       </c>
       <c r="E109">
-        <v>5900</v>
+        <v>34900</v>
       </c>
       <c r="F109">
-        <v>166100</v>
+        <v>7200</v>
       </c>
       <c r="G109">
         <v>2</v>
       </c>
       <c r="H109">
-        <v>216000</v>
+        <v>214100</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -8039,13 +8030,13 @@
         <v>2</v>
       </c>
       <c r="N109">
-        <v>0.4418604651162791</v>
+        <v>0.4467700258397933</v>
       </c>
       <c r="O109">
         <v>161000</v>
       </c>
       <c r="P109">
-        <v>10000</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8053,25 +8044,25 @@
         <v>31</v>
       </c>
       <c r="B110">
-        <v>0.9057851239669421</v>
+        <v>0.9074380165289256</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
       </c>
       <c r="D110">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="E110">
         <v>5000</v>
       </c>
       <c r="F110">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="G110">
         <v>2</v>
       </c>
       <c r="H110">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="I110">
         <v>296000</v>
@@ -8083,19 +8074,19 @@
         <v>43</v>
       </c>
       <c r="L110">
-        <v>0.2702169625246548</v>
+        <v>0.2705766387382947</v>
       </c>
       <c r="M110">
         <v>2</v>
       </c>
       <c r="N110">
-        <v>0.2628297362110312</v>
+        <v>0.2633093525179856</v>
       </c>
       <c r="O110">
         <v>0</v>
       </c>
       <c r="P110">
-        <v>109600</v>
+        <v>109800</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8109,13 +8100,13 @@
         <v>27</v>
       </c>
       <c r="D111">
-        <v>16200</v>
+        <v>38100</v>
       </c>
       <c r="E111">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F111">
-        <v>9200</v>
+        <v>18100</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -8153,25 +8144,25 @@
         <v>34</v>
       </c>
       <c r="B112">
-        <v>0.9364077669902913</v>
+        <v>0.9368932038834952</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
       </c>
       <c r="D112">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="E112">
         <v>7900</v>
       </c>
       <c r="F112">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G112">
         <v>2</v>
       </c>
       <c r="H112">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I112">
         <v>192000</v>
@@ -8180,22 +8171,22 @@
         <v>2</v>
       </c>
       <c r="K112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L112">
-        <v>0.5011691348402182</v>
+        <v>0.5012987012987012</v>
       </c>
       <c r="M112">
         <v>2</v>
       </c>
       <c r="N112">
-        <v>0.4846733668341708</v>
+        <v>0.4849246231155779</v>
       </c>
       <c r="O112">
         <v>0</v>
       </c>
       <c r="P112">
-        <v>192900</v>
+        <v>193000</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8203,25 +8194,25 @@
         <v>35</v>
       </c>
       <c r="B113">
-        <v>0.3416666666666667</v>
+        <v>0.3427083333333333</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113">
-        <v>25100</v>
+        <v>38100</v>
       </c>
       <c r="E113">
-        <v>17000</v>
+        <v>6900</v>
       </c>
       <c r="F113">
-        <v>8100</v>
+        <v>31200</v>
       </c>
       <c r="G113">
         <v>2</v>
       </c>
       <c r="H113">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -8239,13 +8230,13 @@
         <v>2</v>
       </c>
       <c r="N113">
-        <v>0.8505910165484634</v>
+        <v>0.8508274231678487</v>
       </c>
       <c r="O113">
         <v>327000</v>
       </c>
       <c r="P113">
-        <v>32800</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8303,25 +8294,25 @@
         <v>37</v>
       </c>
       <c r="B115">
-        <v>0.1984848484848485</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115">
-        <v>14800</v>
+        <v>91000</v>
       </c>
       <c r="E115">
-        <v>7900</v>
+        <v>13900</v>
       </c>
       <c r="F115">
-        <v>6900</v>
+        <v>77100</v>
       </c>
       <c r="G115">
         <v>2</v>
       </c>
       <c r="H115">
-        <v>105800</v>
+        <v>104800</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -8330,7 +8321,7 @@
         <v>2</v>
       </c>
       <c r="K115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -8339,13 +8330,13 @@
         <v>2</v>
       </c>
       <c r="N115">
-        <v>0.7140540540540541</v>
+        <v>0.7167567567567568</v>
       </c>
       <c r="O115">
         <v>238000</v>
       </c>
       <c r="P115">
-        <v>26200</v>
+        <v>27200</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8409,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -8429,25 +8420,25 @@
         <v>33</v>
       </c>
       <c r="B118">
-        <v>0.1066666666666667</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="E118">
         <v>32000</v>
       </c>
       <c r="F118">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G118">
         <v>3</v>
       </c>
       <c r="H118">
-        <v>80400</v>
+        <v>80500</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -8465,13 +8456,13 @@
         <v>3</v>
       </c>
       <c r="N118">
-        <v>0.8125874125874126</v>
+        <v>0.8123543123543123</v>
       </c>
       <c r="O118">
         <v>339000</v>
       </c>
       <c r="P118">
-        <v>9600</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8485,13 +8476,13 @@
         <v>27</v>
       </c>
       <c r="D119">
-        <v>33000</v>
+        <v>57100</v>
       </c>
       <c r="E119">
-        <v>14900</v>
+        <v>37900</v>
       </c>
       <c r="F119">
-        <v>18100</v>
+        <v>19200</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -8529,25 +8520,25 @@
         <v>39</v>
       </c>
       <c r="B120">
-        <v>0.8571428571428571</v>
+        <v>0.8637362637362638</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="E120">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="F120">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G120">
         <v>3</v>
       </c>
       <c r="H120">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="I120">
         <v>315000</v>
@@ -8556,22 +8547,22 @@
         <v>3</v>
       </c>
       <c r="K120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L120">
-        <v>0.1984732824427481</v>
+        <v>0.1996951219512195</v>
       </c>
       <c r="M120">
         <v>3</v>
       </c>
       <c r="N120">
-        <v>0.1921182266009852</v>
+        <v>0.1935960591133005</v>
       </c>
       <c r="O120">
         <v>0</v>
       </c>
       <c r="P120">
-        <v>78000</v>
+        <v>78600</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8579,25 +8570,25 @@
         <v>27</v>
       </c>
       <c r="B121">
-        <v>0.10995670995671</v>
+        <v>0.1108225108225108</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121">
-        <v>43100</v>
+        <v>50300</v>
       </c>
       <c r="E121">
-        <v>13000</v>
+        <v>40900</v>
       </c>
       <c r="F121">
-        <v>30100</v>
+        <v>9400</v>
       </c>
       <c r="G121">
         <v>6</v>
       </c>
       <c r="H121">
-        <v>205600</v>
+        <v>205400</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -8615,13 +8606,13 @@
         <v>6</v>
       </c>
       <c r="N121">
-        <v>0.639298245614035</v>
+        <v>0.6396491228070176</v>
       </c>
       <c r="O121">
         <v>339000</v>
       </c>
       <c r="P121">
-        <v>25400</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8685,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -8708,25 +8699,25 @@
         <v>40</v>
       </c>
       <c r="B124">
-        <v>0.8751219512195122</v>
+        <v>0.8731707317073171</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
       </c>
       <c r="D124">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="E124">
-        <v>21900</v>
+        <v>22900</v>
       </c>
       <c r="F124">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -8744,13 +8735,13 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>0.8751219512195122</v>
+        <v>0.8731707317073171</v>
       </c>
       <c r="O124">
         <v>0</v>
       </c>
       <c r="P124">
-        <v>179400</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -8758,16 +8749,16 @@
         <v>42</v>
       </c>
       <c r="B125">
-        <v>0.9932203389830508</v>
+        <v>0.9923728813559322</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
       </c>
       <c r="D125">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F125">
         <v>900</v>
@@ -8776,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I125">
         <v>900</v>
@@ -8788,19 +8779,19 @@
         <v>49</v>
       </c>
       <c r="L125">
-        <v>0.9923793395427604</v>
+        <v>0.9923728813559322</v>
       </c>
       <c r="M125">
         <v>1</v>
       </c>
       <c r="N125">
-        <v>0.9857022708158116</v>
+        <v>0.9848612279226241</v>
       </c>
       <c r="O125">
         <v>0</v>
       </c>
       <c r="P125">
-        <v>117200</v>
+        <v>117100</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -8835,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -8855,78 +8846,69 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127">
-        <v>0.9096774193548387</v>
+        <v>0.9610687022900763</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
       </c>
-      <c r="D127">
-        <v>14000</v>
-      </c>
-      <c r="E127">
-        <v>9900</v>
-      </c>
-      <c r="F127">
-        <v>4100</v>
-      </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>14000</v>
+        <v>5100</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>231300</v>
       </c>
       <c r="J127">
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>0.3524636058230683</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
       <c r="N127">
-        <v>0.9096774193548387</v>
+        <v>0.5798080341272662</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>200300</v>
       </c>
       <c r="P127">
-        <v>141000</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B128">
-        <v>0.5991379310344828</v>
+        <v>0.9096774193548387</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
       </c>
       <c r="D128">
-        <v>93000</v>
+        <v>14000</v>
       </c>
       <c r="E128">
-        <v>68900</v>
+        <v>9900</v>
       </c>
       <c r="F128">
-        <v>24100</v>
+        <v>4100</v>
       </c>
       <c r="G128">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>93000</v>
+        <v>14000</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8935,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -8944,13 +8926,13 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <v>0.5991379310344828</v>
+        <v>0.9096774193548387</v>
       </c>
       <c r="O128">
         <v>0</v>
       </c>
       <c r="P128">
-        <v>139000</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8958,16 +8940,16 @@
         <v>51</v>
       </c>
       <c r="B129">
-        <v>0.4769230769230769</v>
+        <v>0.4774358974358974</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
       </c>
       <c r="D129">
-        <v>102000</v>
+        <v>101900</v>
       </c>
       <c r="E129">
-        <v>99900</v>
+        <v>99800</v>
       </c>
       <c r="F129">
         <v>2100</v>
@@ -8976,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>102000</v>
+        <v>101900</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8994,13 +8976,13 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>0.4769230769230769</v>
+        <v>0.4774358974358974</v>
       </c>
       <c r="O129">
         <v>0</v>
       </c>
       <c r="P129">
-        <v>93000</v>
+        <v>93100</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -9014,10 +8996,10 @@
         <v>28</v>
       </c>
       <c r="D130">
-        <v>243800</v>
+        <v>243200</v>
       </c>
       <c r="E130">
-        <v>246900</v>
+        <v>246300</v>
       </c>
       <c r="F130">
         <v>3100</v>
@@ -9029,7 +9011,7 @@
         <v>3100</v>
       </c>
       <c r="I130">
-        <v>246900</v>
+        <v>246300</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -9038,13 +9020,13 @@
         <v>45</v>
       </c>
       <c r="L130">
-        <v>0.3231907894736842</v>
+        <v>0.3237232289950577</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="N130">
-        <v>0.320467518347377</v>
+        <v>0.3209910155186496</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -9063,6 +9045,15 @@
       <c r="C131" t="s">
         <v>28</v>
       </c>
+      <c r="D131">
+        <v>40500</v>
+      </c>
+      <c r="E131">
+        <v>42500</v>
+      </c>
+      <c r="F131">
+        <v>2000</v>
+      </c>
       <c r="G131">
         <v>1</v>
       </c>
@@ -9070,7 +9061,7 @@
         <v>2000</v>
       </c>
       <c r="I131">
-        <v>120400</v>
+        <v>120500</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -9079,16 +9070,16 @@
         <v>46</v>
       </c>
       <c r="L131">
-        <v>0.7296811854512798</v>
+        <v>0.7295173961840629</v>
       </c>
       <c r="M131">
         <v>1</v>
       </c>
       <c r="N131">
-        <v>0.7286632675681667</v>
+        <v>0.7284415872312126</v>
       </c>
       <c r="O131">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="P131">
         <v>325000</v>
@@ -9146,52 +9137,52 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B133">
-        <v>1.920610687022901</v>
+        <v>0.5607758620689656</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
       </c>
       <c r="D133">
-        <v>226100</v>
+        <v>187000</v>
       </c>
       <c r="E133">
-        <v>231300</v>
+        <v>204900</v>
       </c>
       <c r="F133">
-        <v>5200</v>
+        <v>17900</v>
       </c>
       <c r="G133">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>-120600</v>
+        <v>101900</v>
       </c>
       <c r="I133">
-        <v>664300</v>
+        <v>17900</v>
       </c>
       <c r="J133">
         <v>2</v>
       </c>
       <c r="K133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L133">
-        <v>0.2747024784365105</v>
+        <v>0.879054054054054</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
       <c r="N133">
-        <v>0.03599290780141844</v>
+        <v>0.5206082432973189</v>
       </c>
       <c r="O133">
-        <v>-231300</v>
+        <v>0</v>
       </c>
       <c r="P133">
-        <v>251600</v>
+        <v>130100</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -9205,13 +9196,13 @@
         <v>28</v>
       </c>
       <c r="D134">
-        <v>297000</v>
+        <v>253000</v>
       </c>
       <c r="E134">
-        <v>153900</v>
+        <v>250900</v>
       </c>
       <c r="F134">
-        <v>143100</v>
+        <v>2100</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -9267,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -9284,134 +9275,125 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B136">
-        <v>0.8392857142857143</v>
+        <v>0.8097560975609757</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
       </c>
       <c r="D136">
-        <v>5900</v>
+        <v>39000</v>
       </c>
       <c r="E136">
-        <v>100</v>
+        <v>36900</v>
       </c>
       <c r="F136">
-        <v>6000</v>
+        <v>2100</v>
       </c>
       <c r="G136">
         <v>2</v>
       </c>
       <c r="H136">
-        <v>18000</v>
+        <v>39000</v>
       </c>
       <c r="I136">
-        <v>28100</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L136">
-        <v>0.7698607698607699</v>
+        <v>1</v>
       </c>
       <c r="M136">
         <v>2</v>
       </c>
       <c r="N136">
-        <v>0.9173835125448029</v>
+        <v>0.8125</v>
       </c>
       <c r="O136">
-        <v>417900</v>
+        <v>3000</v>
       </c>
       <c r="P136">
-        <v>94000</v>
+        <v>166000</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B137">
-        <v>0.09540636042402827</v>
+        <v>0.8383928571428572</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
       </c>
-      <c r="D137">
-        <v>122000</v>
-      </c>
-      <c r="E137">
-        <v>115900</v>
-      </c>
-      <c r="F137">
-        <v>6100</v>
-      </c>
       <c r="G137">
         <v>2</v>
       </c>
       <c r="H137">
-        <v>256000</v>
+        <v>18100</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>28100</v>
       </c>
       <c r="J137">
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>0.769672131147541</v>
       </c>
       <c r="M137">
         <v>2</v>
       </c>
       <c r="N137">
-        <v>0.1292517006802721</v>
+        <v>0.9172043010752688</v>
       </c>
       <c r="O137">
-        <v>11000</v>
+        <v>417900</v>
       </c>
       <c r="P137">
-        <v>27000</v>
+        <v>93900</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B138">
-        <v>0.8585365853658536</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
       </c>
       <c r="D138">
-        <v>66000</v>
+        <v>122000</v>
       </c>
       <c r="E138">
-        <v>63900</v>
+        <v>115900</v>
       </c>
       <c r="F138">
-        <v>2100</v>
+        <v>6100</v>
       </c>
       <c r="G138">
         <v>2</v>
       </c>
       <c r="H138">
-        <v>29000</v>
+        <v>256000</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K138" t="s">
         <v>37</v>
@@ -9423,13 +9405,13 @@
         <v>2</v>
       </c>
       <c r="N138">
-        <v>0.8605769230769231</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="O138">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P138">
-        <v>176000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9437,25 +9419,25 @@
         <v>46</v>
       </c>
       <c r="B139">
-        <v>0.4131578947368421</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
       </c>
       <c r="D139">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="E139">
         <v>1100</v>
       </c>
       <c r="F139">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="G139">
         <v>2</v>
       </c>
       <c r="H139">
-        <v>156100</v>
+        <v>156000</v>
       </c>
       <c r="I139">
         <v>11000</v>
@@ -9464,22 +9446,22 @@
         <v>2</v>
       </c>
       <c r="K139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L139">
-        <v>0.9090157154673284</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M139">
         <v>2</v>
       </c>
       <c r="N139">
-        <v>0.495166163141994</v>
+        <v>0.4954682779456193</v>
       </c>
       <c r="O139">
         <v>54000</v>
       </c>
       <c r="P139">
-        <v>109900</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9493,13 +9475,13 @@
         <v>28</v>
       </c>
       <c r="D140">
-        <v>15000</v>
+        <v>97000</v>
       </c>
       <c r="E140">
-        <v>3900</v>
+        <v>92900</v>
       </c>
       <c r="F140">
-        <v>11100</v>
+        <v>4100</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -9514,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -9537,25 +9519,25 @@
         <v>47</v>
       </c>
       <c r="B141">
-        <v>0.4746153846153846</v>
+        <v>0.4753846153846154</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
       </c>
       <c r="D141">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="E141">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="F141">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="G141">
         <v>3</v>
       </c>
       <c r="H141">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="I141">
         <v>16200</v>
@@ -9567,19 +9549,19 @@
         <v>41</v>
       </c>
       <c r="L141">
-        <v>0.79204107830552</v>
+        <v>0.7923076923076923</v>
       </c>
       <c r="M141">
         <v>3</v>
       </c>
       <c r="N141">
-        <v>0.6522633744855967</v>
+        <v>0.6526748971193416</v>
       </c>
       <c r="O141">
         <v>96800</v>
       </c>
       <c r="P141">
-        <v>61700</v>
+        <v>61800</v>
       </c>
     </row>
   </sheetData>

--- a/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
+++ b/casas-event-visualizer/casas_interweaved_situation_detection_analysis.xlsx
@@ -992,97 +992,97 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.5719215482835277</v>
+        <v>0.5739430182261377</v>
       </c>
       <c r="D4">
-        <v>0.2836939798717119</v>
+        <v>0.2798406420155798</v>
       </c>
       <c r="E4">
-        <v>0.08749999999999999</v>
+        <v>0.091875</v>
       </c>
       <c r="F4">
-        <v>0.3359375</v>
+        <v>0.340625</v>
       </c>
       <c r="G4">
         <v>0.6074074074074074</v>
       </c>
       <c r="H4">
-        <v>0.8096774193548387</v>
+        <v>0.8079569892473119</v>
       </c>
       <c r="I4">
-        <v>0.9368421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="J4">
         <v>11</v>
       </c>
       <c r="K4">
-        <v>201972.7272727273</v>
+        <v>201890.9090909091</v>
       </c>
       <c r="L4">
-        <v>287118.1119013884</v>
+        <v>287074.5911938061</v>
       </c>
       <c r="M4">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N4">
-        <v>21750</v>
+        <v>21650</v>
       </c>
       <c r="O4">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="P4">
-        <v>223500</v>
+        <v>223050</v>
       </c>
       <c r="Q4">
-        <v>765700</v>
+        <v>765400</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4">
-        <v>200363.6363636364</v>
+        <v>200200</v>
       </c>
       <c r="T4">
-        <v>290893.9094334128</v>
+        <v>290770.5212018577</v>
       </c>
       <c r="U4">
         <v>1000</v>
       </c>
       <c r="V4">
-        <v>17400</v>
+        <v>16950</v>
       </c>
       <c r="W4">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="X4">
         <v>226050</v>
       </c>
       <c r="Y4">
-        <v>770200</v>
+        <v>769400</v>
       </c>
       <c r="Z4">
         <v>11</v>
       </c>
       <c r="AA4">
-        <v>6045.454545454545</v>
+        <v>6072.727272727273</v>
       </c>
       <c r="AB4">
-        <v>5647.187554236823</v>
+        <v>5722.777456636054</v>
       </c>
       <c r="AC4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD4">
-        <v>3750</v>
+        <v>3600</v>
       </c>
       <c r="AE4">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="AF4">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="AG4">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="AH4">
         <v>11</v>
@@ -1112,34 +1112,34 @@
         <v>11</v>
       </c>
       <c r="AQ4">
-        <v>24463.63636363636</v>
+        <v>24318.18181818182</v>
       </c>
       <c r="AR4">
-        <v>41160.35161966605</v>
+        <v>40955.21500814806</v>
       </c>
       <c r="AS4">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="AT4">
-        <v>5800</v>
+        <v>5850</v>
       </c>
       <c r="AU4">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="AV4">
-        <v>21750</v>
+        <v>21650</v>
       </c>
       <c r="AW4">
-        <v>146000</v>
+        <v>145300</v>
       </c>
       <c r="AX4">
         <v>11</v>
       </c>
       <c r="AY4">
-        <v>182763.6363636364</v>
+        <v>182772.7272727273</v>
       </c>
       <c r="AZ4">
-        <v>300601.5378294904</v>
+        <v>300402.3638086395</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>226050</v>
       </c>
       <c r="BE4">
-        <v>770200</v>
+        <v>769400</v>
       </c>
       <c r="BF4">
         <v>11</v>
@@ -1184,16 +1184,16 @@
         <v>11</v>
       </c>
       <c r="BO4">
-        <v>0.5878281546825733</v>
+        <v>0.5873840940827452</v>
       </c>
       <c r="BP4">
-        <v>0.4754782602173778</v>
+        <v>0.4758830549907104</v>
       </c>
       <c r="BQ4">
-        <v>0.03279958677685951</v>
+        <v>0.0329244673983215</v>
       </c>
       <c r="BR4">
-        <v>0.106709667494844</v>
+        <v>0.106429288883257</v>
       </c>
       <c r="BS4">
         <v>1</v>
@@ -1232,25 +1232,25 @@
         <v>11</v>
       </c>
       <c r="CE4">
-        <v>0.28628379546555</v>
+        <v>0.2872368047380606</v>
       </c>
       <c r="CF4">
-        <v>0.2776075400807426</v>
+        <v>0.2736571560640517</v>
       </c>
       <c r="CG4">
-        <v>0.03256410256410256</v>
+        <v>0.03269230769230769</v>
       </c>
       <c r="CH4">
-        <v>0.07935830860534124</v>
+        <v>0.08124907270029674</v>
       </c>
       <c r="CI4">
-        <v>0.2705882352941176</v>
+        <v>0.288235294117647</v>
       </c>
       <c r="CJ4">
-        <v>0.3359375</v>
+        <v>0.340625</v>
       </c>
       <c r="CK4">
-        <v>0.9368421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="CL4">
         <v>11</v>
@@ -1280,22 +1280,22 @@
         <v>11</v>
       </c>
       <c r="CU4">
-        <v>18627.27272727273</v>
+        <v>18772.72727272727</v>
       </c>
       <c r="CV4">
-        <v>8443.825070321021</v>
+        <v>8377.600003472462</v>
       </c>
       <c r="CW4">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="CX4">
-        <v>10750</v>
+        <v>10900</v>
       </c>
       <c r="CY4">
-        <v>17800</v>
+        <v>17500</v>
       </c>
       <c r="CZ4">
-        <v>24700</v>
+        <v>24650</v>
       </c>
       <c r="DA4">
         <v>32800</v>
@@ -1309,10 +1309,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.3589933006706194</v>
+        <v>0.2893777277845566</v>
       </c>
       <c r="D5">
-        <v>0.4129428998676021</v>
+        <v>0.3104524918673429</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1321,94 +1321,94 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2194690265486726</v>
+        <v>0.2153508771929825</v>
       </c>
       <c r="H5">
-        <v>0.5555555555555556</v>
+        <v>0.51375</v>
       </c>
       <c r="I5">
-        <v>1.28135593220339</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>98275</v>
+        <v>87233.33333333333</v>
       </c>
       <c r="L5">
-        <v>59309.23199637642</v>
+        <v>62604.0334163862</v>
       </c>
       <c r="M5">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="N5">
-        <v>49000</v>
+        <v>17000</v>
       </c>
       <c r="O5">
-        <v>104000</v>
+        <v>84000</v>
       </c>
       <c r="P5">
-        <v>142575</v>
+        <v>132000</v>
       </c>
       <c r="Q5">
-        <v>169900</v>
+        <v>183000</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5">
-        <v>67587.5</v>
+        <v>43111.11111111111</v>
       </c>
       <c r="T5">
-        <v>56379.9213879754</v>
+        <v>56439.64573871022</v>
       </c>
       <c r="U5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="V5">
-        <v>32225</v>
+        <v>11900</v>
       </c>
       <c r="W5">
-        <v>58450</v>
+        <v>17800</v>
       </c>
       <c r="X5">
-        <v>91225</v>
+        <v>36000</v>
       </c>
       <c r="Y5">
         <v>181000</v>
       </c>
       <c r="Z5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA5">
-        <v>40612.5</v>
+        <v>68344.44444444444</v>
       </c>
       <c r="AB5">
-        <v>41299.79029694253</v>
+        <v>59363.83813213038</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="AD5">
-        <v>10775</v>
+        <v>25900</v>
       </c>
       <c r="AE5">
-        <v>25550</v>
+        <v>51000</v>
       </c>
       <c r="AF5">
-        <v>65325</v>
+        <v>119000</v>
       </c>
       <c r="AG5">
-        <v>119000</v>
+        <v>178000</v>
       </c>
       <c r="AH5">
         <v>17</v>
       </c>
       <c r="AI5">
-        <v>6.411764705882353</v>
+        <v>6.117647058823529</v>
       </c>
       <c r="AJ5">
-        <v>4.258210063063642</v>
+        <v>3.672232851773844</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1420,73 +1420,73 @@
         <v>5</v>
       </c>
       <c r="AN5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5">
         <v>17</v>
       </c>
       <c r="AQ5">
-        <v>87852.94117647059</v>
+        <v>95982.35294117648</v>
       </c>
       <c r="AR5">
-        <v>77174.71345627934</v>
+        <v>72080.61663247373</v>
       </c>
       <c r="AS5">
-        <v>-33200</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="AU5">
         <v>84000</v>
       </c>
       <c r="AV5">
-        <v>165900</v>
+        <v>178900</v>
       </c>
       <c r="AW5">
-        <v>202000</v>
+        <v>216600</v>
       </c>
       <c r="AX5">
         <v>17</v>
       </c>
       <c r="AY5">
-        <v>157823.5294117647</v>
+        <v>114764.7058823529</v>
       </c>
       <c r="AZ5">
-        <v>214542.3691529594</v>
+        <v>150975.7262823087</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>16000</v>
+        <v>11200</v>
       </c>
       <c r="BC5">
-        <v>57700</v>
+        <v>53100</v>
       </c>
       <c r="BD5">
-        <v>163400</v>
+        <v>115000</v>
       </c>
       <c r="BE5">
-        <v>632700</v>
+        <v>483200</v>
       </c>
       <c r="BF5">
         <v>17</v>
       </c>
       <c r="BG5">
-        <v>3.411764705882353</v>
+        <v>3.058823529411764</v>
       </c>
       <c r="BH5">
-        <v>2.807552838536876</v>
+        <v>2.331056311934949</v>
       </c>
       <c r="BI5">
         <v>1</v>
       </c>
       <c r="BJ5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK5">
         <v>3</v>
@@ -1495,16 +1495,16 @@
         <v>4</v>
       </c>
       <c r="BM5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BN5">
         <v>16</v>
       </c>
       <c r="BO5">
-        <v>0.3552648321635236</v>
+        <v>0.352913911952337</v>
       </c>
       <c r="BP5">
-        <v>0.3853168643403597</v>
+        <v>0.3760907674055767</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.1495124983735955</v>
+        <v>0.1586694451921848</v>
       </c>
       <c r="BT5">
-        <v>0.6709357088905674</v>
+        <v>0.6717772839769008</v>
       </c>
       <c r="BU5">
         <v>1</v>
@@ -1549,58 +1549,58 @@
         <v>17</v>
       </c>
       <c r="CE5">
-        <v>0.4270036445381612</v>
+        <v>0.4694577910850794</v>
       </c>
       <c r="CF5">
-        <v>0.3704237090386681</v>
+        <v>0.2985869001386741</v>
       </c>
       <c r="CG5">
-        <v>-0.2765519820493643</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.1990033222591362</v>
+        <v>0.1974755024082378</v>
       </c>
       <c r="CI5">
-        <v>0.4205607476635514</v>
+        <v>0.4874269005847953</v>
       </c>
       <c r="CJ5">
-        <v>0.7056638811513464</v>
+        <v>0.7059733828536057</v>
       </c>
       <c r="CK5">
-        <v>1.047123287671233</v>
+        <v>0.93710407239819</v>
       </c>
       <c r="CL5">
         <v>17</v>
       </c>
       <c r="CM5">
-        <v>145052.9411764706</v>
+        <v>182535.294117647</v>
       </c>
       <c r="CN5">
-        <v>176798.6111287609</v>
+        <v>185239.6992452498</v>
       </c>
       <c r="CO5">
-        <v>-147900</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>26900</v>
+        <v>39700</v>
       </c>
       <c r="CQ5">
-        <v>65800</v>
+        <v>124900</v>
       </c>
       <c r="CR5">
-        <v>241800</v>
+        <v>297900</v>
       </c>
       <c r="CS5">
-        <v>542100</v>
+        <v>551900</v>
       </c>
       <c r="CT5">
         <v>17</v>
       </c>
       <c r="CU5">
-        <v>32911.76470588235</v>
+        <v>24782.35294117647</v>
       </c>
       <c r="CV5">
-        <v>38805.61947632297</v>
+        <v>22844.37116923219</v>
       </c>
       <c r="CW5">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="CY5">
-        <v>24800</v>
+        <v>19200</v>
       </c>
       <c r="CZ5">
         <v>45000</v>
       </c>
       <c r="DA5">
-        <v>151200</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="6" spans="1:105">
@@ -1626,106 +1626,106 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.6370943627581213</v>
+        <v>0.6097259589908358</v>
       </c>
       <c r="D6">
-        <v>0.2617907344695924</v>
+        <v>0.2710056088725151</v>
       </c>
       <c r="E6">
-        <v>0.008035714285714285</v>
+        <v>0.005357142857142857</v>
       </c>
       <c r="F6">
-        <v>0.5311033927312997</v>
+        <v>0.515842559080264</v>
       </c>
       <c r="G6">
-        <v>0.7591666666666667</v>
+        <v>0.7212719298245613</v>
       </c>
       <c r="H6">
-        <v>0.7869806663924311</v>
+        <v>0.7802434697655286</v>
       </c>
       <c r="I6">
-        <v>0.9227848101265823</v>
+        <v>0.9215189873417722</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>54150</v>
+        <v>47175</v>
       </c>
       <c r="L6">
-        <v>38369.36967701925</v>
+        <v>33105.37720673184</v>
       </c>
       <c r="M6">
         <v>9000</v>
       </c>
       <c r="N6">
-        <v>19700</v>
+        <v>17925</v>
       </c>
       <c r="O6">
-        <v>48500</v>
+        <v>36050</v>
       </c>
       <c r="P6">
-        <v>84775</v>
+        <v>66475</v>
       </c>
       <c r="Q6">
-        <v>122000</v>
+        <v>111400</v>
       </c>
       <c r="R6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S6">
-        <v>42550</v>
+        <v>33937.5</v>
       </c>
       <c r="T6">
-        <v>35948.08757082914</v>
+        <v>31861.42652173628</v>
       </c>
       <c r="U6">
         <v>1900</v>
       </c>
       <c r="V6">
-        <v>11175</v>
+        <v>10975</v>
       </c>
       <c r="W6">
-        <v>36500</v>
+        <v>16400</v>
       </c>
       <c r="X6">
-        <v>66650</v>
+        <v>55400</v>
       </c>
       <c r="Y6">
-        <v>119900</v>
+        <v>110900</v>
       </c>
       <c r="Z6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA6">
-        <v>21500</v>
+        <v>22375</v>
       </c>
       <c r="AB6">
-        <v>32632.84163141752</v>
+        <v>24878.86653366668</v>
       </c>
       <c r="AC6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AD6">
-        <v>3550</v>
+        <v>4975</v>
       </c>
       <c r="AE6">
-        <v>6150</v>
+        <v>13200</v>
       </c>
       <c r="AF6">
-        <v>25625</v>
+        <v>29125</v>
       </c>
       <c r="AG6">
-        <v>126900</v>
+        <v>79000</v>
       </c>
       <c r="AH6">
         <v>18</v>
       </c>
       <c r="AI6">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AJ6">
-        <v>0.7859052479933758</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1740,40 +1740,40 @@
         <v>2</v>
       </c>
       <c r="AO6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP6">
         <v>18</v>
       </c>
       <c r="AQ6">
-        <v>45111.11111111111</v>
+        <v>47422.22222222222</v>
       </c>
       <c r="AR6">
-        <v>28957.75602471517</v>
+        <v>28341.47979771316</v>
       </c>
       <c r="AS6">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="AT6">
-        <v>27900</v>
+        <v>30250</v>
       </c>
       <c r="AU6">
-        <v>31550</v>
+        <v>34950</v>
       </c>
       <c r="AV6">
-        <v>59500</v>
+        <v>60000</v>
       </c>
       <c r="AW6">
-        <v>111100</v>
+        <v>111400</v>
       </c>
       <c r="AX6">
         <v>18</v>
       </c>
       <c r="AY6">
-        <v>43505.55555555555</v>
+        <v>38505.55555555555</v>
       </c>
       <c r="AZ6">
-        <v>80992.03644383971</v>
+        <v>63584.25140035692</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -1785,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>64250</v>
+        <v>64225</v>
       </c>
       <c r="BE6">
-        <v>323900</v>
+        <v>234000</v>
       </c>
       <c r="BF6">
         <v>18</v>
       </c>
       <c r="BG6">
-        <v>1.5</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="BH6">
-        <v>0.7859052479933758</v>
+        <v>0.7047921864945658</v>
       </c>
       <c r="BI6">
         <v>1</v>
@@ -1818,16 +1818,16 @@
         <v>18</v>
       </c>
       <c r="BO6">
-        <v>0.8002987586287145</v>
+        <v>0.7962790070365857</v>
       </c>
       <c r="BP6">
-        <v>0.2814145584237827</v>
+        <v>0.2914765188322644</v>
       </c>
       <c r="BQ6">
-        <v>0.1713993348682528</v>
+        <v>0.09652509652509653</v>
       </c>
       <c r="BR6">
-        <v>0.5631668821556726</v>
+        <v>0.5628992586341349</v>
       </c>
       <c r="BS6">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>18</v>
       </c>
       <c r="CE6">
-        <v>0.5881202985414835</v>
+        <v>0.5960818472302265</v>
       </c>
       <c r="CF6">
-        <v>0.2432130192800379</v>
+        <v>0.2397650079647362</v>
       </c>
       <c r="CG6">
-        <v>0.008035714285714285</v>
+        <v>0.005357142857142857</v>
       </c>
       <c r="CH6">
-        <v>0.4179742746901132</v>
+        <v>0.4413221667854597</v>
       </c>
       <c r="CI6">
-        <v>0.6275297060662914</v>
+        <v>0.6273264540337711</v>
       </c>
       <c r="CJ6">
-        <v>0.7644886363636363</v>
+        <v>0.7639204545454545</v>
       </c>
       <c r="CK6">
         <v>0.9708649468892261</v>
@@ -1890,10 +1890,10 @@
         <v>18</v>
       </c>
       <c r="CM6">
-        <v>50111.11111111111</v>
+        <v>59672.22222222222</v>
       </c>
       <c r="CN6">
-        <v>128891.4312347862</v>
+        <v>144450.7072674459</v>
       </c>
       <c r="CO6">
         <v>0</v>
@@ -1914,25 +1914,25 @@
         <v>18</v>
       </c>
       <c r="CU6">
-        <v>86555.55555555556</v>
+        <v>84244.44444444444</v>
       </c>
       <c r="CV6">
-        <v>39637.06260592659</v>
+        <v>42060.3239368553</v>
       </c>
       <c r="CW6">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="CX6">
-        <v>71475</v>
+        <v>71525</v>
       </c>
       <c r="CY6">
-        <v>95950</v>
+        <v>96500</v>
       </c>
       <c r="CZ6">
-        <v>109300</v>
+        <v>109325</v>
       </c>
       <c r="DA6">
-        <v>149800</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -1943,67 +1943,67 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.7170052060142463</v>
+        <v>0.702240272140117</v>
       </c>
       <c r="D7">
-        <v>0.3070134062176599</v>
+        <v>0.3054740414627874</v>
       </c>
       <c r="E7">
         <v>0.0007462686567164179</v>
       </c>
       <c r="F7">
-        <v>0.5862068965517241</v>
+        <v>0.5655172413793104</v>
       </c>
       <c r="G7">
-        <v>0.8333333333333334</v>
+        <v>0.8319444444444445</v>
       </c>
       <c r="H7">
-        <v>0.9192307692307692</v>
+        <v>0.9153846153846154</v>
       </c>
       <c r="I7">
-        <v>0.9761904761904762</v>
+        <v>0.975</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
       <c r="K7">
-        <v>21688.88888888889</v>
+        <v>21455.55555555555</v>
       </c>
       <c r="L7">
-        <v>23476.98045130828</v>
+        <v>23605.14303658797</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="O7">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="P7">
         <v>27100</v>
       </c>
       <c r="Q7">
-        <v>65000</v>
+        <v>64800</v>
       </c>
       <c r="R7">
         <v>9</v>
       </c>
       <c r="S7">
-        <v>32766.66666666667</v>
+        <v>32933.33333333334</v>
       </c>
       <c r="T7">
-        <v>44483.48007968801</v>
+        <v>44342.981406306</v>
       </c>
       <c r="U7">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="V7">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="W7">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="X7">
         <v>54200</v>
@@ -2015,25 +2015,25 @@
         <v>9</v>
       </c>
       <c r="AA7">
-        <v>14077.77777777778</v>
+        <v>14144.44444444445</v>
       </c>
       <c r="AB7">
-        <v>35952.63473578042</v>
+        <v>35960.64206570536</v>
       </c>
       <c r="AC7">
         <v>100</v>
       </c>
       <c r="AD7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AE7">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="AF7">
         <v>4200</v>
       </c>
       <c r="AG7">
-        <v>109800</v>
+        <v>109900</v>
       </c>
       <c r="AH7">
         <v>9</v>
@@ -2063,22 +2063,22 @@
         <v>9</v>
       </c>
       <c r="AQ7">
-        <v>28711.11111111111</v>
+        <v>28966.66666666667</v>
       </c>
       <c r="AR7">
-        <v>44252.04640591337</v>
+        <v>44257.85241061749</v>
       </c>
       <c r="AS7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AT7">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="AU7">
         <v>9000</v>
       </c>
       <c r="AV7">
-        <v>36000</v>
+        <v>37800</v>
       </c>
       <c r="AW7">
         <v>133900</v>
@@ -2087,10 +2087,10 @@
         <v>9</v>
       </c>
       <c r="AY7">
-        <v>31577.77777777778</v>
+        <v>31555.55555555555</v>
       </c>
       <c r="AZ7">
-        <v>39992.67988575465</v>
+        <v>40023.30918074838</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="BD7">
         <v>54200</v>
       </c>
       <c r="BE7">
-        <v>109800</v>
+        <v>109900</v>
       </c>
       <c r="BF7">
         <v>9</v>
@@ -2135,19 +2135,19 @@
         <v>9</v>
       </c>
       <c r="BO7">
-        <v>0.6206579171133372</v>
+        <v>0.6203344492782387</v>
       </c>
       <c r="BP7">
-        <v>0.4499548140118181</v>
+        <v>0.450414470884936</v>
       </c>
       <c r="BQ7">
-        <v>0.0009099181073703367</v>
+        <v>0.0009090909090909091</v>
       </c>
       <c r="BR7">
-        <v>0.1935483870967742</v>
+        <v>0.1922455573505654</v>
       </c>
       <c r="BS7">
-        <v>0.9107142857142857</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="BT7">
         <v>1</v>
@@ -2183,25 +2183,25 @@
         <v>9</v>
       </c>
       <c r="CE7">
-        <v>0.5397400770314129</v>
+        <v>0.5382648638117298</v>
       </c>
       <c r="CF7">
-        <v>0.3786293482084426</v>
+        <v>0.377928319563252</v>
       </c>
       <c r="CG7">
-        <v>0.001229508196721312</v>
+        <v>0.000819672131147541</v>
       </c>
       <c r="CH7">
-        <v>0.1904761904761905</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="CI7">
         <v>0.6836842105263158</v>
       </c>
       <c r="CJ7">
-        <v>0.8333333333333334</v>
+        <v>0.8319444444444445</v>
       </c>
       <c r="CK7">
-        <v>0.9761904761904762</v>
+        <v>0.975</v>
       </c>
       <c r="CL7">
         <v>9</v>
@@ -2210,7 +2210,7 @@
         <v>20088.88888888889</v>
       </c>
       <c r="CN7">
-        <v>41682.50365694353</v>
+        <v>41683.01346005482</v>
       </c>
       <c r="CO7">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="CQ7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="CR7">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="CS7">
         <v>119000</v>
@@ -2231,25 +2231,25 @@
         <v>9</v>
       </c>
       <c r="CU7">
-        <v>42844.44444444445</v>
+        <v>42588.88888888889</v>
       </c>
       <c r="CV7">
-        <v>30828.72488082791</v>
+        <v>30779.35364998932</v>
       </c>
       <c r="CW7">
         <v>100</v>
       </c>
       <c r="CX7">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="CY7">
-        <v>51000</v>
+        <v>49200</v>
       </c>
       <c r="CZ7">
         <v>60000</v>
       </c>
       <c r="DA7">
-        <v>82000</v>
+        <v>81900</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -2260,64 +2260,64 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>0.2520320145494279</v>
+        <v>0.2510309086539181</v>
       </c>
       <c r="D8">
-        <v>0.2727234972284346</v>
+        <v>0.2734730531407277</v>
       </c>
       <c r="E8">
-        <v>0.03296703296703297</v>
+        <v>0.03241758241758242</v>
       </c>
       <c r="F8">
-        <v>0.06301369863013699</v>
+        <v>0.06438356164383562</v>
       </c>
       <c r="G8">
-        <v>0.1005988023952096</v>
+        <v>0.09940119760479042</v>
       </c>
       <c r="H8">
         <v>0.3104651162790698</v>
       </c>
       <c r="I8">
-        <v>0.9886075949367089</v>
+        <v>0.9898734177215189</v>
       </c>
       <c r="J8">
         <v>17</v>
       </c>
       <c r="K8">
-        <v>40805.88235294117</v>
+        <v>42400</v>
       </c>
       <c r="L8">
-        <v>39755.76169859275</v>
+        <v>39310.38348833549</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N8">
-        <v>15200</v>
+        <v>22000</v>
       </c>
       <c r="O8">
-        <v>29900</v>
+        <v>31400</v>
       </c>
       <c r="P8">
         <v>54900</v>
       </c>
       <c r="Q8">
-        <v>166800</v>
+        <v>167400</v>
       </c>
       <c r="R8">
         <v>17</v>
       </c>
       <c r="S8">
-        <v>36152.94117647059</v>
+        <v>37005.88235294117</v>
       </c>
       <c r="T8">
-        <v>40146.8883857619</v>
+        <v>39561.47859010447</v>
       </c>
       <c r="U8">
         <v>3000</v>
       </c>
       <c r="V8">
-        <v>8800</v>
+        <v>15900</v>
       </c>
       <c r="W8">
         <v>20900</v>
@@ -2332,22 +2332,22 @@
         <v>17</v>
       </c>
       <c r="AA8">
-        <v>8829.411764705883</v>
+        <v>9700</v>
       </c>
       <c r="AB8">
-        <v>9936.848387811546</v>
+        <v>10602.6529698939</v>
       </c>
       <c r="AC8">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AD8">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="AE8">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="AF8">
-        <v>10600</v>
+        <v>13000</v>
       </c>
       <c r="AG8">
         <v>38000</v>
@@ -2380,34 +2380,34 @@
         <v>17</v>
       </c>
       <c r="AQ8">
-        <v>81335.29411764706</v>
+        <v>81452.94117647059</v>
       </c>
       <c r="AR8">
-        <v>43966.98962256329</v>
+        <v>44049.63276871697</v>
       </c>
       <c r="AS8">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AT8">
         <v>54900</v>
       </c>
       <c r="AU8">
-        <v>68400</v>
+        <v>68300</v>
       </c>
       <c r="AV8">
-        <v>99500</v>
+        <v>99400</v>
       </c>
       <c r="AW8">
-        <v>176000</v>
+        <v>176100</v>
       </c>
       <c r="AX8">
         <v>17</v>
       </c>
       <c r="AY8">
-        <v>27947.05882352941</v>
+        <v>28070.58823529412</v>
       </c>
       <c r="AZ8">
-        <v>56034.90115150398</v>
+        <v>56300.09729904872</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -2452,16 +2452,16 @@
         <v>17</v>
       </c>
       <c r="BO8">
-        <v>0.7676475850725564</v>
+        <v>0.7655075172351576</v>
       </c>
       <c r="BP8">
-        <v>0.2824683966413355</v>
+        <v>0.2837264226764897</v>
       </c>
       <c r="BQ8">
-        <v>0.2618636755823986</v>
+        <v>0.2637693631669535</v>
       </c>
       <c r="BR8">
-        <v>0.5952380952380952</v>
+        <v>0.5896414342629482</v>
       </c>
       <c r="BS8">
         <v>1</v>
@@ -2500,40 +2500,40 @@
         <v>17</v>
       </c>
       <c r="CE8">
-        <v>0.4921496476662496</v>
+        <v>0.4913857637649178</v>
       </c>
       <c r="CF8">
-        <v>0.2330448878989335</v>
+        <v>0.2330546393360981</v>
       </c>
       <c r="CG8">
-        <v>0.03517587939698492</v>
+        <v>0.03511705685618729</v>
       </c>
       <c r="CH8">
-        <v>0.3032886723507917</v>
+        <v>0.2996345919610232</v>
       </c>
       <c r="CI8">
-        <v>0.5829383886255924</v>
+        <v>0.5827014218009479</v>
       </c>
       <c r="CJ8">
-        <v>0.654113924050633</v>
+        <v>0.649367088607595</v>
       </c>
       <c r="CK8">
-        <v>0.7658227848101266</v>
+        <v>0.7645569620253164</v>
       </c>
       <c r="CL8">
         <v>17</v>
       </c>
       <c r="CM8">
-        <v>114147.0588235294</v>
+        <v>114129.4117647059</v>
       </c>
       <c r="CN8">
-        <v>87338.23702742587</v>
+        <v>87338.87854719885</v>
       </c>
       <c r="CO8">
         <v>0</v>
       </c>
       <c r="CP8">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="CQ8">
         <v>150000</v>
@@ -2548,22 +2548,22 @@
         <v>17</v>
       </c>
       <c r="CU8">
-        <v>26723.52941176471</v>
+        <v>26605.88235294117</v>
       </c>
       <c r="CV8">
-        <v>29246.95559822776</v>
+        <v>29288.19025196494</v>
       </c>
       <c r="CW8">
         <v>2100</v>
       </c>
       <c r="CX8">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="CY8">
         <v>11100</v>
       </c>
       <c r="CZ8">
-        <v>37800</v>
+        <v>36300</v>
       </c>
       <c r="DA8">
         <v>94000</v>
@@ -2577,22 +2577,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.4397797724141322</v>
+        <v>0.4439041494376688</v>
       </c>
       <c r="D9">
-        <v>0.2560184317400424</v>
+        <v>0.2525204615338253</v>
       </c>
       <c r="E9">
         <v>0.1688311688311688</v>
       </c>
       <c r="F9">
-        <v>0.2654356060606061</v>
+        <v>0.2794507575757575</v>
       </c>
       <c r="G9">
         <v>0.4166666666666667</v>
       </c>
       <c r="H9">
-        <v>0.5183581124757596</v>
+        <v>0.5187782805429865</v>
       </c>
       <c r="I9">
         <v>0.9253731343283582</v>
@@ -2601,13 +2601,13 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>21642.85714285714</v>
+        <v>21128.57142857143</v>
       </c>
       <c r="L9">
-        <v>21699.60499969658</v>
+        <v>20440.54094895031</v>
       </c>
       <c r="M9">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N9">
         <v>9500</v>
@@ -2619,22 +2619,22 @@
         <v>24000</v>
       </c>
       <c r="Q9">
-        <v>65700</v>
+        <v>62000</v>
       </c>
       <c r="R9">
         <v>7</v>
       </c>
       <c r="S9">
-        <v>8600</v>
+        <v>8642.857142857143</v>
       </c>
       <c r="T9">
-        <v>8017.480901130978</v>
+        <v>7987.04307881566</v>
       </c>
       <c r="U9">
         <v>900</v>
       </c>
       <c r="V9">
-        <v>3300</v>
+        <v>3450</v>
       </c>
       <c r="W9">
         <v>5900</v>
@@ -2649,10 +2649,10 @@
         <v>7</v>
       </c>
       <c r="AA9">
-        <v>19671.42857142857</v>
+        <v>19085.71428571429</v>
       </c>
       <c r="AB9">
-        <v>19445.36913901048</v>
+        <v>17994.48328159018</v>
       </c>
       <c r="AC9">
         <v>5000</v>
@@ -2664,10 +2664,10 @@
         <v>15100</v>
       </c>
       <c r="AF9">
-        <v>18650</v>
+        <v>18600</v>
       </c>
       <c r="AG9">
-        <v>62100</v>
+        <v>58100</v>
       </c>
       <c r="AH9">
         <v>7</v>
@@ -2697,10 +2697,10 @@
         <v>7</v>
       </c>
       <c r="AQ9">
-        <v>79842.85714285714</v>
+        <v>79300</v>
       </c>
       <c r="AR9">
-        <v>62303.50062778327</v>
+        <v>62116.26196093902</v>
       </c>
       <c r="AS9">
         <v>5000</v>
@@ -2709,10 +2709,10 @@
         <v>41500</v>
       </c>
       <c r="AU9">
-        <v>65200</v>
+        <v>65100</v>
       </c>
       <c r="AV9">
-        <v>106850</v>
+        <v>105000</v>
       </c>
       <c r="AW9">
         <v>192000</v>
@@ -2769,13 +2769,13 @@
         <v>7</v>
       </c>
       <c r="BO9">
-        <v>0.9532996415349356</v>
+        <v>0.9533531888672077</v>
       </c>
       <c r="BP9">
-        <v>0.1046291267467879</v>
+        <v>0.104489383940326</v>
       </c>
       <c r="BQ9">
-        <v>0.7192513368983957</v>
+        <v>0.719626168224299</v>
       </c>
       <c r="BR9">
         <v>0.976923076923077</v>
@@ -2817,22 +2817,22 @@
         <v>7</v>
       </c>
       <c r="CE9">
-        <v>0.7528245851985715</v>
+        <v>0.7542866911677198</v>
       </c>
       <c r="CF9">
-        <v>0.1079330122102841</v>
+        <v>0.1076286924539722</v>
       </c>
       <c r="CG9">
         <v>0.5846153846153846</v>
       </c>
       <c r="CH9">
-        <v>0.6954978662873399</v>
+        <v>0.70049786628734</v>
       </c>
       <c r="CI9">
         <v>0.7431818181818182</v>
       </c>
       <c r="CJ9">
-        <v>0.8326324376519163</v>
+        <v>0.8327498085439351</v>
       </c>
       <c r="CK9">
         <v>0.8857142857142857</v>
@@ -2865,13 +2865,13 @@
         <v>7</v>
       </c>
       <c r="CU9">
-        <v>44442.85714285714</v>
+        <v>44985.71428571428</v>
       </c>
       <c r="CV9">
-        <v>10535.31476240065</v>
+        <v>9850.622412048993</v>
       </c>
       <c r="CW9">
-        <v>31300</v>
+        <v>35000</v>
       </c>
       <c r="CX9">
         <v>38500</v>
@@ -2880,7 +2880,7 @@
         <v>40000</v>
       </c>
       <c r="CZ9">
-        <v>50400</v>
+        <v>50450</v>
       </c>
       <c r="DA9">
         <v>62000</v>
@@ -2894,94 +2894,94 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.6547948828997902</v>
+        <v>0.5742918232606872</v>
       </c>
       <c r="D10">
-        <v>0.2253288971261458</v>
+        <v>0.1706265250893139</v>
       </c>
       <c r="E10">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F10">
-        <v>0.5572134387351778</v>
+        <v>0.4637878787878787</v>
       </c>
       <c r="G10">
-        <v>0.6365674603174603</v>
+        <v>0.5973214285714286</v>
       </c>
       <c r="H10">
-        <v>0.7662465309898243</v>
+        <v>0.6849764150943396</v>
       </c>
       <c r="I10">
-        <v>1.169444444444445</v>
+        <v>0.8127450980392157</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>43400</v>
+        <v>44320</v>
       </c>
       <c r="L10">
-        <v>17283.17100534506</v>
+        <v>16038.2043882724</v>
       </c>
       <c r="M10">
-        <v>21000</v>
+        <v>18900</v>
       </c>
       <c r="N10">
-        <v>33800</v>
+        <v>34175</v>
       </c>
       <c r="O10">
-        <v>39000</v>
+        <v>41900</v>
       </c>
       <c r="P10">
-        <v>50500</v>
+        <v>50575</v>
       </c>
       <c r="Q10">
-        <v>77100</v>
+        <v>69700</v>
       </c>
       <c r="R10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S10">
-        <v>20581.81818181818</v>
+        <v>12320</v>
       </c>
       <c r="T10">
-        <v>16298.94586663924</v>
+        <v>15727.38588153374</v>
       </c>
       <c r="U10">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>12000</v>
+        <v>5125</v>
       </c>
       <c r="W10">
-        <v>19900</v>
+        <v>7300</v>
       </c>
       <c r="X10">
-        <v>21400</v>
+        <v>11675</v>
       </c>
       <c r="Y10">
-        <v>64900</v>
+        <v>54000</v>
       </c>
       <c r="Z10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>23909.09090909091</v>
+        <v>32220</v>
       </c>
       <c r="AB10">
-        <v>13373.81430598276</v>
+        <v>11111.83553194021</v>
       </c>
       <c r="AC10">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="AD10">
-        <v>12600</v>
+        <v>27750</v>
       </c>
       <c r="AE10">
-        <v>26000</v>
+        <v>34550</v>
       </c>
       <c r="AF10">
-        <v>31100</v>
+        <v>38600</v>
       </c>
       <c r="AG10">
         <v>49100</v>
@@ -2990,10 +2990,10 @@
         <v>18</v>
       </c>
       <c r="AI10">
-        <v>3</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="AJ10">
-        <v>0.9701425001453319</v>
+        <v>1.109966730938747</v>
       </c>
       <c r="AK10">
         <v>2</v>
@@ -3008,40 +3008,40 @@
         <v>4</v>
       </c>
       <c r="AO10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP10">
         <v>18</v>
       </c>
       <c r="AQ10">
-        <v>17855.55555555555</v>
+        <v>21438.88888888889</v>
       </c>
       <c r="AR10">
-        <v>12255.47763353774</v>
+        <v>9720.211743571705</v>
       </c>
       <c r="AS10">
-        <v>-6100</v>
+        <v>10300</v>
       </c>
       <c r="AT10">
-        <v>11000</v>
+        <v>14675</v>
       </c>
       <c r="AU10">
-        <v>16900</v>
+        <v>19850</v>
       </c>
       <c r="AV10">
-        <v>24725</v>
+        <v>25275</v>
       </c>
       <c r="AW10">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="AX10">
         <v>18</v>
       </c>
       <c r="AY10">
-        <v>83100</v>
+        <v>68677.77777777778</v>
       </c>
       <c r="AZ10">
-        <v>134486.5486385381</v>
+        <v>128658.3051230047</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -3050,34 +3050,34 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>6150</v>
+        <v>8550</v>
       </c>
       <c r="BD10">
-        <v>104850</v>
+        <v>77700</v>
       </c>
       <c r="BE10">
-        <v>507000</v>
+        <v>489100</v>
       </c>
       <c r="BF10">
         <v>18</v>
       </c>
       <c r="BG10">
-        <v>2.111111111111111</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="BH10">
-        <v>0.6763995415945232</v>
+        <v>0.7583952786593615</v>
       </c>
       <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK10">
         <v>2</v>
       </c>
       <c r="BL10">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="BM10">
         <v>3</v>
@@ -3086,19 +3086,19 @@
         <v>18</v>
       </c>
       <c r="BO10">
-        <v>0.6036533469006435</v>
+        <v>0.6218764789164084</v>
       </c>
       <c r="BP10">
-        <v>0.4267391437217638</v>
+        <v>0.4106515490094525</v>
       </c>
       <c r="BQ10">
-        <v>0.03707995365005794</v>
+        <v>0.0441717791411043</v>
       </c>
       <c r="BR10">
-        <v>0.1465324853682101</v>
+        <v>0.2183587697075534</v>
       </c>
       <c r="BS10">
-        <v>0.8324608884514881</v>
+        <v>0.7905339805825242</v>
       </c>
       <c r="BT10">
         <v>1</v>
@@ -3134,70 +3134,70 @@
         <v>18</v>
       </c>
       <c r="CE10">
-        <v>0.5385253237652541</v>
+        <v>0.5711890793691378</v>
       </c>
       <c r="CF10">
-        <v>0.2210032161675253</v>
+        <v>0.1974329996609055</v>
       </c>
       <c r="CG10">
-        <v>0.2004798720341242</v>
+        <v>0.2028792322047454</v>
       </c>
       <c r="CH10">
-        <v>0.394950295581719</v>
+        <v>0.5007078122246393</v>
       </c>
       <c r="CI10">
-        <v>0.550346645427997</v>
+        <v>0.5707107843137255</v>
       </c>
       <c r="CJ10">
-        <v>0.6660077867625037</v>
+        <v>0.6849764150943396</v>
       </c>
       <c r="CK10">
-        <v>0.955</v>
+        <v>0.875270367700072</v>
       </c>
       <c r="CL10">
         <v>18</v>
       </c>
       <c r="CM10">
-        <v>46227.77777777778</v>
+        <v>60811.11111111111</v>
       </c>
       <c r="CN10">
-        <v>74978.87393091278</v>
+        <v>101306.2734767775</v>
       </c>
       <c r="CO10">
-        <v>-15900</v>
+        <v>0</v>
       </c>
       <c r="CP10">
         <v>0</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CR10">
-        <v>75225</v>
+        <v>79175</v>
       </c>
       <c r="CS10">
-        <v>256100</v>
+        <v>353100</v>
       </c>
       <c r="CT10">
         <v>18</v>
       </c>
       <c r="CU10">
-        <v>35700</v>
+        <v>32116.66666666667</v>
       </c>
       <c r="CV10">
-        <v>18465.38892726861</v>
+        <v>18500.59617481365</v>
       </c>
       <c r="CW10">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="CX10">
-        <v>23675</v>
+        <v>21000</v>
       </c>
       <c r="CY10">
-        <v>35400</v>
+        <v>28600</v>
       </c>
       <c r="CZ10">
-        <v>40250</v>
+        <v>38275</v>
       </c>
       <c r="DA10">
         <v>82900</v>
@@ -3211,106 +3211,106 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.7013762915691109</v>
+        <v>0.6542783292930402</v>
       </c>
       <c r="D11">
-        <v>0.2243513206269722</v>
+        <v>0.2364500318267323</v>
       </c>
       <c r="E11">
         <v>0.312406015037594</v>
       </c>
       <c r="F11">
-        <v>0.5318205128205128</v>
+        <v>0.4488461538461538</v>
       </c>
       <c r="G11">
-        <v>0.7991897478296817</v>
+        <v>0.6761367595818815</v>
       </c>
       <c r="H11">
-        <v>0.8821507760532151</v>
+        <v>0.8479409843205575</v>
       </c>
       <c r="I11">
-        <v>0.9718654434250764</v>
+        <v>0.9691131498470948</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11">
-        <v>72064.28571428571</v>
+        <v>82300</v>
       </c>
       <c r="L11">
-        <v>71944.19426133069</v>
+        <v>83315.77481685767</v>
       </c>
       <c r="M11">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N11">
-        <v>16750</v>
+        <v>25300</v>
       </c>
       <c r="O11">
-        <v>54950</v>
+        <v>45000</v>
       </c>
       <c r="P11">
-        <v>102250</v>
+        <v>129000</v>
       </c>
       <c r="Q11">
-        <v>257000</v>
+        <v>297000</v>
       </c>
       <c r="R11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11">
-        <v>67142.85714285714</v>
+        <v>62469.23076923077</v>
       </c>
       <c r="T11">
-        <v>73266.9798044817</v>
+        <v>58786.1007469082</v>
       </c>
       <c r="U11">
         <v>100</v>
       </c>
       <c r="V11">
-        <v>9950</v>
+        <v>9900</v>
       </c>
       <c r="W11">
-        <v>46900</v>
+        <v>36900</v>
       </c>
       <c r="X11">
-        <v>98150</v>
+        <v>99900</v>
       </c>
       <c r="Y11">
-        <v>250900</v>
+        <v>153900</v>
       </c>
       <c r="Z11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA11">
-        <v>7792.857142857143</v>
+        <v>22307.69230769231</v>
       </c>
       <c r="AB11">
-        <v>5282.403923290153</v>
+        <v>39430.6027838459</v>
       </c>
       <c r="AC11">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="AD11">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="AE11">
-        <v>6150</v>
+        <v>8100</v>
       </c>
       <c r="AF11">
-        <v>8075</v>
+        <v>9900</v>
       </c>
       <c r="AG11">
-        <v>24100</v>
+        <v>143100</v>
       </c>
       <c r="AH11">
         <v>16</v>
       </c>
       <c r="AI11">
-        <v>1.9375</v>
+        <v>1.8125</v>
       </c>
       <c r="AJ11">
-        <v>1.526160760426852</v>
+        <v>1.223042653930489</v>
       </c>
       <c r="AK11">
         <v>1</v>
@@ -3325,40 +3325,40 @@
         <v>2</v>
       </c>
       <c r="AO11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP11">
         <v>16</v>
       </c>
       <c r="AQ11">
-        <v>69131.25</v>
+        <v>76012.5</v>
       </c>
       <c r="AR11">
-        <v>66423.61747400794</v>
+        <v>65148.30133370069</v>
       </c>
       <c r="AS11">
         <v>6000</v>
       </c>
       <c r="AT11">
-        <v>17075</v>
+        <v>23500</v>
       </c>
       <c r="AU11">
-        <v>38450</v>
+        <v>61600</v>
       </c>
       <c r="AV11">
-        <v>107950</v>
+        <v>108125</v>
       </c>
       <c r="AW11">
-        <v>215000</v>
+        <v>215200</v>
       </c>
       <c r="AX11">
         <v>16</v>
       </c>
       <c r="AY11">
-        <v>18168.75</v>
+        <v>7375</v>
       </c>
       <c r="AZ11">
-        <v>48922.88787810194</v>
+        <v>19625.68045529462</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>2550</v>
       </c>
       <c r="BE11">
-        <v>186300</v>
+        <v>78100</v>
       </c>
       <c r="BF11">
         <v>16</v>
@@ -3403,16 +3403,16 @@
         <v>16</v>
       </c>
       <c r="BO11">
-        <v>0.9286666417660173</v>
+        <v>0.9600785333869152</v>
       </c>
       <c r="BP11">
-        <v>0.1599282654205112</v>
+        <v>0.07778601398296822</v>
       </c>
       <c r="BQ11">
-        <v>0.4015419209765499</v>
+        <v>0.7617647058823529</v>
       </c>
       <c r="BR11">
-        <v>0.9725892244337679</v>
+        <v>0.9753843251560973</v>
       </c>
       <c r="BS11">
         <v>1</v>
@@ -3451,34 +3451,34 @@
         <v>16</v>
       </c>
       <c r="CE11">
-        <v>0.7053166884058784</v>
+        <v>0.7015837284962195</v>
       </c>
       <c r="CF11">
-        <v>0.1923192657743656</v>
+        <v>0.1997344076297178</v>
       </c>
       <c r="CG11">
-        <v>0.3657817109144543</v>
+        <v>0.3651917404129794</v>
       </c>
       <c r="CH11">
-        <v>0.5774849614053765</v>
+        <v>0.5364538054538055</v>
       </c>
       <c r="CI11">
-        <v>0.7324298655756867</v>
+        <v>0.7801711496564439</v>
       </c>
       <c r="CJ11">
-        <v>0.8338587206626783</v>
+        <v>0.8347123791992637</v>
       </c>
       <c r="CK11">
-        <v>0.9700354126940888</v>
+        <v>0.9889441680486457</v>
       </c>
       <c r="CL11">
         <v>16</v>
       </c>
       <c r="CM11">
-        <v>71781.25</v>
+        <v>82106.25</v>
       </c>
       <c r="CN11">
-        <v>129721.5490643966</v>
+        <v>149596.6598056253</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -3499,25 +3499,25 @@
         <v>16</v>
       </c>
       <c r="CU11">
-        <v>140431.25</v>
+        <v>133550</v>
       </c>
       <c r="CV11">
-        <v>61304.46116175668</v>
+        <v>65320.99203165855</v>
       </c>
       <c r="CW11">
-        <v>51900</v>
+        <v>39000</v>
       </c>
       <c r="CX11">
-        <v>93675</v>
+        <v>92075</v>
       </c>
       <c r="CY11">
-        <v>133000</v>
+        <v>127550</v>
       </c>
       <c r="CZ11">
-        <v>168075</v>
+        <v>163575</v>
       </c>
       <c r="DA11">
-        <v>317800</v>
+        <v>316900</v>
       </c>
     </row>
   </sheetData>
@@ -3942,25 +3942,25 @@
         <v>141</v>
       </c>
       <c r="B11">
-        <v>0.36875</v>
+        <v>0.371875</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="E11">
         <v>14900</v>
       </c>
       <c r="F11">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3978,13 +3978,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.36875</v>
+        <v>0.371875</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11800</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3992,28 +3992,28 @@
         <v>142</v>
       </c>
       <c r="B12">
-        <v>0.4944444444444445</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="E12">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="I12">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4022,19 +4022,19 @@
         <v>41</v>
       </c>
       <c r="L12">
-        <v>0.1854166666666667</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12">
-        <v>0.3024602026049204</v>
+        <v>0.2971428571428572</v>
       </c>
       <c r="O12">
         <v>12000</v>
       </c>
       <c r="P12">
-        <v>8900</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4042,28 +4042,28 @@
         <v>144</v>
       </c>
       <c r="B13">
-        <v>0.859375</v>
+        <v>0.875</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13">
-        <v>765700</v>
+        <v>765400</v>
       </c>
       <c r="E13">
-        <v>770200</v>
+        <v>769400</v>
       </c>
       <c r="F13">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="I13">
-        <v>770200</v>
+        <v>769400</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4072,19 +4072,19 @@
         <v>42</v>
       </c>
       <c r="L13">
-        <v>0.03447411307509089</v>
+        <v>0.03511412089290193</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.03428072799800549</v>
+        <v>0.03493885700024956</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>27500</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4092,25 +4092,25 @@
         <v>145</v>
       </c>
       <c r="B14">
-        <v>0.2705882352941176</v>
+        <v>0.288235294117647</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>24800</v>
+        <v>24200</v>
       </c>
       <c r="E14">
-        <v>16800</v>
+        <v>15900</v>
       </c>
       <c r="F14">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>24800</v>
+        <v>24200</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4128,13 +4128,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.2705882352941176</v>
+        <v>0.288235294117647</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>9200</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4142,25 +4142,25 @@
         <v>147</v>
       </c>
       <c r="B15">
-        <v>0.9368421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9368421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>17800</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4292,25 +4292,25 @@
         <v>152</v>
       </c>
       <c r="B18">
-        <v>0.08749999999999999</v>
+        <v>0.091875</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18">
-        <v>146000</v>
+        <v>145300</v>
       </c>
       <c r="E18">
-        <v>124900</v>
+        <v>123900</v>
       </c>
       <c r="F18">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>146000</v>
+        <v>145300</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4328,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0.08749999999999999</v>
+        <v>0.091875</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>14000</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4342,25 +4342,25 @@
         <v>153</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19">
-        <v>301000</v>
+        <v>300800</v>
       </c>
       <c r="E19">
         <v>307000</v>
       </c>
       <c r="F19">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I19">
         <v>307000</v>
@@ -4372,19 +4372,19 @@
         <v>48</v>
       </c>
       <c r="L19">
-        <v>0.07250755287009064</v>
+        <v>0.07194679564691657</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0.0712166172106825</v>
+        <v>0.07062314540059347</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>24000</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4392,25 +4392,25 @@
         <v>155</v>
       </c>
       <c r="B20">
-        <v>0.8193548387096774</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20">
-        <v>743400</v>
+        <v>743500</v>
       </c>
       <c r="E20">
         <v>749000</v>
       </c>
       <c r="F20">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="I20">
         <v>749000</v>
@@ -4422,19 +4422,19 @@
         <v>49</v>
       </c>
       <c r="L20">
-        <v>0.03279958677685951</v>
+        <v>0.0329244673983215</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0.03256410256410256</v>
+        <v>0.03269230769230769</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>25400</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4442,25 +4442,25 @@
         <v>156</v>
       </c>
       <c r="B21">
-        <v>0.303125</v>
+        <v>0.309375</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="E21">
         <v>18000</v>
       </c>
       <c r="F21">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4478,13 +4478,13 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>0.303125</v>
+        <v>0.309375</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>9700</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4498,13 +4498,13 @@
         <v>23</v>
       </c>
       <c r="D22">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="E22">
         <v>36000</v>
       </c>
       <c r="F22">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>36000</v>
       </c>
       <c r="I22">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -4522,13 +4522,13 @@
         <v>44</v>
       </c>
       <c r="L22">
-        <v>0.6338028169014085</v>
+        <v>0.6346967559943583</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0.4205607476635514</v>
+        <v>0.4209541627689429</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -4548,13 +4548,13 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <v>168300</v>
+        <v>130000</v>
       </c>
       <c r="E23">
         <v>181000</v>
       </c>
       <c r="F23">
-        <v>12700</v>
+        <v>51000</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4563,7 +4563,7 @@
         <v>181000</v>
       </c>
       <c r="I23">
-        <v>57700</v>
+        <v>51000</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -4578,10 +4578,10 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>-0.02887931034482758</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>-6700</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4601,10 +4601,10 @@
         <v>134000</v>
       </c>
       <c r="E24">
-        <v>71900</v>
+        <v>11600</v>
       </c>
       <c r="F24">
-        <v>62100</v>
+        <v>122400</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -4651,7 +4651,7 @@
         <v>61000</v>
       </c>
       <c r="I25">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4666,10 +4666,10 @@
         <v>2</v>
       </c>
       <c r="N25">
-        <v>0.7558139534883721</v>
+        <v>0.7560124127230411</v>
       </c>
       <c r="O25">
-        <v>195000</v>
+        <v>194900</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4685,6 +4685,15 @@
       <c r="C26" t="s">
         <v>23</v>
       </c>
+      <c r="D26">
+        <v>84000</v>
+      </c>
+      <c r="E26">
+        <v>79600</v>
+      </c>
+      <c r="F26">
+        <v>4400</v>
+      </c>
       <c r="G26">
         <v>3</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>84000</v>
       </c>
       <c r="I26">
-        <v>119400</v>
+        <v>115000</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4707,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0.3720284038283421</v>
+        <v>0.3856128434702069</v>
       </c>
       <c r="O26">
-        <v>120500</v>
+        <v>124900</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4721,7 +4730,7 @@
         <v>104</v>
       </c>
       <c r="B27">
-        <v>0.4042553191489361</v>
+        <v>0.4085106382978723</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -4730,7 +4739,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4748,13 +4757,13 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>0.9366515837104072</v>
+        <v>0.93710407239819</v>
       </c>
       <c r="O27">
         <v>395000</v>
       </c>
       <c r="P27">
-        <v>19000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4767,15 +4776,6 @@
       <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="D28">
-        <v>46000</v>
-      </c>
-      <c r="E28">
-        <v>20900</v>
-      </c>
-      <c r="F28">
-        <v>25100</v>
-      </c>
       <c r="G28">
         <v>4</v>
       </c>
@@ -4798,10 +4798,10 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.8016548463356974</v>
+        <v>0.8016079451406952</v>
       </c>
       <c r="O28">
-        <v>298000</v>
+        <v>297900</v>
       </c>
       <c r="P28">
         <v>41100</v>
@@ -4812,28 +4812,19 @@
         <v>102</v>
       </c>
       <c r="B29">
-        <v>0.6056338028169014</v>
+        <v>0.6084507042253521</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="D29">
-        <v>50000</v>
-      </c>
-      <c r="E29">
-        <v>45000</v>
-      </c>
-      <c r="F29">
-        <v>5000</v>
-      </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="I29">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -4842,19 +4833,19 @@
         <v>41</v>
       </c>
       <c r="L29">
-        <v>0.9148936170212766</v>
+        <v>0.9250535331905781</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.7195442594215601</v>
+        <v>0.7259194395796847</v>
       </c>
       <c r="O29">
-        <v>39100</v>
+        <v>39700</v>
       </c>
       <c r="P29">
-        <v>43000</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -4882,8 +4873,11 @@
       <c r="M30">
         <v>0</v>
       </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
       <c r="O30">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -4899,6 +4893,15 @@
       <c r="C31" t="s">
         <v>23</v>
       </c>
+      <c r="D31">
+        <v>183000</v>
+      </c>
+      <c r="E31">
+        <v>5000</v>
+      </c>
+      <c r="F31">
+        <v>178000</v>
+      </c>
       <c r="G31">
         <v>5</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>183000</v>
       </c>
       <c r="I31">
-        <v>100100</v>
+        <v>76100</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -4921,10 +4924,10 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.0867741935483871</v>
+        <v>0.1123672490578965</v>
       </c>
       <c r="O31">
-        <v>26900</v>
+        <v>32800</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -4941,13 +4944,13 @@
         <v>23</v>
       </c>
       <c r="D32">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="E32">
-        <v>90000</v>
+        <v>17800</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>62200</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -4956,7 +4959,7 @@
         <v>200000</v>
       </c>
       <c r="I32">
-        <v>79900</v>
+        <v>70100</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -4971,10 +4974,10 @@
         <v>3</v>
       </c>
       <c r="N32">
-        <v>0.6594890510948905</v>
+        <v>0.6714111922141119</v>
       </c>
       <c r="O32">
-        <v>542100</v>
+        <v>551900</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -4997,7 +5000,7 @@
         <v>50000</v>
       </c>
       <c r="I33">
-        <v>632700</v>
+        <v>436000</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -5012,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>-0.2765519820493643</v>
+        <v>0.09514056972630795</v>
       </c>
       <c r="O33">
-        <v>-147900</v>
+        <v>51100</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -5038,7 +5041,7 @@
         <v>129000</v>
       </c>
       <c r="I34">
-        <v>181200</v>
+        <v>169300</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5053,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0.5649978965082036</v>
+        <v>0.5816855980928342</v>
       </c>
       <c r="O34">
-        <v>402900</v>
+        <v>414800</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5064,43 +5067,52 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35">
-        <v>1.128571428571429</v>
+        <v>0.6972602739726027</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
       </c>
+      <c r="D35">
+        <v>17000</v>
+      </c>
+      <c r="E35">
+        <v>11900</v>
+      </c>
+      <c r="F35">
+        <v>5100</v>
+      </c>
       <c r="G35">
         <v>7</v>
       </c>
       <c r="H35">
-        <v>-7200</v>
+        <v>22100</v>
       </c>
       <c r="I35">
-        <v>489400</v>
+        <v>53100</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L35">
-        <v>0.1143684401013391</v>
+        <v>0.4894230769230769</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>0.1990033222591362</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="O35">
-        <v>56600</v>
+        <v>65900</v>
       </c>
       <c r="P35">
-        <v>63200</v>
+        <v>50900</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -5108,7 +5120,7 @@
         <v>111</v>
       </c>
       <c r="B36">
-        <v>0.2194690265486726</v>
+        <v>0.220353982300885</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -5117,7 +5129,7 @@
         <v>7</v>
       </c>
       <c r="H36">
-        <v>88200</v>
+        <v>88100</v>
       </c>
       <c r="I36">
         <v>6900</v>
@@ -5129,60 +5141,60 @@
         <v>46</v>
       </c>
       <c r="L36">
-        <v>0.7823343848580442</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="M36">
         <v>2</v>
       </c>
       <c r="N36">
-        <v>0.7056638811513464</v>
+        <v>0.7059733828536057</v>
       </c>
       <c r="O36">
         <v>203200</v>
       </c>
       <c r="P36">
-        <v>24800</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37">
-        <v>0.863013698630137</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>53200</v>
+        <v>483200</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L37">
-        <v>0.5421686746987951</v>
+        <v>0.1038575667655786</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0.6708333333333333</v>
+        <v>0.1974755024082378</v>
       </c>
       <c r="O37">
-        <v>65800</v>
+        <v>62900</v>
       </c>
       <c r="P37">
-        <v>63000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -5190,7 +5202,7 @@
         <v>106</v>
       </c>
       <c r="B38">
-        <v>1.28135593220339</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -5199,172 +5211,172 @@
         <v>10</v>
       </c>
       <c r="H38">
-        <v>-33200</v>
+        <v>58400</v>
       </c>
       <c r="I38">
-        <v>16000</v>
+        <v>11200</v>
       </c>
       <c r="J38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K38" t="s">
         <v>33</v>
       </c>
       <c r="L38">
-        <v>0.9043062200956937</v>
+        <v>0.8418079096045198</v>
       </c>
       <c r="M38">
         <v>2</v>
       </c>
       <c r="N38">
-        <v>1.047123287671233</v>
+        <v>0.8093150684931507</v>
       </c>
       <c r="O38">
-        <v>231000</v>
+        <v>235800</v>
       </c>
       <c r="P38">
-        <v>151200</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B39">
-        <v>0.1184873949579832</v>
+        <v>0.07829787234042553</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
       </c>
       <c r="D39">
-        <v>118000</v>
+        <v>132000</v>
       </c>
       <c r="E39">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="F39">
         <v>119000</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>104900</v>
+        <v>216600</v>
       </c>
       <c r="I39">
-        <v>163400</v>
+        <v>230000</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="L39">
-        <v>0.07943661971830986</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>0.2154970760233918</v>
+        <v>0.5590877677954388</v>
       </c>
       <c r="O39">
-        <v>59600</v>
+        <v>547900</v>
       </c>
       <c r="P39">
-        <v>14100</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B40">
-        <v>0.2723684210526316</v>
+        <v>0.1168067226890756</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
       </c>
-      <c r="D40">
-        <v>169900</v>
-      </c>
-      <c r="E40">
-        <v>94900</v>
-      </c>
-      <c r="F40">
-        <v>75000</v>
-      </c>
       <c r="G40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40">
-        <v>165900</v>
+        <v>105100</v>
       </c>
       <c r="I40">
-        <v>274200</v>
+        <v>70200</v>
       </c>
       <c r="J40">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L40">
-        <v>0.1846565566458519</v>
+        <v>0.1652794292508918</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0.4779978650219428</v>
+        <v>0.4874269005847953</v>
       </c>
       <c r="O40">
-        <v>340900</v>
+        <v>152800</v>
       </c>
       <c r="P40">
-        <v>62100</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B41">
-        <v>0.1404255319148936</v>
+        <v>0.2153508771929825</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
+      <c r="D41">
+        <v>15000</v>
+      </c>
+      <c r="E41">
+        <v>32100</v>
+      </c>
+      <c r="F41">
+        <v>47100</v>
+      </c>
       <c r="G41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41">
-        <v>202000</v>
+        <v>178900</v>
       </c>
       <c r="I41">
-        <v>615100</v>
+        <v>273800</v>
       </c>
       <c r="J41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L41">
-        <v>0.05091806819935195</v>
+        <v>0.1520594611334778</v>
       </c>
       <c r="M41">
         <v>2</v>
       </c>
       <c r="N41">
-        <v>0.2516713984797143</v>
+        <v>0.4630530186217531</v>
       </c>
       <c r="O41">
-        <v>241800</v>
+        <v>341300</v>
       </c>
       <c r="P41">
-        <v>33000</v>
+        <v>49100</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -5448,25 +5460,25 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>0.8873239436619719</v>
+        <v>0.8866197183098592</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
       <c r="D44">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="E44">
         <v>10900</v>
       </c>
       <c r="F44">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5484,13 +5496,13 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <v>0.8873239436619719</v>
+        <v>0.8866197183098592</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>126000</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -5648,25 +5660,25 @@
         <v>9</v>
       </c>
       <c r="B48">
-        <v>0.5246753246753246</v>
+        <v>0.5240259740259741</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
       </c>
       <c r="D48">
-        <v>58900</v>
+        <v>58800</v>
       </c>
       <c r="E48">
         <v>74100</v>
       </c>
       <c r="F48">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>73200</v>
+        <v>73300</v>
       </c>
       <c r="I48">
         <v>74100</v>
@@ -5678,19 +5690,19 @@
         <v>34</v>
       </c>
       <c r="L48">
-        <v>0.5216268560361523</v>
+        <v>0.5213178294573644</v>
       </c>
       <c r="M48">
         <v>2</v>
       </c>
       <c r="N48">
-        <v>0.4177865612648221</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="O48">
         <v>24900</v>
       </c>
       <c r="P48">
-        <v>80800</v>
+        <v>80700</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -5698,25 +5710,25 @@
         <v>10</v>
       </c>
       <c r="B49">
-        <v>0.5503875968992248</v>
+        <v>0.5511627906976744</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
       </c>
       <c r="D49">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="E49">
         <v>52900</v>
       </c>
       <c r="F49">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5734,13 +5746,13 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <v>0.5503875968992248</v>
+        <v>0.5511627906976744</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>71000</v>
+        <v>71100</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -5754,13 +5766,13 @@
         <v>24</v>
       </c>
       <c r="D50">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="E50">
         <v>70000</v>
       </c>
       <c r="F50">
-        <v>53000</v>
+        <v>52900</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5769,7 +5781,7 @@
         <v>84000</v>
       </c>
       <c r="I50">
-        <v>53000</v>
+        <v>52900</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -5778,16 +5790,16 @@
         <v>46</v>
       </c>
       <c r="L50">
-        <v>0.4361702127659575</v>
+        <v>0.4366347177848775</v>
       </c>
       <c r="M50">
         <v>2</v>
       </c>
       <c r="N50">
-        <v>0.2388888888888889</v>
+        <v>0.2394444444444444</v>
       </c>
       <c r="O50">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="P50">
         <v>41000</v>
@@ -5848,25 +5860,25 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>0.008035714285714285</v>
+        <v>0.005357142857142857</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52">
-        <v>111100</v>
+        <v>111400</v>
       </c>
       <c r="E52">
         <v>110900</v>
       </c>
       <c r="F52">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>111100</v>
+        <v>111400</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5884,13 +5896,13 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0.008035714285714285</v>
+        <v>0.005357142857142857</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -5898,25 +5910,25 @@
         <v>16</v>
       </c>
       <c r="B53">
-        <v>0.7705882352941177</v>
+        <v>0.7713235294117647</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
       </c>
       <c r="D53">
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="E53">
         <v>1900</v>
       </c>
       <c r="F53">
-        <v>29300</v>
+        <v>29200</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5934,13 +5946,13 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>0.7705882352941177</v>
+        <v>0.7713235294117647</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
-        <v>104800</v>
+        <v>104900</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -5948,16 +5960,16 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>0.8463276836158192</v>
+        <v>0.8457627118644068</v>
       </c>
       <c r="C54" t="s">
         <v>24</v>
       </c>
       <c r="D54">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="E54">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="F54">
         <v>13300</v>
@@ -5966,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="I54">
         <v>68000</v>
@@ -5978,19 +5990,19 @@
         <v>33</v>
       </c>
       <c r="L54">
-        <v>0.6877869605142333</v>
+        <v>0.6876435461644465</v>
       </c>
       <c r="M54">
         <v>4</v>
       </c>
       <c r="N54">
-        <v>0.6130081300813008</v>
+        <v>0.6126016260162601</v>
       </c>
       <c r="O54">
         <v>1000</v>
       </c>
       <c r="P54">
-        <v>149800</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -5998,25 +6010,16 @@
         <v>7</v>
       </c>
       <c r="B55">
-        <v>0.9227848101265823</v>
+        <v>0.9215189873417722</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="D55">
-        <v>39000</v>
-      </c>
-      <c r="E55">
-        <v>45100</v>
-      </c>
-      <c r="F55">
-        <v>6100</v>
-      </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I55">
         <v>132200</v>
@@ -6028,19 +6031,19 @@
         <v>44</v>
       </c>
       <c r="L55">
-        <v>0.3554363725012189</v>
+        <v>0.3551219512195122</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55">
-        <v>0.4092268261426741</v>
+        <v>0.4087996582656984</v>
       </c>
       <c r="O55">
         <v>22900</v>
       </c>
       <c r="P55">
-        <v>72900</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -6098,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <v>0.5136612021857924</v>
+        <v>0.5131147540983606</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
@@ -6116,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="H57">
-        <v>89000</v>
+        <v>89100</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6134,13 +6137,13 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>0.5136612021857924</v>
+        <v>0.5131147540983606</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>94000</v>
+        <v>93900</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6154,13 +6157,13 @@
         <v>24</v>
       </c>
       <c r="D58">
-        <v>69100</v>
+        <v>85900</v>
       </c>
       <c r="E58">
-        <v>67900</v>
+        <v>6900</v>
       </c>
       <c r="F58">
-        <v>1200</v>
+        <v>79000</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -6198,25 +6201,25 @@
         <v>18</v>
       </c>
       <c r="B59">
-        <v>0.7651515151515151</v>
+        <v>0.7643939393939394</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59">
-        <v>122000</v>
+        <v>41000</v>
       </c>
       <c r="E59">
-        <v>119900</v>
+        <v>12900</v>
       </c>
       <c r="F59">
-        <v>2100</v>
+        <v>28100</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -6234,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>0.7651515151515151</v>
+        <v>0.7643939393939394</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <v>101000</v>
+        <v>100900</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6248,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>0.6292207792207792</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
@@ -6266,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="H60">
-        <v>57100</v>
+        <v>56000</v>
       </c>
       <c r="I60">
         <v>94000</v>
@@ -6278,19 +6281,19 @@
         <v>32</v>
       </c>
       <c r="L60">
-        <v>0.5075955997904662</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="M60">
         <v>2</v>
       </c>
       <c r="N60">
-        <v>0.3907258064516129</v>
+        <v>0.3951612903225806</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>96900</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6298,49 +6301,40 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>0.788235294117647</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
       </c>
-      <c r="D61">
-        <v>117000</v>
-      </c>
-      <c r="E61">
-        <v>9900</v>
-      </c>
-      <c r="F61">
-        <v>126900</v>
-      </c>
       <c r="G61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H61">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="I61">
-        <v>323900</v>
+        <v>234000</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="s">
         <v>42</v>
       </c>
       <c r="L61">
-        <v>0.1713993348682528</v>
+        <v>0.09652509652509653</v>
       </c>
       <c r="M61">
         <v>3</v>
       </c>
       <c r="N61">
-        <v>0.4185374149659864</v>
+        <v>0.5612595135054469</v>
       </c>
       <c r="O61">
-        <v>179100</v>
+        <v>351100</v>
       </c>
       <c r="P61">
-        <v>67000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6445,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>55900</v>
+        <v>57900</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -6480,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>86000</v>
+        <v>83900</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -6620,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>122000</v>
+        <v>124000</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -6655,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>75900</v>
+        <v>78000</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -6690,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -6725,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>109900</v>
+        <v>110000</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -6736,28 +6730,28 @@
         <v>82</v>
       </c>
       <c r="B73">
-        <v>0.5862068965517241</v>
+        <v>0.5655172413793104</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
       </c>
       <c r="D73">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="F73">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>36000</v>
+        <v>37800</v>
       </c>
       <c r="I73">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -6766,19 +6760,19 @@
         <v>41</v>
       </c>
       <c r="L73">
-        <v>0.9107142857142857</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="M73">
         <v>2</v>
       </c>
       <c r="N73">
-        <v>0.8056872037914692</v>
+        <v>0.7979127134724858</v>
       </c>
       <c r="O73">
         <v>119000</v>
       </c>
       <c r="P73">
-        <v>51000</v>
+        <v>49200</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6842,13 +6836,13 @@
         <v>25</v>
       </c>
       <c r="D75">
-        <v>23100</v>
+        <v>23000</v>
       </c>
       <c r="E75">
         <v>132900</v>
       </c>
       <c r="F75">
-        <v>109800</v>
+        <v>109900</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6857,7 +6851,7 @@
         <v>133900</v>
       </c>
       <c r="I75">
-        <v>109800</v>
+        <v>109900</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -6866,16 +6860,16 @@
         <v>42</v>
       </c>
       <c r="L75">
-        <v>0.0009099181073703367</v>
+        <v>0.0009090909090909091</v>
       </c>
       <c r="M75">
         <v>2</v>
       </c>
       <c r="N75">
-        <v>0.001229508196721312</v>
+        <v>0.000819672131147541</v>
       </c>
       <c r="O75">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P75">
         <v>100</v>
@@ -6886,28 +6880,28 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C76" t="s">
         <v>25</v>
       </c>
       <c r="D76">
-        <v>65000</v>
+        <v>64800</v>
       </c>
       <c r="E76">
-        <v>65200</v>
+        <v>65100</v>
       </c>
       <c r="F76">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I76">
-        <v>65200</v>
+        <v>65100</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -6916,7 +6910,7 @@
         <v>33</v>
       </c>
       <c r="L76">
-        <v>0.01212121212121212</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="M76">
         <v>2</v>
@@ -6925,10 +6919,10 @@
         <v>0.03823529411764706</v>
       </c>
       <c r="O76">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="P76">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6936,25 +6930,25 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>0.9761904761904762</v>
+        <v>0.975</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
       </c>
       <c r="D77">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E77">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6972,13 +6966,13 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>0.9761904761904762</v>
+        <v>0.975</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>82000</v>
+        <v>81900</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -7036,25 +7030,25 @@
         <v>97</v>
       </c>
       <c r="B79">
-        <v>0.9192307692307692</v>
+        <v>0.9173076923076923</v>
       </c>
       <c r="C79" t="s">
         <v>25</v>
       </c>
       <c r="D79">
-        <v>54000</v>
+        <v>53900</v>
       </c>
       <c r="E79">
         <v>54200</v>
       </c>
       <c r="F79">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I79">
         <v>54200</v>
@@ -7066,19 +7060,19 @@
         <v>37</v>
       </c>
       <c r="L79">
-        <v>0.4686274509803922</v>
+        <v>0.4681059862610402</v>
       </c>
       <c r="M79">
         <v>2</v>
       </c>
       <c r="N79">
-        <v>0.4592592592592593</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="O79">
         <v>1800</v>
       </c>
       <c r="P79">
-        <v>47800</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7086,25 +7080,25 @@
         <v>99</v>
       </c>
       <c r="B80">
-        <v>0.8333333333333334</v>
+        <v>0.8319444444444445</v>
       </c>
       <c r="C80" t="s">
         <v>25</v>
       </c>
       <c r="D80">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="E80">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="F80">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7122,13 +7116,13 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <v>0.8333333333333334</v>
+        <v>0.8319444444444445</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>60000</v>
+        <v>59900</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7136,16 +7130,16 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.9230769230769231</v>
+        <v>0.9153846153846154</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
       </c>
       <c r="D81">
+        <v>1100</v>
+      </c>
+      <c r="E81">
         <v>1000</v>
-      </c>
-      <c r="E81">
-        <v>900</v>
       </c>
       <c r="F81">
         <v>100</v>
@@ -7154,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I81">
         <v>50000</v>
@@ -7166,19 +7160,19 @@
         <v>40</v>
       </c>
       <c r="L81">
-        <v>0.1935483870967742</v>
+        <v>0.1922455573505654</v>
       </c>
       <c r="M81">
         <v>2</v>
       </c>
       <c r="N81">
-        <v>0.1904761904761905</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>12000</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7306,13 +7300,13 @@
         <v>26</v>
       </c>
       <c r="D85">
-        <v>48200</v>
+        <v>48100</v>
       </c>
       <c r="E85">
         <v>52900</v>
       </c>
       <c r="F85">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7321,7 +7315,7 @@
         <v>52900</v>
       </c>
       <c r="I85">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -7330,13 +7324,13 @@
         <v>31</v>
       </c>
       <c r="L85">
-        <v>0.3088235294117647</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>0.03517587939698492</v>
+        <v>0.03511705685618729</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -7350,25 +7344,25 @@
         <v>121</v>
       </c>
       <c r="B86">
-        <v>0.5726415094339623</v>
+        <v>0.5783018867924529</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86">
-        <v>166800</v>
+        <v>167400</v>
       </c>
       <c r="E86">
         <v>171100</v>
       </c>
       <c r="F86">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>45300</v>
+        <v>44700</v>
       </c>
       <c r="I86">
         <v>171100</v>
@@ -7380,19 +7374,19 @@
         <v>40</v>
       </c>
       <c r="L86">
-        <v>0.2618636755823986</v>
+        <v>0.2637693631669535</v>
       </c>
       <c r="M86">
         <v>3</v>
       </c>
       <c r="N86">
-        <v>0.2904918032786885</v>
+        <v>0.2924590163934426</v>
       </c>
       <c r="O86">
         <v>27900</v>
       </c>
       <c r="P86">
-        <v>60700</v>
+        <v>61300</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7400,25 +7394,25 @@
         <v>122</v>
       </c>
       <c r="B87">
-        <v>0.0504950495049505</v>
+        <v>0.04851485148514852</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="E87">
-        <v>56900</v>
+        <v>56700</v>
       </c>
       <c r="F87">
-        <v>27000</v>
+        <v>27400</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>95900</v>
+        <v>96100</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -7436,13 +7430,13 @@
         <v>2</v>
       </c>
       <c r="N87">
-        <v>0.1281818181818182</v>
+        <v>0.1263636363636364</v>
       </c>
       <c r="O87">
         <v>9000</v>
       </c>
       <c r="P87">
-        <v>5100</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7450,25 +7444,25 @@
         <v>124</v>
       </c>
       <c r="B88">
-        <v>0.03296703296703297</v>
+        <v>0.03241758241758242</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="E88">
         <v>20900</v>
       </c>
       <c r="F88">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>176000</v>
+        <v>176100</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -7486,13 +7480,13 @@
         <v>3</v>
       </c>
       <c r="N88">
-        <v>0.5829383886255924</v>
+        <v>0.5827014218009479</v>
       </c>
       <c r="O88">
         <v>240000</v>
       </c>
       <c r="P88">
-        <v>6000</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7500,25 +7494,25 @@
         <v>127</v>
       </c>
       <c r="B89">
-        <v>0.07792207792207792</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E89">
         <v>3000</v>
       </c>
       <c r="F89">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>71000</v>
+        <v>71400</v>
       </c>
       <c r="I89">
         <v>3000</v>
@@ -7530,19 +7524,19 @@
         <v>44</v>
       </c>
       <c r="L89">
-        <v>0.6666666666666666</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="M89">
         <v>4</v>
       </c>
       <c r="N89">
-        <v>0.7658227848101266</v>
+        <v>0.7645569620253164</v>
       </c>
       <c r="O89">
         <v>236000</v>
       </c>
       <c r="P89">
-        <v>6000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7550,25 +7544,25 @@
         <v>128</v>
       </c>
       <c r="B90">
-        <v>0.07906976744186046</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="E90">
         <v>49000</v>
       </c>
       <c r="F90">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>118800</v>
+        <v>119000</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -7586,13 +7580,13 @@
         <v>2</v>
       </c>
       <c r="N90">
-        <v>0.5741935483870968</v>
+        <v>0.5734767025089605</v>
       </c>
       <c r="O90">
         <v>150000</v>
       </c>
       <c r="P90">
-        <v>10200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -7600,16 +7594,16 @@
         <v>129</v>
       </c>
       <c r="B91">
-        <v>0.07465753424657534</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="E91">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="F91">
         <v>6100</v>
@@ -7618,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>135100</v>
+        <v>135000</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7636,13 +7630,13 @@
         <v>2</v>
       </c>
       <c r="N91">
-        <v>0.5918429003021148</v>
+        <v>0.5921450151057401</v>
       </c>
       <c r="O91">
         <v>185000</v>
       </c>
       <c r="P91">
-        <v>10900</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7650,25 +7644,25 @@
         <v>130</v>
       </c>
       <c r="B92">
-        <v>0.5178861788617887</v>
+        <v>0.516260162601626</v>
       </c>
       <c r="C92" t="s">
         <v>26</v>
       </c>
       <c r="D92">
-        <v>62800</v>
+        <v>62600</v>
       </c>
       <c r="E92">
         <v>63100</v>
       </c>
       <c r="F92">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="I92">
         <v>63100</v>
@@ -7680,19 +7674,19 @@
         <v>35</v>
       </c>
       <c r="L92">
-        <v>0.5023659305993691</v>
+        <v>0.5015797788309637</v>
       </c>
       <c r="M92">
         <v>2</v>
       </c>
       <c r="N92">
-        <v>0.596039603960396</v>
+        <v>0.5953795379537954</v>
       </c>
       <c r="O92">
         <v>116900</v>
       </c>
       <c r="P92">
-        <v>63700</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7800,25 +7794,25 @@
         <v>134</v>
       </c>
       <c r="B95">
-        <v>0.05238095238095238</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95">
-        <v>31500</v>
+        <v>31400</v>
       </c>
       <c r="E95">
         <v>20900</v>
       </c>
       <c r="F95">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>99500</v>
+        <v>99400</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -7836,13 +7830,13 @@
         <v>2</v>
       </c>
       <c r="N95">
-        <v>0.6381818181818182</v>
+        <v>0.6385454545454545</v>
       </c>
       <c r="O95">
         <v>170000</v>
       </c>
       <c r="P95">
-        <v>5500</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -7856,10 +7850,10 @@
         <v>26</v>
       </c>
       <c r="D96">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="E96">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="F96">
         <v>1000</v>
@@ -7871,7 +7865,7 @@
         <v>57000</v>
       </c>
       <c r="I96">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -7880,16 +7874,16 @@
         <v>50</v>
       </c>
       <c r="L96">
-        <v>0.722521137586472</v>
+        <v>0.7214121258633922</v>
       </c>
       <c r="M96">
         <v>2</v>
       </c>
       <c r="N96">
-        <v>0.7332378223495702</v>
+        <v>0.7326647564469914</v>
       </c>
       <c r="O96">
-        <v>161900</v>
+        <v>161700</v>
       </c>
       <c r="P96">
         <v>94000</v>
@@ -7900,25 +7894,25 @@
         <v>137</v>
       </c>
       <c r="B97">
-        <v>0.06301369863013699</v>
+        <v>0.06438356164383562</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="D97">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="E97">
         <v>8000</v>
       </c>
       <c r="F97">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>68400</v>
+        <v>68300</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7936,13 +7930,13 @@
         <v>3</v>
       </c>
       <c r="N97">
-        <v>0.7126050420168067</v>
+        <v>0.7130252100840336</v>
       </c>
       <c r="O97">
         <v>165000</v>
       </c>
       <c r="P97">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7950,25 +7944,25 @@
         <v>138</v>
       </c>
       <c r="B98">
-        <v>0.2930232558139535</v>
+        <v>0.2813953488372093</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
       </c>
       <c r="D98">
-        <v>4900</v>
+        <v>3400</v>
       </c>
       <c r="E98">
         <v>18100</v>
       </c>
       <c r="F98">
-        <v>13200</v>
+        <v>14700</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>91200</v>
+        <v>92700</v>
       </c>
       <c r="I98">
         <v>18100</v>
@@ -7980,19 +7974,19 @@
         <v>38</v>
       </c>
       <c r="L98">
-        <v>0.6762075134168157</v>
+        <v>0.6672794117647058</v>
       </c>
       <c r="M98">
         <v>2</v>
       </c>
       <c r="N98">
-        <v>0.654113924050633</v>
+        <v>0.649367088607595</v>
       </c>
       <c r="O98">
         <v>168900</v>
       </c>
       <c r="P98">
-        <v>37800</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -8000,28 +7994,28 @@
         <v>126</v>
       </c>
       <c r="B99">
-        <v>0.9886075949367089</v>
+        <v>0.9898734177215189</v>
       </c>
       <c r="C99" t="s">
         <v>26</v>
       </c>
       <c r="D99">
-        <v>7900</v>
+        <v>9700</v>
       </c>
       <c r="E99">
-        <v>8800</v>
+        <v>10500</v>
       </c>
       <c r="F99">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I99">
-        <v>168800</v>
+        <v>170500</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -8030,19 +8024,19 @@
         <v>33</v>
       </c>
       <c r="L99">
-        <v>0.3163223977318753</v>
+        <v>0.3144350623240852</v>
       </c>
       <c r="M99">
         <v>4</v>
       </c>
       <c r="N99">
-        <v>0.3151735270379338</v>
+        <v>0.3134268537074149</v>
       </c>
       <c r="O99">
         <v>0</v>
       </c>
       <c r="P99">
-        <v>78100</v>
+        <v>78200</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -8050,25 +8044,25 @@
         <v>123</v>
       </c>
       <c r="B100">
-        <v>0.1005988023952096</v>
+        <v>0.09940119760479042</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
       </c>
       <c r="D100">
-        <v>15200</v>
+        <v>40900</v>
       </c>
       <c r="E100">
-        <v>4900</v>
+        <v>17800</v>
       </c>
       <c r="F100">
-        <v>10300</v>
+        <v>23100</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
       <c r="H100">
-        <v>150200</v>
+        <v>150400</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -8086,13 +8080,13 @@
         <v>3</v>
       </c>
       <c r="N100">
-        <v>0.5780898876404494</v>
+        <v>0.5775280898876405</v>
       </c>
       <c r="O100">
         <v>189000</v>
       </c>
       <c r="P100">
-        <v>16800</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -8100,7 +8094,7 @@
         <v>133</v>
       </c>
       <c r="B101">
-        <v>0.2419354838709677</v>
+        <v>0.2387096774193548</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
@@ -8118,10 +8112,10 @@
         <v>2</v>
       </c>
       <c r="H101">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="I101">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="J101">
         <v>2</v>
@@ -8130,19 +8124,19 @@
         <v>48</v>
       </c>
       <c r="L101">
-        <v>0.5952380952380952</v>
+        <v>0.5896414342629482</v>
       </c>
       <c r="M101">
         <v>2</v>
       </c>
       <c r="N101">
-        <v>0.3032886723507917</v>
+        <v>0.2996345919610232</v>
       </c>
       <c r="O101">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="P101">
-        <v>15000</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -8794,25 +8788,25 @@
         <v>49</v>
       </c>
       <c r="B118">
-        <v>0.4521008403361345</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E118">
         <v>21000</v>
       </c>
       <c r="F118">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>65200</v>
+        <v>65100</v>
       </c>
       <c r="I118">
         <v>21000</v>
@@ -8824,19 +8818,19 @@
         <v>34</v>
       </c>
       <c r="L118">
-        <v>0.7192513368983957</v>
+        <v>0.719626168224299</v>
       </c>
       <c r="M118">
         <v>3</v>
       </c>
       <c r="N118">
-        <v>0.7976525821596244</v>
+        <v>0.797887323943662</v>
       </c>
       <c r="O118">
         <v>286000</v>
       </c>
       <c r="P118">
-        <v>53800</v>
+        <v>53900</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8894,25 +8888,25 @@
         <v>57</v>
       </c>
       <c r="B120">
-        <v>0.2371212121212121</v>
+        <v>0.2651515151515151</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120">
-        <v>65700</v>
+        <v>62000</v>
       </c>
       <c r="E120">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="F120">
-        <v>62100</v>
+        <v>58100</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>100700</v>
+        <v>97000</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -8930,13 +8924,13 @@
         <v>2</v>
       </c>
       <c r="N120">
-        <v>0.7278378378378378</v>
+        <v>0.7378378378378379</v>
       </c>
       <c r="O120">
         <v>238000</v>
       </c>
       <c r="P120">
-        <v>31300</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -9067,37 +9061,37 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B124">
-        <v>0.6811320754716981</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
       </c>
       <c r="D124">
-        <v>40000</v>
+        <v>18900</v>
       </c>
       <c r="E124">
         <v>5900</v>
       </c>
       <c r="F124">
-        <v>34100</v>
+        <v>13000</v>
       </c>
       <c r="G124">
         <v>2</v>
       </c>
       <c r="H124">
-        <v>16900</v>
+        <v>18900</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -9106,39 +9100,39 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>0.6811320754716981</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="O124">
         <v>0</v>
       </c>
       <c r="P124">
-        <v>36100</v>
+        <v>41100</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B125">
-        <v>0.4833333333333333</v>
+        <v>0.6849056603773584</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
       </c>
       <c r="D125">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="E125">
-        <v>13000</v>
+        <v>5800</v>
       </c>
       <c r="F125">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="G125">
         <v>2</v>
       </c>
       <c r="H125">
-        <v>24800</v>
+        <v>16700</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -9147,7 +9141,7 @@
         <v>2</v>
       </c>
       <c r="K125" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -9156,39 +9150,39 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>0.4833333333333333</v>
+        <v>0.6849056603773584</v>
       </c>
       <c r="O125">
         <v>0</v>
       </c>
       <c r="P125">
-        <v>23200</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B126">
-        <v>0.955</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
       </c>
       <c r="D126">
-        <v>33000</v>
+        <v>34700</v>
       </c>
       <c r="E126">
-        <v>20000</v>
+        <v>8700</v>
       </c>
       <c r="F126">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126">
-        <v>2700</v>
+        <v>20600</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -9197,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="K126" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -9206,13 +9200,13 @@
         <v>1</v>
       </c>
       <c r="N126">
-        <v>0.955</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="O126">
         <v>0</v>
       </c>
       <c r="P126">
-        <v>57300</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -9226,13 +9220,13 @@
         <v>28</v>
       </c>
       <c r="D127">
-        <v>77100</v>
+        <v>44000</v>
       </c>
       <c r="E127">
-        <v>64900</v>
+        <v>4900</v>
       </c>
       <c r="F127">
-        <v>12200</v>
+        <v>39100</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -9270,25 +9264,25 @@
         <v>33</v>
       </c>
       <c r="B128">
-        <v>0.7702127659574468</v>
+        <v>0.7808510638297872</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
       </c>
       <c r="D128">
-        <v>24800</v>
+        <v>33000</v>
       </c>
       <c r="E128">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>10800</v>
+        <v>33000</v>
       </c>
       <c r="G128">
         <v>2</v>
       </c>
       <c r="H128">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -9306,13 +9300,13 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <v>0.7702127659574468</v>
+        <v>0.7808510638297872</v>
       </c>
       <c r="O128">
         <v>0</v>
       </c>
       <c r="P128">
-        <v>36200</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -9320,25 +9314,25 @@
         <v>36</v>
       </c>
       <c r="B129">
-        <v>0.6206349206349207</v>
+        <v>0.6238095238095238</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
       </c>
       <c r="D129">
-        <v>37900</v>
+        <v>49000</v>
       </c>
       <c r="E129">
-        <v>28900</v>
+        <v>11900</v>
       </c>
       <c r="F129">
-        <v>9000</v>
+        <v>37100</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
       <c r="H129">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -9356,13 +9350,13 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>0.6206349206349207</v>
+        <v>0.6238095238095238</v>
       </c>
       <c r="O129">
         <v>0</v>
       </c>
       <c r="P129">
-        <v>39100</v>
+        <v>39300</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -9370,7 +9364,7 @@
         <v>26</v>
       </c>
       <c r="B130">
-        <v>0.5652173913043478</v>
+        <v>0.5643478260869565</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -9388,7 +9382,7 @@
         <v>2</v>
       </c>
       <c r="H130">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="I130">
         <v>1000</v>
@@ -9400,19 +9394,19 @@
         <v>33</v>
       </c>
       <c r="L130">
-        <v>0.9848484848484849</v>
+        <v>0.9848254931714719</v>
       </c>
       <c r="M130">
         <v>2</v>
       </c>
       <c r="N130">
-        <v>0.5603448275862069</v>
+        <v>0.5594827586206896</v>
       </c>
       <c r="O130">
         <v>0</v>
       </c>
       <c r="P130">
-        <v>65000</v>
+        <v>64900</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -9425,15 +9419,6 @@
       <c r="C131" t="s">
         <v>28</v>
       </c>
-      <c r="D131">
-        <v>21000</v>
-      </c>
-      <c r="E131">
-        <v>6000</v>
-      </c>
-      <c r="F131">
-        <v>27000</v>
-      </c>
       <c r="G131">
         <v>3</v>
       </c>
@@ -9470,7 +9455,7 @@
         <v>24</v>
       </c>
       <c r="B132">
-        <v>0.5976190476190476</v>
+        <v>0.2642857142857143</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -9479,31 +9464,31 @@
         <v>3</v>
       </c>
       <c r="H132">
-        <v>16900</v>
+        <v>30900</v>
       </c>
       <c r="I132">
-        <v>205000</v>
+        <v>21000</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132" t="s">
         <v>42</v>
       </c>
       <c r="L132">
-        <v>0.1090830073880921</v>
+        <v>0.3457943925233645</v>
       </c>
       <c r="M132">
         <v>1</v>
       </c>
       <c r="N132">
-        <v>0.4667147320355683</v>
+        <v>0.875270367700072</v>
       </c>
       <c r="O132">
-        <v>169100</v>
+        <v>353100</v>
       </c>
       <c r="P132">
-        <v>25100</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -9511,7 +9496,7 @@
         <v>37</v>
       </c>
       <c r="B133">
-        <v>0.6525</v>
+        <v>0.6475</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -9520,10 +9505,10 @@
         <v>3</v>
       </c>
       <c r="H133">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="I133">
-        <v>11200</v>
+        <v>16100</v>
       </c>
       <c r="J133">
         <v>2</v>
@@ -9532,19 +9517,19 @@
         <v>37</v>
       </c>
       <c r="L133">
-        <v>0.6997319034852547</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
       <c r="N133">
-        <v>0.8549971114962449</v>
+        <v>0.8255343731946851</v>
       </c>
       <c r="O133">
-        <v>121900</v>
+        <v>117000</v>
       </c>
       <c r="P133">
-        <v>26100</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -9552,7 +9537,7 @@
         <v>23</v>
       </c>
       <c r="B134">
-        <v>0.5808823529411765</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -9570,7 +9555,7 @@
         <v>3</v>
       </c>
       <c r="H134">
-        <v>28500</v>
+        <v>29200</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -9588,13 +9573,13 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>0.5808823529411765</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="O134">
         <v>0</v>
       </c>
       <c r="P134">
-        <v>39500</v>
+        <v>38800</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -9602,25 +9587,25 @@
         <v>38</v>
       </c>
       <c r="B135">
-        <v>0.5545454545454546</v>
+        <v>0.5418181818181819</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
       </c>
       <c r="D135">
-        <v>49900</v>
+        <v>34000</v>
       </c>
       <c r="E135">
-        <v>21800</v>
+        <v>1100</v>
       </c>
       <c r="F135">
-        <v>28100</v>
+        <v>35100</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
       <c r="H135">
-        <v>24500</v>
+        <v>25200</v>
       </c>
       <c r="I135">
         <v>1100</v>
@@ -9632,19 +9617,19 @@
         <v>38</v>
       </c>
       <c r="L135">
-        <v>0.9651898734177216</v>
+        <v>0.9644012944983819</v>
       </c>
       <c r="M135">
         <v>1</v>
       </c>
       <c r="N135">
-        <v>0.5436720142602496</v>
+        <v>0.5311942959001783</v>
       </c>
       <c r="O135">
         <v>0</v>
       </c>
       <c r="P135">
-        <v>30500</v>
+        <v>29800</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9652,7 +9637,7 @@
         <v>27</v>
       </c>
       <c r="B136">
-        <v>0.659375</v>
+        <v>0.65625</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -9661,10 +9646,10 @@
         <v>4</v>
       </c>
       <c r="H136">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="I136">
-        <v>289000</v>
+        <v>288000</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -9673,19 +9658,19 @@
         <v>44</v>
       </c>
       <c r="L136">
-        <v>0.06804256691389875</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="M136">
         <v>1</v>
       </c>
       <c r="N136">
-        <v>0.2004798720341242</v>
+        <v>0.2028792322047454</v>
       </c>
       <c r="O136">
-        <v>54100</v>
+        <v>55100</v>
       </c>
       <c r="P136">
-        <v>21100</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9693,7 +9678,7 @@
         <v>35</v>
       </c>
       <c r="B137">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -9702,10 +9687,10 @@
         <v>4</v>
       </c>
       <c r="H137">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="I137">
-        <v>83100</v>
+        <v>77900</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -9714,19 +9699,19 @@
         <v>49</v>
       </c>
       <c r="L137">
-        <v>0.03707995365005794</v>
+        <v>0.0441717791411043</v>
       </c>
       <c r="M137">
         <v>1</v>
       </c>
       <c r="N137">
-        <v>0.460291734197731</v>
+        <v>0.4905456509994597</v>
       </c>
       <c r="O137">
-        <v>82000</v>
+        <v>87200</v>
       </c>
       <c r="P137">
-        <v>3200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9775,49 +9760,40 @@
         <v>32</v>
       </c>
       <c r="B139">
-        <v>0.9</v>
+        <v>0.4377777777777778</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
       </c>
-      <c r="D139">
-        <v>34600</v>
-      </c>
-      <c r="E139">
-        <v>21000</v>
-      </c>
-      <c r="F139">
-        <v>13600</v>
-      </c>
       <c r="G139">
         <v>4</v>
       </c>
       <c r="H139">
-        <v>4500</v>
+        <v>25300</v>
       </c>
       <c r="I139">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="J139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K139" t="s">
         <v>47</v>
       </c>
       <c r="L139">
-        <v>0.3506493506493507</v>
+        <v>0.5518207282913166</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
-        <v>0.2363112391930836</v>
+        <v>0.6032660902977905</v>
       </c>
       <c r="O139">
-        <v>-15900</v>
+        <v>43100</v>
       </c>
       <c r="P139">
-        <v>40500</v>
+        <v>19700</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9825,19 +9801,28 @@
         <v>39</v>
       </c>
       <c r="B140">
-        <v>0.7543478260869565</v>
+        <v>0.75</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
       </c>
+      <c r="D140">
+        <v>69700</v>
+      </c>
+      <c r="E140">
+        <v>54000</v>
+      </c>
+      <c r="F140">
+        <v>15700</v>
+      </c>
       <c r="G140">
         <v>4</v>
       </c>
       <c r="H140">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="I140">
-        <v>112100</v>
+        <v>114700</v>
       </c>
       <c r="J140">
         <v>3</v>
@@ -9846,19 +9831,19 @@
         <v>39</v>
       </c>
       <c r="L140">
-        <v>0.2363760217983651</v>
+        <v>0.2312332439678284</v>
       </c>
       <c r="M140">
         <v>3</v>
       </c>
       <c r="N140">
-        <v>0.2194813409234662</v>
+        <v>0.2161490683229814</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P140">
-        <v>34700</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9866,40 +9851,40 @@
         <v>25</v>
       </c>
       <c r="B141">
-        <v>1.169444444444445</v>
+        <v>0.6972222222222222</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
       </c>
       <c r="G141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H141">
-        <v>-6100</v>
+        <v>10900</v>
       </c>
       <c r="I141">
-        <v>507000</v>
+        <v>489100</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
         <v>43</v>
       </c>
       <c r="L141">
-        <v>0.07667091604443635</v>
+        <v>0.04881369117075068</v>
       </c>
       <c r="M141">
         <v>1</v>
       </c>
       <c r="N141">
-        <v>0.3731698160430484</v>
+        <v>0.3742960830934802</v>
       </c>
       <c r="O141">
-        <v>256100</v>
+        <v>274000</v>
       </c>
       <c r="P141">
-        <v>42100</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -10059,25 +10044,25 @@
         <v>60</v>
       </c>
       <c r="B146">
-        <v>0.8731707317073171</v>
+        <v>0.8765853658536585</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
       </c>
       <c r="D146">
-        <v>26000</v>
+        <v>25300</v>
       </c>
       <c r="E146">
-        <v>22900</v>
+        <v>21900</v>
       </c>
       <c r="F146">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>26000</v>
+        <v>25300</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -10095,39 +10080,39 @@
         <v>1</v>
       </c>
       <c r="N146">
-        <v>0.8731707317073171</v>
+        <v>0.8765853658536585</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>179000</v>
+        <v>179700</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B147">
-        <v>0.788135593220339</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
       </c>
       <c r="D147">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="E147">
-        <v>900</v>
+        <v>36900</v>
       </c>
       <c r="F147">
-        <v>24100</v>
+        <v>8100</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -10136,48 +10121,48 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L147">
         <v>1</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>0.788135593220339</v>
+        <v>0.7836538461538461</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P147">
-        <v>93000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B148">
-        <v>0.5535384615384615</v>
+        <v>0.7838983050847458</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
       </c>
       <c r="D148">
-        <v>145100</v>
+        <v>25500</v>
       </c>
       <c r="E148">
-        <v>138900</v>
+        <v>900</v>
       </c>
       <c r="F148">
-        <v>6200</v>
+        <v>24600</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>145100</v>
+        <v>25500</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -10186,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -10195,39 +10180,39 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>0.5535384615384615</v>
+        <v>0.7838983050847458</v>
       </c>
       <c r="O148">
         <v>0</v>
       </c>
       <c r="P148">
-        <v>179900</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B149">
-        <v>0.9096774193548387</v>
+        <v>0.5387692307692308</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
       </c>
       <c r="D149">
-        <v>14000</v>
+        <v>149900</v>
       </c>
       <c r="E149">
-        <v>9900</v>
+        <v>143900</v>
       </c>
       <c r="F149">
-        <v>4100</v>
+        <v>6000</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>14000</v>
+        <v>149900</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -10236,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -10245,113 +10230,113 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <v>0.9096774193548387</v>
+        <v>0.5387692307692308</v>
       </c>
       <c r="O149">
         <v>0</v>
       </c>
       <c r="P149">
-        <v>141000</v>
+        <v>175100</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B150">
-        <v>0.312406015037594</v>
+        <v>0.9096774193548387</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
       </c>
       <c r="D150">
-        <v>137000</v>
+        <v>14000</v>
       </c>
       <c r="E150">
-        <v>146900</v>
+        <v>9900</v>
       </c>
       <c r="F150">
-        <v>9900</v>
+        <v>4100</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>182900</v>
+        <v>14000</v>
       </c>
       <c r="I150">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="J150">
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L150">
-        <v>0.8935483870967742</v>
+        <v>1</v>
       </c>
       <c r="M150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N150">
-        <v>0.4175226586102719</v>
+        <v>0.9096774193548387</v>
       </c>
       <c r="O150">
-        <v>55100</v>
+        <v>0</v>
       </c>
       <c r="P150">
-        <v>83100</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B151">
-        <v>0.6767241379310345</v>
+        <v>0.312406015037594</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
       </c>
       <c r="D151">
-        <v>75000</v>
+        <v>137000</v>
       </c>
       <c r="E151">
-        <v>68900</v>
+        <v>146900</v>
       </c>
       <c r="F151">
-        <v>6100</v>
+        <v>9900</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>75000</v>
+        <v>182900</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="J151">
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>0.8935483870967742</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N151">
-        <v>0.6767241379310345</v>
+        <v>0.4175226586102719</v>
       </c>
       <c r="O151">
-        <v>0</v>
+        <v>55100</v>
       </c>
       <c r="P151">
-        <v>157000</v>
+        <v>83100</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -10409,25 +10394,25 @@
         <v>71</v>
       </c>
       <c r="B153">
-        <v>0.4666666666666667</v>
+        <v>0.4656410256410257</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
       </c>
       <c r="D153">
-        <v>104000</v>
+        <v>104200</v>
       </c>
       <c r="E153">
         <v>99900</v>
       </c>
       <c r="F153">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>104000</v>
+        <v>104200</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -10445,13 +10430,13 @@
         <v>1</v>
       </c>
       <c r="N153">
-        <v>0.4666666666666667</v>
+        <v>0.4656410256410257</v>
       </c>
       <c r="O153">
         <v>0</v>
       </c>
       <c r="P153">
-        <v>91000</v>
+        <v>90800</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -10506,102 +10491,102 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B155">
-        <v>0.8102439024390244</v>
+        <v>0.3984615384615385</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
       </c>
       <c r="D155">
-        <v>71900</v>
+        <v>2000</v>
       </c>
       <c r="E155">
-        <v>63900</v>
+        <v>6100</v>
       </c>
       <c r="F155">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G155">
         <v>2</v>
       </c>
       <c r="H155">
-        <v>38900</v>
+        <v>78200</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="J155">
         <v>2</v>
       </c>
       <c r="K155" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>0.7617647058823529</v>
       </c>
       <c r="M155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N155">
-        <v>0.8129807692307692</v>
+        <v>0.6115226337448559</v>
       </c>
       <c r="O155">
-        <v>3000</v>
+        <v>96800</v>
       </c>
       <c r="P155">
-        <v>166100</v>
+        <v>51800</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B156">
-        <v>0.3992307692307692</v>
+        <v>0.5607758620689656</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
       </c>
       <c r="D156">
-        <v>1900</v>
+        <v>129000</v>
       </c>
       <c r="E156">
-        <v>10100</v>
+        <v>68900</v>
       </c>
       <c r="F156">
-        <v>12000</v>
+        <v>60100</v>
       </c>
       <c r="G156">
         <v>2</v>
       </c>
       <c r="H156">
-        <v>78100</v>
+        <v>101900</v>
       </c>
       <c r="I156">
-        <v>16200</v>
+        <v>13700</v>
       </c>
       <c r="J156">
         <v>2</v>
       </c>
       <c r="K156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L156">
-        <v>0.762114537444934</v>
+        <v>0.9047287899860917</v>
       </c>
       <c r="M156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N156">
-        <v>0.6119341563786008</v>
+        <v>0.5295075295075296</v>
       </c>
       <c r="O156">
-        <v>96800</v>
+        <v>0</v>
       </c>
       <c r="P156">
-        <v>51900</v>
+        <v>130100</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -10609,7 +10594,7 @@
         <v>69</v>
       </c>
       <c r="B157">
-        <v>0.5721428571428572</v>
+        <v>0.5717857142857142</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -10627,7 +10612,7 @@
         <v>2</v>
       </c>
       <c r="H157">
-        <v>119800</v>
+        <v>119900</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -10645,13 +10630,13 @@
         <v>2</v>
       </c>
       <c r="N157">
-        <v>0.5854671280276816</v>
+        <v>0.585121107266436</v>
       </c>
       <c r="O157">
         <v>9000</v>
       </c>
       <c r="P157">
-        <v>160200</v>
+        <v>160100</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10659,25 +10644,25 @@
         <v>76</v>
       </c>
       <c r="B158">
-        <v>0.3657817109144543</v>
+        <v>0.3651917404129794</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
       </c>
       <c r="D158">
-        <v>257000</v>
+        <v>297000</v>
       </c>
       <c r="E158">
-        <v>250900</v>
+        <v>153900</v>
       </c>
       <c r="F158">
-        <v>6100</v>
+        <v>143100</v>
       </c>
       <c r="G158">
         <v>2</v>
       </c>
       <c r="H158">
-        <v>215000</v>
+        <v>215200</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -10695,13 +10680,13 @@
         <v>1</v>
       </c>
       <c r="N158">
-        <v>0.3657817109144543</v>
+        <v>0.3651917404129794</v>
       </c>
       <c r="O158">
         <v>0</v>
       </c>
       <c r="P158">
-        <v>124000</v>
+        <v>123800</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10709,25 +10694,16 @@
         <v>73</v>
       </c>
       <c r="B159">
-        <v>0.9090909090909091</v>
+        <v>0.3223140495867768</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
       </c>
-      <c r="D159">
-        <v>11000</v>
-      </c>
-      <c r="E159">
-        <v>3900</v>
-      </c>
-      <c r="F159">
-        <v>7100</v>
-      </c>
       <c r="G159">
         <v>3</v>
       </c>
       <c r="H159">
-        <v>11000</v>
+        <v>82000</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -10745,95 +10721,95 @@
         <v>1</v>
       </c>
       <c r="N159">
-        <v>0.9700354126940888</v>
+        <v>0.7766884531590414</v>
       </c>
       <c r="O159">
-        <v>246100</v>
+        <v>246200</v>
       </c>
       <c r="P159">
-        <v>110000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B160">
-        <v>0.9718654434250764</v>
+        <v>0.9541984732824428</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
       </c>
       <c r="G160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="I160">
-        <v>78200</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L160">
-        <v>0.8025252525252525</v>
+        <v>1</v>
       </c>
       <c r="M160">
         <v>1</v>
       </c>
       <c r="N160">
-        <v>0.806251385502106</v>
+        <v>0.9889441680486457</v>
       </c>
       <c r="O160">
-        <v>45900</v>
+        <v>411700</v>
       </c>
       <c r="P160">
-        <v>317800</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="1">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B161">
-        <v>0.9541984732824428</v>
+        <v>0.9691131498470948</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
       </c>
       <c r="G161">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H161">
-        <v>6000</v>
+        <v>10100</v>
       </c>
       <c r="I161">
-        <v>186300</v>
+        <v>78100</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K161" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L161">
-        <v>0.4015419209765499</v>
+        <v>0.8022784810126582</v>
       </c>
       <c r="M161">
         <v>1</v>
       </c>
       <c r="N161">
-        <v>0.6590425531914894</v>
+        <v>0.8044779428064731</v>
       </c>
       <c r="O161">
-        <v>246700</v>
+        <v>46000</v>
       </c>
       <c r="P161">
-        <v>125000</v>
+        <v>316900</v>
       </c>
     </row>
   </sheetData>
